--- a/uploads/data.xlsx
+++ b/uploads/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22" count="22">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41" count="41">
   <x:si>
     <x:t>id</x:t>
   </x:si>
@@ -40,31 +40,283 @@
     <x:t>speed</x:t>
   </x:si>
   <x:si>
+    <x:t>datetime</x:t>
+  </x:si>
+  <x:si>
     <x:t>广东省佛山市南海区西樵镇西樵山西樵山风景名胜区</x:t>
   </x:si>
   <x:si>
+    <x:t>桃健康</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[{"name":"苹果健康","value":0.00017873001070256578},{"name":"苹果黑星病一般","value":0.000010266488459365064},{"name":"玉米锈病一般","value":0.000006817222697463876},{"name":"玉米锈病严重","value":0.000010591988086616766},{"name":"葡萄健康","value":0.000005244349310373764},{"name":"葡萄黑腐病一般","value":0.00000695524491334254},{"name":"葡萄黑腐病严重","value":0.000002003465660038728},{"name":"苹果黑星病严重","value":0.000027452625772639294},{"name":"桃健康","value":99.87145066261292},{"name":"桃疮痂病一般","value":0.12301651295274496},{"name":"桃疮痂病严重","value":0.0028121972718508914},{"name":"辣椒健康","value":0.00008054007025748433},{"name":"辣椒疮痂病一般","value":0.00020228012544976082},{"name":"辣椒疮痂病严重","value":0.000009343831663954916},{"name":"马铃薯健康","value":0.000011222118700970896},{"name":"马铃薯早疫病一般","value":0.000005377006218054703},{"name":"马铃薯早疫病严重","value":3.482444332902901e-7},{"name":"草莓健康","value":0.0000163976054068371},{"name":"草莓叶枯病一般","value":0.0000174701483501849},{"name":"草莓叶枯病严重","value":0.00005821581225973205},{"name":"番茄健康","value":0.000007500157295226018},{"name":"未识别到植物","value":0.0012858508853241801},{"name":"番茄叶斑病一般","value":0.000040271856960316654},{"name":"番茄叶斑病严重","value":0.000011522306664346615},{"name":"樱桃健康","value":0.000017880944369608187},{"name":"樱桃白粉病一般","value":0.0002556189883762272},{"name":"樱桃白粉病严重","value":0.00008934689503803384},{"name":"玉米健康","value":0.00036062917843082687}]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>file-1688022820163-499345057.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>辣椒疮痂病一般</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[{"name":"苹果健康","value":0.0010542705240368377},{"name":"苹果黑星病一般","value":0.013875456352252513},{"name":"玉米锈病一般","value":0.0024876444513211027},{"name":"玉米锈病严重","value":0.00071587774073123},{"name":"葡萄健康","value":0.000472509054816328},{"name":"葡萄黑腐病一般","value":0.00020292779936426086},{"name":"葡萄黑腐病严重","value":0.0060216272686375305},{"name":"苹果黑星病严重","value":0.004544827243080363},{"name":"桃健康","value":0.042931578354910016},{"name":"桃疮痂病一般","value":0.03258136275690049},{"name":"桃疮痂病严重","value":0.002100695201079361},{"name":"辣椒健康","value":0.0012107467227906454},{"name":"辣椒疮痂病一般","value":61.06540560722351},{"name":"辣椒疮痂病严重","value":38.815146684646606},{"name":"马铃薯健康","value":0.0016653293641866185},{"name":"马铃薯早疫病一般","value":0.0010846311852219515},{"name":"马铃薯早疫病严重","value":0.00007990703352334094},{"name":"草莓健康","value":0.000491315267936443},{"name":"草莓叶枯病一般","value":0.0009684629731054883},{"name":"草莓叶枯病严重","value":0.0002125081664416939},{"name":"番茄健康","value":0.00004335786343290238},{"name":"未识别到植物","value":0.0027687137844623066},{"name":"番茄叶斑病一般","value":0.0011907402040378656},{"name":"番茄叶斑病严重","value":0.000855234611663036},{"name":"樱桃健康","value":0.0002214105961684254},{"name":"樱桃白粉病一般","value":0.0010330079021514393},{"name":"樱桃白粉病严重","value":0.00013718215541302925},{"name":"玉米健康","value":0.0004954273208568338}]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>file-1688022820162-958699876.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>番茄健康</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[{"name":"苹果健康","value":0.05729171680286527},{"name":"苹果黑星病一般","value":0.4997551441192627},{"name":"玉米锈病一般","value":0.022324267774820328},{"name":"玉米锈病严重","value":0.012790628534276038},{"name":"葡萄健康","value":0.0006622064120165305},{"name":"葡萄黑腐病一般","value":0.012491963570937514},{"name":"葡萄黑腐病严重","value":0.001601619806024246},{"name":"苹果黑星病严重","value":0.07233364740386605},{"name":"桃健康","value":0.4019366577267647},{"name":"桃疮痂病一般","value":0.5743934772908688},{"name":"桃疮痂病严重","value":0.032024961546994746},{"name":"辣椒健康","value":0.18399108666926622},{"name":"辣椒疮痂病一般","value":3.410177305340767},{"name":"辣椒疮痂病严重","value":0.056780147133395076},{"name":"马铃薯健康","value":0.016263159341178834},{"name":"马铃薯早疫病一般","value":0.028086412930861115},{"name":"马铃薯早疫病严重","value":0.0019642600818770006},{"name":"草莓健康","value":0.02427686849841848},{"name":"草莓叶枯病一般","value":0.018839102995116264},{"name":"草莓叶枯病严重","value":0.002768742160697002},{"name":"番茄健康","value":93.69291067123413},{"name":"未识别到植物","value":0.008321235509356484},{"name":"番茄叶斑病一般","value":0.35379945766180754},{"name":"番茄叶斑病严重","value":0.04392463306430727},{"name":"樱桃健康","value":0.01111167948693037},{"name":"樱桃白粉病一般","value":0.08959326078183949},{"name":"樱桃白粉病严重","value":0.3274511778727174},{"name":"玉米健康","value":0.0421329663367942}]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>file-1688022820165-843001231.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>苹果黑星病一般</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[{"name":"苹果健康","value":0.00034906554446934024},{"name":"苹果黑星病一般","value":99.89703893661499},{"name":"玉米锈病一般","value":0.00046969144023023546},{"name":"玉米锈病严重","value":0.000005217038534510721},{"name":"葡萄健康","value":0.0003889428626280278},{"name":"葡萄黑腐病一般","value":0.000055634177442698274},{"name":"葡萄黑腐病严重","value":0.000017106093253005383},{"name":"苹果黑星病严重","value":0.08938494720496237},{"name":"桃健康","value":0.000016679206282788073},{"name":"桃疮痂病一般","value":0.0018555845599621534},{"name":"桃疮痂病严重","value":0.000012531930337900121},{"name":"辣椒健康","value":0.0000022636228891315113},{"name":"辣椒疮痂病一般","value":0.009772655903361738},{"name":"辣椒疮痂病严重","value":0.00007697129262851377},{"name":"马铃薯健康","value":2.1102475322720693e-7},{"name":"马铃薯早疫病一般","value":0.000029718705718551064},{"name":"马铃薯早疫病严重","value":0.0000023089921086238974},{"name":"草莓健康","value":0.000020186769233987434},{"name":"草莓叶枯病一般","value":0.0000030510630466551447},{"name":"草莓叶枯病严重","value":4.41986558463725e-8},{"name":"番茄健康","value":7.329184370519215e-7},{"name":"未识别到植物","value":0.000004029383759984739},{"name":"番茄叶斑病一般","value":0.00003486567266008933},{"name":"番茄叶斑病严重","value":0.0000010439362263525709},{"name":"樱桃健康","value":0.0004309033101890236},{"name":"樱桃白粉病一般","value":0.00001111315768298482},{"name":"樱桃白粉病严重","value":0.000008371676329943512},{"name":"玉米健康","value":0.000004357928773401909}]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>file-1688022820167-839386374.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>草莓叶枯病一般</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[{"name":"苹果健康","value":4.262765251894507e-7},{"name":"苹果黑星病一般","value":0.000004640412143430694},{"name":"玉米锈病一般","value":0.0009218902960128617},{"name":"玉米锈病严重","value":0.00011672794926198549},{"name":"葡萄健康","value":6.209057268335982e-7},{"name":"葡萄黑腐病一般","value":0.000014178017693211586},{"name":"葡萄黑腐病严重","value":0.00010015262432716554},{"name":"苹果黑星病严重","value":0.000008422316710721134},{"name":"桃健康","value":0.0000015749995085911905},{"name":"桃疮痂病一般","value":0.0000530866032022459},{"name":"桃疮痂病严重","value":0.0000075655222531167965},{"name":"辣椒健康","value":1.9666934747419873e-7},{"name":"辣椒疮痂病一般","value":0.00003404160509035137},{"name":"辣椒疮痂病严重","value":0.00000569431009012078},{"name":"马铃薯健康","value":0.000002511849572783831},{"name":"马铃薯早疫病一般","value":0.00007562802579741401},{"name":"马铃薯早疫病严重","value":0.000010937267092003822},{"name":"草莓健康","value":0.00021229377580311848},{"name":"草莓叶枯病一般","value":99.77348446846008},{"name":"草莓叶枯病严重","value":0.2247462049126625},{"name":"番茄健康","value":0.00000324514211058613},{"name":"未识别到植物","value":0.000011006257949475184},{"name":"番茄叶斑病一般","value":0.00005946507712906168},{"name":"番茄叶斑病严重","value":0.000008958117092561224},{"name":"樱桃健康","value":6.952381781388794e-7},{"name":"樱桃白粉病一般","value":0.00010077658316731686},{"name":"樱桃白粉病严重","value":0.000009167631986883862},{"name":"玉米健康","value":0.000008326611578013399}]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>file-1688022820163-467523931.JPG</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>番茄叶斑病一般</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[{"name":"苹果健康","value":0.000021989244203268754},{"name":"苹果黑星病一般","value":0.0005542977305594832},{"name":"玉米锈病一般","value":0.000482015275338199},{"name":"玉米锈病严重","value":0.00024999160359584494},{"name":"葡萄健康","value":0.00007443581466759497},{"name":"葡萄黑腐病一般","value":0.00008178890311683062},{"name":"葡萄黑腐病严重","value":0.0002380691284997738},{"name":"苹果黑星病严重","value":0.00030919252367311856},{"name":"桃健康","value":0.0038924801629036665},{"name":"桃疮痂病一般","value":0.025730737252160907},{"name":"桃疮痂病严重","value":0.00039794299482309725},{"name":"辣椒健康","value":0.0002509820205887081},{"name":"辣椒疮痂病一般","value":0.05081766867078841},{"name":"辣椒疮痂病严重","value":0.007849896792322397},{"name":"马铃薯健康","value":0.0012592222446983214},{"name":"马铃薯早疫病一般","value":0.0028301601560087875},{"name":"马铃薯早疫病严重","value":0.00012607266626218916},{"name":"草莓健康","value":0.00015020767705209437},{"name":"草莓叶枯病一般","value":0.0027477266485220753},{"name":"草莓叶枯病严重","value":0.000067620243271449},{"name":"番茄健康","value":0.00026134525796805974},{"name":"未识别到植物","value":0.000060543999325091136},{"name":"番茄叶斑病一般","value":73.02305102348328},{"name":"番茄叶斑病严重","value":26.878121495246887},{"name":"樱桃健康","value":0.00016004719327611383},{"name":"樱桃白粉病一般","value":0.000039105674431993975},{"name":"樱桃白粉病严重","value":0.00015906807675492018},{"name":"玉米健康","value":0.000014043526164186915}]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>file-1688022820166-251135096.JPG</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>辣椒健康</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[{"name":"苹果健康","value":0.000055292957767960615},{"name":"苹果黑星病一般","value":0.00007868234206398483},{"name":"玉米锈病一般","value":0.000028718619660139666},{"name":"玉米锈病严重","value":0.000014737155140664981},{"name":"葡萄健康","value":0.00013638865539178369},{"name":"葡萄黑腐病一般","value":0.000019898347147773165},{"name":"葡萄黑腐病严重","value":0.00000286443970765049},{"name":"苹果黑星病严重","value":0.000022157790624532936},{"name":"桃健康","value":0.2567657735198736},{"name":"桃疮痂病一般","value":0.0021303625544533134},{"name":"桃疮痂病严重","value":0.000022802876742389344},{"name":"辣椒健康","value":97.22160696983337},{"name":"辣椒疮痂病一般","value":2.513072080910206},{"name":"辣椒疮痂病严重","value":0.00038073330870247446},{"name":"马铃薯健康","value":0.00032985540201480035},{"name":"马铃薯早疫病一般","value":0.00006403405450328137},{"name":"马铃薯早疫病严重","value":0.0000011022197377030807},{"name":"草莓健康","value":0.0001652145328989718},{"name":"草莓叶枯病一般","value":0.000007535142998449373},{"name":"草莓叶枯病严重","value":0.000006126641238779484},{"name":"番茄健康","value":0.0029152561182854697},{"name":"未识别到植物","value":0.00006555020490850438},{"name":"番茄叶斑病一般","value":0.0004213383363094181},{"name":"番茄叶斑病严重","value":0.00000227210374958986},{"name":"樱桃健康","value":0.00001021515458887734},{"name":"樱桃白粉病一般","value":0.0011732868188119028},{"name":"樱桃白粉病严重","value":0.0001063592208083719},{"name":"玉米健康","value":0.00039164538065961096}]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>file-1688022820188-868959342.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[{"name":"苹果健康","value":0.0028678536182269454},{"name":"苹果黑星病一般","value":0.33622090704739094},{"name":"玉米锈病一般","value":0.053149787709116936},{"name":"玉米锈病严重","value":0.031139171915128827},{"name":"葡萄健康","value":0.550096808001399},{"name":"葡萄黑腐病一般","value":0.00028842939627793385},{"name":"葡萄黑腐病严重","value":0.00046231320993683767},{"name":"苹果黑星病严重","value":0.012429855996742845},{"name":"桃健康","value":13.063700497150421},{"name":"桃疮痂病一般","value":0.04078815400134772},{"name":"桃疮痂病严重","value":0.008960812556324527},{"name":"辣椒健康","value":0.17680664313957095},{"name":"辣椒疮痂病一般","value":51.9478976726532},{"name":"辣椒疮痂病严重","value":0.32305505592375994},{"name":"马铃薯健康","value":32.52548277378082},{"name":"马铃薯早疫病一般","value":0.07225323934108019},{"name":"马铃薯早疫病严重","value":0.0007185613867477514},{"name":"草莓健康","value":0.039345474215224385},{"name":"草莓叶枯病一般","value":0.0011520964108058251},{"name":"草莓叶枯病严重","value":0.00016932038988670683},{"name":"番茄健康","value":0.040507304947823286},{"name":"未识别到植物","value":0.042689318070188165},{"name":"番茄叶斑病一般","value":0.6705481093376875},{"name":"番茄叶斑病严重","value":0.016205970314331353},{"name":"樱桃健康","value":0.013897512690164149},{"name":"樱桃白粉病一般","value":0.012544800119940192},{"name":"樱桃白粉病严重","value":0.002271818812005222},{"name":"玉米健康","value":0.014350513811223209}]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>file-1688022820189-891170016.JPG</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>番茄叶斑病严重</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[{"name":"苹果健康","value":0.0003422325562496553},{"name":"苹果黑星病一般","value":0.0006424695584428264},{"name":"玉米锈病一般","value":0.0061243925301823765},{"name":"玉米锈病严重","value":0.034520303597673774},{"name":"葡萄健康","value":0.009162195783574134},{"name":"葡萄黑腐病一般","value":0.01229985209647566},{"name":"葡萄黑腐病严重","value":0.15430976636707783},{"name":"苹果黑星病严重","value":0.0076693751907441765},{"name":"桃健康","value":0.00313253840431571},{"name":"桃疮痂病一般","value":0.2969220979139209},{"name":"桃疮痂病严重","value":0.1225054613314569},{"name":"辣椒健康","value":0.006629794370383024},{"name":"辣椒疮痂病一般","value":0.09697413770481944},{"name":"辣椒疮痂病严重","value":2.024686336517334},{"name":"马铃薯健康","value":0.016343251627404243},{"name":"马铃薯早疫病一般","value":0.046231294982135296},{"name":"马铃薯早疫病严重","value":0.3392439801245928},{"name":"草莓健康","value":0.0003468584736765479},{"name":"草莓叶枯病一般","value":0.0845254398882389},{"name":"草莓叶枯病严重","value":0.030446011805906892},{"name":"番茄健康","value":0.0011815111065516248},{"name":"未识别到植物","value":0.012531812535598874},{"name":"番茄叶斑病一般","value":0.32629964407533407},{"name":"番茄叶斑病严重","value":96.35207056999207},{"name":"樱桃健康","value":0.0003886909780703718},{"name":"樱桃白粉病一般","value":0.0017653590475674719},{"name":"樱桃白粉病严重","value":0.01215776865137741},{"name":"玉米健康","value":0.0005443242571345763}]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>file-1688022820189-660149523.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>葡萄黑腐病严重</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[{"name":"苹果健康","value":0.000007864485240816066},{"name":"苹果黑星病一般","value":0.000001807240934681431},{"name":"玉米锈病一般","value":0.000024005555587791605},{"name":"玉米锈病严重","value":0.000028494201842477196},{"name":"葡萄健康","value":0.00003010721343343903},{"name":"葡萄黑腐病一般","value":0.00034899753700301517},{"name":"葡萄黑腐病严重","value":99.99112486839294},{"name":"苹果黑星病严重","value":0.0003202829702786403},{"name":"桃健康","value":0.000009981884119270035},{"name":"桃疮痂病一般","value":0.00008453616828774102},{"name":"桃疮痂病严重","value":0.0000033036879898418192},{"name":"辣椒健康","value":0.000003590112740425866},{"name":"辣椒疮痂病一般","value":0.000020051768956363958},{"name":"辣椒疮痂病严重","value":0.00018845761360353208},{"name":"马铃薯健康","value":0.0000033463962267887837},{"name":"马铃薯早疫病一般","value":0.0000049512145494645665},{"name":"马铃薯早疫病严重","value":0.00006143952191450808},{"name":"草莓健康","value":0.0000059616461101086315},{"name":"草莓叶枯病一般","value":0.006515778659377247},{"name":"草莓叶枯病严重","value":0.0006583640242752153},{"name":"番茄健康","value":0.000002452209635350755},{"name":"未识别到植物","value":0.0002616789288367727},{"name":"番茄叶斑病一般","value":0.0000975782882051135},{"name":"番茄叶斑病严重","value":0.000042915954168165626},{"name":"樱桃健康","value":0.000004392410346554243},{"name":"樱桃白粉病一般","value":0.0000315555496399611},{"name":"樱桃白粉病严重","value":0.000006176768607701888},{"name":"玉米健康","value":0.00010837302397703752}]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>file-1688022820189-527604198.JPG</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[{"name":"苹果健康","value":0.0036313849705038592},{"name":"苹果黑星病一般","value":0.07019347394816577},{"name":"玉米锈病一般","value":0.011017316865036264},{"name":"玉米锈病严重","value":0.010212004417553544},{"name":"葡萄健康","value":0.0012297750799916685},{"name":"葡萄黑腐病一般","value":0.0006467839284596266},{"name":"葡萄黑腐病严重","value":0.001418960982846329},{"name":"苹果黑星病严重","value":0.010113216558238491},{"name":"桃健康","value":6.889239698648453},{"name":"桃疮痂病一般","value":0.09710081503726542},{"name":"桃疮痂病严重","value":0.009983852214645594},{"name":"辣椒健康","value":0.1313783577643335},{"name":"辣椒疮痂病一般","value":91.10198020935059},{"name":"辣椒疮痂病严重","value":1.3859421946108341},{"name":"马铃薯健康","value":0.015804557187948376},{"name":"马铃薯早疫病一般","value":0.07194848149083555},{"name":"马铃薯早疫病严重","value":0.0004764862296724459},{"name":"草莓健康","value":0.024096113338600844},{"name":"草莓叶枯病一般","value":0.0037944460927974433},{"name":"草莓叶枯病严重","value":0.0002300149844813859},{"name":"番茄健康","value":0.0026676874767872505},{"name":"未识别到植物","value":0.08198792347684503},{"name":"番茄叶斑病一般","value":0.03354762447997928},{"name":"番茄叶斑病严重","value":0.0029535411158576608},{"name":"樱桃健康","value":0.0005333655280992389},{"name":"樱桃白粉病一般","value":0.025715166702866554},{"name":"樱桃白粉病严重","value":0.00455454683105927},{"name":"玉米健康","value":0.007601622201036662}]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>file-1688022820190-771912027.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:42 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>樱桃白粉病一般</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[{"name":"苹果健康","value":0.0012799378055206034},{"name":"苹果黑星病一般","value":0.0035075965570285916},{"name":"玉米锈病一般","value":0.0006765350462956121},{"name":"玉米锈病严重","value":0.000019210865787044895},{"name":"葡萄健康","value":0.0005160396995051997},{"name":"葡萄黑腐病一般","value":0.000013990592151458259},{"name":"葡萄黑腐病严重","value":0.000002713312419189151},{"name":"苹果黑星病严重","value":0.0006061473413865315},{"name":"桃健康","value":0.00102387703009299},{"name":"桃疮痂病一般","value":0.015988900850061327},{"name":"桃疮痂病严重","value":0.00030172050173860043},{"name":"辣椒健康","value":0.009919202420860529},{"name":"辣椒疮痂病一般","value":0.00024285182007588446},{"name":"辣椒疮痂病严重","value":6.203590974251938e-7},{"name":"马铃薯健康","value":0.0019911058188881725},{"name":"马铃薯早疫病一般","value":0.00007646424364793347},{"name":"马铃薯早疫病严重","value":0.0000020855773996686366},{"name":"草莓健康","value":0.0003123392389170476},{"name":"草莓叶枯病一般","value":0.000020594120542227756},{"name":"草莓叶枯病严重","value":0.000005294190330573656},{"name":"番茄健康","value":0.0001247160525963409},{"name":"未识别到植物","value":0.000055974726365093375},{"name":"番茄叶斑病一般","value":0.0003445047241257271},{"name":"番茄叶斑病严重","value":0.0000017487263193061153},{"name":"樱桃健康","value":0.000050042018528984045},{"name":"樱桃白粉病一般","value":99.71826076507568},{"name":"樱桃白粉病严重","value":0.2437450224533677},{"name":"玉米健康","value":0.0009125145879806951}]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>file-1688022820189-146507626.JPG</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:42 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>苹果健康</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[{"name":"苹果健康","value":95.54334282875061},{"name":"苹果黑星病一般","value":0.30449707992374897},{"name":"玉米锈病一般","value":0.0034930435504065827},{"name":"玉米锈病严重","value":0.006250516162253916},{"name":"葡萄健康","value":0.37532688584178686},{"name":"葡萄黑腐病一般","value":0.008587279444327578},{"name":"葡萄黑腐病严重","value":0.0017813646991271526},{"name":"苹果黑星病严重","value":0.05806858534924686},{"name":"桃健康","value":1.977459341287613},{"name":"桃疮痂病一般","value":0.2180927200242877},{"name":"桃疮痂病严重","value":0.30047132167965174},{"name":"辣椒健康","value":0.08879783563315868},{"name":"辣椒疮痂病一般","value":0.018037165864370763},{"name":"辣椒疮痂病严重","value":0.0030332637834362686},{"name":"马铃薯健康","value":0.006359582766890526},{"name":"马铃薯早疫病一般","value":0.009670709550846368},{"name":"马铃薯早疫病严重","value":0.0035012497392017394},{"name":"草莓健康","value":0.3326311241835356},{"name":"草莓叶枯病一般","value":0.0057673078117659315},{"name":"草莓叶枯病严重","value":0.005088704347144812},{"name":"番茄健康","value":0.15141634503379464},{"name":"未识别到植物","value":0.01202054918394424},{"name":"番茄叶斑病一般","value":0.15398886753246188},{"name":"番茄叶斑病严重","value":0.23379202466458082},{"name":"樱桃健康","value":0.01188811584142968},{"name":"樱桃白粉病一般","value":0.021837936947122216},{"name":"樱桃白粉病严重","value":0.042732738074846566},{"name":"玉米健康","value":0.10206714505329728}]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>file-1688022820221-918587094.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:42 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
     <x:t>葡萄黑腐病一般</x:t>
   </x:si>
   <x:si>
-    <x:t>[{"name":"苹果健康","value":8.122598704751738e-8},{"name":"苹果黑星病一般","value":1.7983106115337932e-7},{"name":"苹果黑星病严重","value":1.0326710597752253e-7},{"name":"苹果灰斑病","value":0.000004765224304037474},{"name":"苹果雪松锈病一般","value":1.3438636869977927e-7},{"name":"苹果雪松锈病严重","value":5.554320545164693e-9},{"name":"樱桃健康","value":6.373412908544651e-7},{"name":"樱桃白粉病一般","value":2.9707689641611523e-7},{"name":"樱桃白粉病严重","value":6.187511836230897e-7},{"name":"玉米健康","value":4.985667434453944e-8},{"name":"玉米灰斑病一般","value":7.66530661167053e-7},{"name":"玉米灰斑病严重","value":6.557678400298528e-7},{"name":"玉米锈病一般","value":2.805264631700055e-8},{"name":"玉米锈病严重","value":1.866697241226234e-7},{"name":"玉米叶斑病一般","value":1.7251865491729745e-7},{"name":"玉米叶斑病严重","value":0.0000027880618702624815},{"name":"玉米花叶病毒病","value":3.500424234324784e-11},{"name":"葡萄健康","value":0.000411929022448021},{"name":"葡萄黑腐病一般","value":64.57200646400452},{"name":"葡萄黑腐病严重","value":35.41126847267151},{"name":"葡萄轮斑病一般","value":0.006074488192098215},{"name":"葡萄轮斑病严重","value":0.0005973685347271385},{"name":"葡萄褐斑病一般","value":0.008832185267237946},{"name":"葡萄褐斑病严重","value":0.00040111603993864264},{"name":"柑桔健康","value":0.000002857749592521941},{"name":"柑桔黄龙病一般","value":0.000003947489091160605},{"name":"柑桔黄龙病严重","value":0.000006401955943147186},{"name":"桃健康","value":0.0000037235096783660993},{"name":"桃疮痂病一般","value":0.000013746814886417269},{"name":"桃疮痂病严重","value":1.6065546670773756e-7},{"name":"辣椒健康","value":0.0000018092865872176844},{"name":"辣椒疮痂病一般","value":0.000006974380539759295},{"name":"辣椒疮痂病严重","value":0.0000023461574016891973},{"name":"马铃薯健康","value":1.3073901683480216e-8},{"name":"马铃薯早疫病一般","value":4.3613330724667776e-7},{"name":"马铃薯早疫病严重","value":4.2658196419687044e-9},{"name":"马铃薯晚疫病一般","value":6.527441698267467e-7},{"name":"马铃薯晚疫病严重","value":3.492771849522569e-7},{"name":"草莓健康","value":1.210017863684243e-7},{"name":"草莓叶枯病一般","value":1.9554220465067829e-7},{"name":"草莓叶枯病严重","value":3.937208059578978e-8},{"name":"番茄健康","value":0.000002099011453537969},{"name":"番茄白粉病一般","value":0.0000382286657441},{"name":"番茄白粉病严重","value":0.000050538005780254025},{"name":"番茄疮痴病一般","value":5.1763493491563395e-8},{"name":"番茄疮痴病严重","value":5.176344353152729e-8},{"name":"番茄早疫病一般","value":0.00011787268476837198},{"name":"番茄早疫病严重","value":0.000006925770179577739},{"name":"番茄晚疫病菌一般","value":0.00001103511522160261},{"name":"番茄晚疫病菌严重","value":0.000010416363949161678},{"name":"番茄叶霉病一般","value":6.623178117060036e-8},{"name":"番茄叶霉病严重","value":7.403677670936304e-8},{"name":"番茄斑点病一般","value":0.000032143077532964526},{"name":"番茄斑点病严重","value":0.000006869478852422617},{"name":"番茄斑枯病一般","value":0.000003740950305086699},{"name":"番茄斑枯病严重","value":3.354839295255374e-7},{"name":"番茄红蜘蛛损伤一般","value":0.000001356201728697215},{"name":"番茄红蜘蛛损伤严重","value":0.000004011993937069747},{"name":"番茄黄化曲叶病毒病一般","value":0.00006058066333025636},{"name":"番茄黄化曲叶病毒病严重","value":0.000003488402811058222},{"name":"番茄花叶病毒病","value":1.9706345444348017e-7}]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>file-1687778829006-640367426.jpg</x:t>
+    <x:t>[{"name":"苹果健康","value":0.0006400660367944511},{"name":"苹果黑星病一般","value":0.0345314183505252},{"name":"玉米锈病一般","value":0.00007969156285980716},{"name":"玉米锈病严重","value":0.00003301569222458056},{"name":"葡萄健康","value":0.02325837849639356},{"name":"葡萄黑腐病一般","value":95.99584341049194},{"name":"葡萄黑腐病严重","value":3.9027858525514603},{"name":"苹果黑星病严重","value":0.02528828918002546},{"name":"桃健康","value":0.000017467655766267853},{"name":"桃疮痂病一般","value":0.009883235179586336},{"name":"桃疮痂病严重","value":0.00016701241065675276},{"name":"辣椒健康","value":0.000018785850386393577},{"name":"辣椒疮痂病一般","value":0.0013681198652193416},{"name":"辣椒疮痂病严重","value":0.00011715811751855654},{"name":"马铃薯健康","value":0.000003512171531383501},{"name":"马铃薯早疫病一般","value":0.0000787383442002465},{"name":"马铃薯早疫病严重","value":0.00002169236665849894},{"name":"草莓健康","value":0.00029378629733400885},{"name":"草莓叶枯病一般","value":0.00018560136822998174},{"name":"草莓叶枯病严重","value":0.0000198459275679852},{"name":"番茄健康","value":0.00013386902537604328},{"name":"未识别到植物","value":0.00009568487939759507},{"name":"番茄叶斑病一般","value":0.003993215432274155},{"name":"番茄叶斑病严重","value":0.0008249646270996891},{"name":"樱桃健康","value":0.00012471630270738387},{"name":"樱桃白粉病一般","value":0.000054687541251041694},{"name":"樱桃白粉病严重","value":0.00010676160400180379},{"name":"玉米健康","value":0.0000305447457549235}]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>file-1688022820221-946519835.JPG</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:42 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>樱桃健康</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[{"name":"苹果健康","value":0.00043832465053128544},{"name":"苹果黑星病一般","value":0.026517864898778498},{"name":"玉米锈病一般","value":0.0030139675800455734},{"name":"玉米锈病严重","value":0.0003507504288791097},{"name":"葡萄健康","value":0.00009940451946022222},{"name":"葡萄黑腐病一般","value":0.000007768763765625408},{"name":"葡萄黑腐病严重","value":0.000014388588454039564},{"name":"苹果黑星病严重","value":0.00022828844521427527},{"name":"桃健康","value":0.007936718611745164},{"name":"桃疮痂病一般","value":0.005989232522551902},{"name":"桃疮痂病严重","value":0.00034526142371760216},{"name":"辣椒健康","value":0.00019363430965313455},{"name":"辣椒疮痂病一般","value":0.019839084416162223},{"name":"辣椒疮痂病严重","value":0.0008027549483813345},{"name":"马铃薯健康","value":0.0012621258065337315},{"name":"马铃薯早疫病一般","value":0.000011874136163214644},{"name":"马铃薯早疫病严重","value":0.000008767470660586696},{"name":"草莓健康","value":0.002906963163695764},{"name":"草莓叶枯病一般","value":0.00023617715214641066},{"name":"草莓叶枯病严重","value":0.000023103912383248826},{"name":"番茄健康","value":0.00025419576559215784},{"name":"未识别到植物","value":0.000034773927382047987},{"name":"番茄叶斑病一般","value":0.0007646935046068393},{"name":"番茄叶斑病严重","value":0.00035032103369303513},{"name":"樱桃健康","value":99.92730617523193},{"name":"樱桃白粉病一般","value":0.000021602332367365307},{"name":"樱桃白粉病严重","value":0.000010966103047849174},{"name":"玉米健康","value":0.0010299083442077972}]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>file-1688022820222-74523931.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:42 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>樱桃白粉病严重</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[{"name":"苹果健康","value":0.0004853904101764783},{"name":"苹果黑星病一般","value":0.00030565483939426485},{"name":"玉米锈病一般","value":0.0000600477903844876},{"name":"玉米锈病严重","value":0.00012877882227257942},{"name":"葡萄健康","value":0.00002026927035103654},{"name":"葡萄黑腐病一般","value":0.000021085020307509694},{"name":"葡萄黑腐病严重","value":0.0000520610342391592},{"name":"苹果黑星病严重","value":0.004975708361598663},{"name":"桃健康","value":0.0001324147319792246},{"name":"桃疮痂病一般","value":0.0012882744158559944},{"name":"桃疮痂病严重","value":0.0008298498869407922},{"name":"辣椒健康","value":0.00029968377930345014},{"name":"辣椒疮痂病一般","value":0.00048065408009279054},{"name":"辣椒疮痂病严重","value":0.00013730559658142738},{"name":"马铃薯健康","value":0.00018332177660340676},{"name":"马铃薯早疫病一般","value":0.00035373766422708286},{"name":"马铃薯早疫病严重","value":0.000029912746413174318},{"name":"草莓健康","value":0.00005723322828998789},{"name":"草莓叶枯病一般","value":0.000257080660048814},{"name":"草莓叶枯病严重","value":0.00004526087877820828},{"name":"番茄健康","value":0.0006312519417406293},{"name":"未识别到植物","value":0.00003078467614159308},{"name":"番茄叶斑病一般","value":0.00019647361568786437},{"name":"番茄叶斑病严重","value":0.0003409224746064865},{"name":"樱桃健康","value":0.00002071826514793429},{"name":"樱桃白粉病一般","value":3.300829604268074},{"name":"樱桃白粉病严重","value":96.68722152709961},{"name":"玉米健康","value":0.0005862420948687941}]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>file-1688022820223-456549833.JPG</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:42 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[{"name":"苹果健康","value":0.00004215751516767341},{"name":"苹果黑星病一般","value":0.00017503683693576022},{"name":"玉米锈病一般","value":0.0006130639576440444},{"name":"玉米锈病严重","value":0.001946073280123528},{"name":"葡萄健康","value":0.00012400008699842147},{"name":"葡萄黑腐病一般","value":0.00004829507815884426},{"name":"葡萄黑腐病严重","value":0.0014637943422712851},{"name":"苹果黑星病严重","value":0.00221349091589218},{"name":"桃健康","value":0.0000903322927570116},{"name":"桃疮痂病一般","value":0.0007517649464716669},{"name":"桃疮痂病严重","value":0.0004098703357158229},{"name":"辣椒健康","value":0.000024039786694629584},{"name":"辣椒疮痂病一般","value":0.00016044164112827275},{"name":"辣椒疮痂病严重","value":0.0002514457491997746},{"name":"马铃薯健康","value":0.0006249044417927507},{"name":"马铃薯早疫病一般","value":0.005655266431858763},{"name":"马铃薯早疫病严重","value":0.013512009172700346},{"name":"草莓健康","value":0.0005956689165032003},{"name":"草莓叶枯病一般","value":84.59674715995789},{"name":"草莓叶枯病严重","value":15.370345115661621},{"name":"番茄健康","value":0.00001791265447081969},{"name":"未识别到植物","value":0.0005896538823435549},{"name":"番茄叶斑病一般","value":0.0006869853223179234},{"name":"番茄叶斑病严重","value":0.00106757352114073},{"name":"樱桃健康","value":0.00006871578079881147},{"name":"樱桃白粉病一般","value":0.001116468683903804},{"name":"樱桃白粉病严重","value":0.00012124302202209947},{"name":"玉米健康","value":0.0005402211627369979}]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>file-1688022820223-647223563.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:42 GMT+0800 (台北标准时间)</x:t>
   </x:si>
   <x:si>
     <x:t>葡萄健康</x:t>
   </x:si>
   <x:si>
-    <x:t>[{"name":"苹果健康","value":0.0000040492750486009754},{"name":"苹果黑星病一般","value":0.0000024854756475178874},{"name":"苹果黑星病严重","value":3.4942453375208515e-7},{"name":"苹果灰斑病","value":0.000028665792228821374},{"name":"苹果雪松锈病一般","value":6.320334255960347e-8},{"name":"苹果雪松锈病严重","value":2.3853100050708065e-9},{"name":"樱桃健康","value":0.00011932593224628363},{"name":"樱桃白粉病一般","value":8.440636523054934e-8},{"name":"樱桃白粉病严重","value":3.252090610694758e-9},{"name":"玉米健康","value":4.1906136893921087e-8},{"name":"玉米灰斑病一般","value":6.052148227020382e-8},{"name":"玉米灰斑病严重","value":7.021123682449115e-8},{"name":"玉米锈病一般","value":8.32474783551973e-9},{"name":"玉米锈病严重","value":1.0902841129922791e-8},{"name":"玉米叶斑病一般","value":4.298599698415728e-7},{"name":"玉米叶斑病严重","value":1.7376511340927436e-7},{"name":"玉米花叶病毒病","value":3.055116382100209e-7},{"name":"葡萄健康","value":99.98784065246582},{"name":"葡萄黑腐病一般","value":0.009453030361328274},{"name":"葡萄黑腐病严重","value":0.00019794085801549954},{"name":"葡萄轮斑病一般","value":0.00008335054531016794},{"name":"葡萄轮斑病严重","value":8.330756529062455e-7},{"name":"葡萄褐斑病一般","value":0.002044834036496468},{"name":"葡萄褐斑病严重","value":0.000027935919888477656},{"name":"柑桔健康","value":2.7873925390053955e-8},{"name":"柑桔黄龙病一般","value":0.0000030901386338655357},{"name":"柑桔黄龙病严重","value":0.0000033515558328645056},{"name":"桃健康","value":0.000001802635551939602},{"name":"桃疮痂病一般","value":5.653990164944389e-7},{"name":"桃疮痂病严重","value":9.135168732576915e-8},{"name":"辣椒健康","value":0.00002616610288441734},{"name":"辣椒疮痂病一般","value":4.159168009998382e-8},{"name":"辣椒疮痂病严重","value":3.4354099426314733e-9},{"name":"马铃薯健康","value":0.000011088907569956064},{"name":"马铃薯早疫病一般","value":1.6859295903781657e-8},{"name":"马铃薯早疫病严重","value":5.26731921968171e-9},{"name":"马铃薯晚疫病一般","value":4.3175149566643256e-8},{"name":"马铃薯晚疫病严重","value":1.769575874721596e-8},{"name":"草莓健康","value":0.00002339845224241799},{"name":"草莓叶枯病一般","value":4.0929584166349287e-7},{"name":"草莓叶枯病严重","value":3.247260793592943e-8},{"name":"番茄健康","value":7.176973682021526e-7},{"name":"番茄白粉病一般","value":0.00001401348583840445},{"name":"番茄白粉病严重","value":0.0000613243514635542},{"name":"番茄疮痴病一般","value":2.114663721908272e-8},{"name":"番茄疮痴病严重","value":2.114661640240101e-8},{"name":"番茄早疫病一般","value":1.5569499023371236e-7},{"name":"番茄早疫病严重","value":3.2799876703570874e-8},{"name":"番茄晚疫病菌一般","value":0.000030501507808367023},{"name":"番茄晚疫病菌严重","value":0.000005807386926903746},{"name":"番茄叶霉病一般","value":9.282815405242673e-7},{"name":"番茄叶霉病严重","value":9.953888824298929e-8},{"name":"番茄斑点病一般","value":8.307685206432325e-7},{"name":"番茄斑点病严重","value":8.052590712293028e-10},{"name":"番茄斑枯病一般","value":0.000004795212760200229},{"name":"番茄斑枯病严重","value":7.695739157043135e-7},{"name":"番茄红蜘蛛损伤一般","value":2.2552444356449541e-7},{"name":"番茄红蜘蛛损伤严重","value":9.1069110585984e-9},{"name":"番茄黄化曲叶病毒病一般","value":4.07112521472186e-7},{"name":"番茄黄化曲叶病毒病严重","value":4.245012341641541e-7},{"name":"番茄花叶病毒病","value":0.000003857797636896976}]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>苹果健康</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[{"name":"苹果健康","value":99.94890093803406},{"name":"苹果黑星病一般","value":0.0007102812105586054},{"name":"苹果黑星病严重","value":0.00009061408832167217},{"name":"苹果灰斑病","value":0.009848129411693662},{"name":"苹果雪松锈病一般","value":0.00003221015276722028},{"name":"苹果雪松锈病严重","value":0.00007371947390311107},{"name":"樱桃健康","value":0.006668094283668324},{"name":"樱桃白粉病一般","value":0.005106270691612735},{"name":"樱桃白粉病严重","value":0.00011570342621780583},{"name":"玉米健康","value":4.423157395905264e-7},{"name":"玉米灰斑病一般","value":0.000027426230531091278},{"name":"玉米灰斑病严重","value":0.000003749162758026614},{"name":"玉米锈病一般","value":2.803612675350564e-7},{"name":"玉米锈病严重","value":0.0000035619081018012366},{"name":"玉米叶斑病一般","value":0.000029923774036433315},{"name":"玉米叶斑病严重","value":0.00008297384965771926},{"name":"玉米花叶病毒病","value":0.00006637287128796743},{"name":"葡萄健康","value":0.000008145633501044358},{"name":"葡萄黑腐病一般","value":4.437154643710528e-7},{"name":"葡萄黑腐病严重","value":8.740117518613033e-8},{"name":"葡萄轮斑病一般","value":0.00000262347121804396},{"name":"葡萄轮斑病严重","value":5.150656345875859e-7},{"name":"葡萄褐斑病一般","value":0.00000287020380795866},{"name":"葡萄褐斑病严重","value":0.0000042200834826644495},{"name":"柑桔健康","value":0.0000016838368921412439},{"name":"柑桔黄龙病一般","value":0.0003603819322961499},{"name":"柑桔黄龙病严重","value":0.000133547746372642},{"name":"桃健康","value":0.0006289015800575726},{"name":"桃疮痂病一般","value":0.00003664095231670217},{"name":"桃疮痂病严重","value":0.00001894785413014688},{"name":"辣椒健康","value":0.0013702164324058685},{"name":"辣椒疮痂病一般","value":0.000017839612098669022},{"name":"辣椒疮痂病严重","value":5.159018545697336e-7},{"name":"马铃薯健康","value":0.022263539722189307},{"name":"马铃薯早疫病一般","value":0.0000020196795347260377},{"name":"马铃薯早疫病严重","value":4.7028443361796235e-7},{"name":"马铃薯晚疫病一般","value":0.0001253594973604777},{"name":"马铃薯晚疫病严重","value":0.000030483877822007344},{"name":"草莓健康","value":0.0026142499336856417},{"name":"草莓叶枯病一般","value":0.00000966889004416771},{"name":"草莓叶枯病严重","value":0.000014606808917960734},{"name":"番茄健康","value":0.00005919592922509764},{"name":"番茄白粉病一般","value":0.00009760228749655653},{"name":"番茄白粉病严重","value":0.0000735704020371486},{"name":"番茄疮痴病一般","value":0.0000014302671935695344},{"name":"番茄疮痴病严重","value":0.0000014302658613019048},{"name":"番茄早疫病一般","value":0.0000066179495661344845},{"name":"番茄早疫病严重","value":0.000003907980428152769},{"name":"番茄晚疫病菌一般","value":0.000010970962449619037},{"name":"番茄晚疫病菌严重","value":0.000046443548740171536},{"name":"番茄叶霉病一般","value":0.00003517878326420032},{"name":"番茄叶霉病严重","value":0.000015373831274700933},{"name":"番茄斑点病一般","value":0.0000026776481476531444},{"name":"番茄斑点病严重","value":0.000003618374222469356},{"name":"番茄斑枯病一般","value":0.000004944665477069066},{"name":"番茄斑枯病严重","value":0.000008555731767501129},{"name":"番茄红蜘蛛损伤一般","value":0.00002066906574782479},{"name":"番茄红蜘蛛损伤严重","value":0.000004583194979090877},{"name":"番茄黄化曲叶病毒病一般","value":0.00016289616269204998},{"name":"番茄黄化曲叶病毒病严重","value":0.00003219143707156036},{"name":"番茄花叶病毒病","value":1.9670123307946596e-7}]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[{"name":"苹果健康","value":0.000004576511969389685},{"name":"苹果黑星病一般","value":0.000002939341925412009},{"name":"苹果黑星病严重","value":4.3794829984733497e-7},{"name":"苹果灰斑病","value":0.00003274195137237257},{"name":"苹果雪松锈病一般","value":7.678989666359826e-8},{"name":"苹果雪松锈病严重","value":3.103519871650029e-9},{"name":"樱桃健康","value":0.00013593148651125375},{"name":"樱桃白粉病一般","value":1.2889158629292297e-7},{"name":"樱桃白粉病严重","value":5.1733693717803675e-9},{"name":"玉米健康","value":5.4443416441785075e-8},{"name":"玉米灰斑病一般","value":9.055778904532019e-8},{"name":"玉米灰斑病严重","value":1.1036790370511085e-7},{"name":"玉米锈病一般","value":1.1041521863486281e-8},{"name":"玉米锈病严重","value":1.4575295137486677e-8},{"name":"玉米叶斑病一般","value":5.367392752475553e-7},{"name":"玉米叶斑病严重","value":2.5563249295146306e-7},{"name":"玉米花叶病毒病","value":4.366831785063141e-7},{"name":"葡萄健康","value":99.98330473899841},{"name":"葡萄黑腐病一般","value":0.01282978046219796},{"name":"葡萄黑腐病严重","value":0.0002808004410326248},{"name":"葡萄轮斑病一般","value":0.00012324398994678631},{"name":"葡萄轮斑病严重","value":0.0000013074179072702918},{"name":"葡萄褐斑病一般","value":0.0029835853638360277},{"name":"葡萄褐斑病严重","value":0.00004101904949038726},{"name":"柑桔健康","value":3.800719461377611e-8},{"name":"柑桔黄龙病一般","value":0.000004012652965457164},{"name":"柑桔黄龙病严重","value":0.000004230818007044945},{"name":"桃健康","value":0.0000025691118565873694},{"name":"桃疮痂病一般","value":8.348687074999361e-7},{"name":"桃疮痂病严重","value":1.328357646102063e-7},{"name":"辣椒健康","value":0.000040420385971629},{"name":"辣椒疮痂病一般","value":6.031143362505986e-8},{"name":"辣椒疮痂病严重","value":4.7568452649082715e-9},{"name":"马铃薯健康","value":0.000013632519824113842},{"name":"马铃薯早疫病一般","value":2.091202350174015e-8},{"name":"马铃薯早疫病严重","value":6.471524011120167e-9},{"name":"马铃薯晚疫病一般","value":5.238514066974176e-8},{"name":"马铃薯晚疫病严重","value":2.336226490040616e-8},{"name":"草莓健康","value":0.000030131414519019017},{"name":"草莓叶枯病一般","value":5.287708049195317e-7},{"name":"草莓叶枯病严重","value":4.350333981939514e-8},{"name":"番茄健康","value":8.747859325808349e-7},{"name":"番茄白粉病一般","value":0.000018343830276990047},{"name":"番茄白粉病严重","value":0.00008327883165293315},{"name":"番茄疮痴病一般","value":2.8823521347476344e-8},{"name":"番茄疮痴病严重","value":2.8823521347476344e-8},{"name":"番茄早疫病一般","value":2.2709800706621763e-7},{"name":"番茄早疫病严重","value":4.2795689214614185e-8},{"name":"番茄晚疫病菌一般","value":0.000035422405630924914},{"name":"番茄晚疫病菌严重","value":0.000007217477104859427},{"name":"番茄叶霉病一般","value":0.00000122176730954493},{"name":"番茄叶霉病严重","value":1.2783404335081627e-7},{"name":"番茄斑点病一般","value":0.0000010910423675625225},{"name":"番茄斑点病严重","value":1.015447535085423e-9},{"name":"番茄斑枯病一般","value":0.000005536156777452561},{"name":"番茄斑枯病严重","value":8.311853427755977e-7},{"name":"番茄红蜘蛛损伤一般","value":3.6987148899214617e-7},{"name":"番茄红蜘蛛损伤严重","value":1.497495322189124e-8},{"name":"番茄黄化曲叶病毒病一般","value":6.103348493269323e-7},{"name":"番茄黄化曲叶病毒病严重","value":5.966349636565837e-7},{"name":"番茄花叶病毒病","value":0.000004822508969937189}]</x:t>
+    <x:t>[{"name":"苹果健康","value":0.00021447356175485766},{"name":"苹果黑星病一般","value":0.000030380846283151186},{"name":"玉米锈病一般","value":0.00009927530300046783},{"name":"玉米锈病严重","value":0.00004747648176817165},{"name":"葡萄健康","value":99.98235702514648},{"name":"葡萄黑腐病一般","value":0.001511079699412221},{"name":"葡萄黑腐病严重","value":0.0004974019702785881},{"name":"苹果黑星病严重","value":0.00006292047487477248},{"name":"桃健康","value":0.0004995031758880941},{"name":"桃疮痂病一般","value":0.0007733226993877906},{"name":"桃疮痂病严重","value":0.0006783119260944659},{"name":"辣椒健康","value":0.000013305854906775494},{"name":"辣椒疮痂病一般","value":0.00006548384021698439},{"name":"辣椒疮痂病严重","value":0.000008283769403760743},{"name":"马铃薯健康","value":0.0002403078724455554},{"name":"马铃薯早疫病一般","value":0.000010887750079291436},{"name":"马铃薯早疫病严重","value":0.000003721164176795355},{"name":"草莓健康","value":0.009681184019427747},{"name":"草莓叶枯病一般","value":0.0001380105004500365},{"name":"草莓叶枯病严重","value":0.00002811904096233775},{"name":"番茄健康","value":0.00008973438525572419},{"name":"未识别到植物","value":0.000042780249032148276},{"name":"番茄叶斑病一般","value":0.0020150839191046543},{"name":"番茄叶斑病严重","value":0.0005817794772156049},{"name":"樱桃健康","value":0.00016039787169574993},{"name":"樱桃白粉病一般","value":0.0000899192968972784},{"name":"樱桃白粉病严重","value":0.000024520952024431608},{"name":"玉米健康","value":0.000035598074532572355}]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>file-1688022820223-699882672.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:42 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>苹果黑星病严重</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[{"name":"苹果健康","value":0.000012887065281574905},{"name":"苹果黑星病一般","value":0.006956324796192348},{"name":"玉米锈病一般","value":3.4871128207214497e-7},{"name":"玉米锈病严重","value":0.000004719652224594029},{"name":"葡萄健康","value":0.000006365854687828687},{"name":"葡萄黑腐病一般","value":0.000010755899637615585},{"name":"葡萄黑腐病严重","value":0.000017086424008994072},{"name":"苹果黑星病严重","value":99.99289512634277},{"name":"桃健康","value":2.958214340154086e-7},{"name":"桃疮痂病一般","value":0.000009411255774693927},{"name":"桃疮痂病严重","value":3.6646399248496664e-7},{"name":"辣椒健康","value":1.2923234704587117e-7},{"name":"辣椒疮痂病一般","value":0.0000020766330877108885},{"name":"辣椒疮痂病严重","value":0.0000036149543802821427},{"name":"马铃薯健康","value":4.3609329480887027e-7},{"name":"马铃薯早疫病一般","value":3.887468569274688e-7},{"name":"马铃薯早疫病严重","value":4.252335816801178e-7},{"name":"草莓健康","value":0.0000015740608816372514},{"name":"草莓叶枯病一般","value":0.0000040459514849544576},{"name":"草莓叶枯病严重","value":7.05220770669257e-7},{"name":"番茄健康","value":0.0000023672102500427172},{"name":"未识别到植物","value":0.000014706486695104104},{"name":"番茄叶斑病一般","value":0.000006874059721440062},{"name":"番茄叶斑病严重","value":0.000005336154274004912},{"name":"樱桃健康","value":1.8339597618322045e-7},{"name":"樱桃白粉病一般","value":0.0000012979731067730427},{"name":"樱桃白粉病严重","value":0.00003880471979300637},{"name":"玉米健康","value":0.000005354193177709021}]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>file-1688022820236-845468141.JPG</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:42 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>玉米健康</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[{"name":"苹果健康","value":0.00001261106916672361},{"name":"苹果黑星病一般","value":1.1060424798259305e-7},{"name":"玉米锈病一般","value":0.000003867697628834321},{"name":"玉米锈病严重","value":0.000026147594667236262},{"name":"葡萄健康","value":0.000002231772455729697},{"name":"葡萄黑腐病一般","value":1.7415514586005543e-7},{"name":"葡萄黑腐病严重","value":1.101026714245279e-7},{"name":"苹果黑星病严重","value":0.00005388566819419793},{"name":"桃健康","value":1.7634437243785328e-7},{"name":"桃疮痂病一般","value":0.0003743291472346755},{"name":"桃疮痂病严重","value":0.00007711262810516928},{"name":"辣椒健康","value":1.9886818580783228e-8},{"name":"辣椒疮痂病一般","value":5.713004513907549e-8},{"name":"辣椒疮痂病严重","value":9.051959182215796e-7},{"name":"马铃薯健康","value":0.000009009332302412076},{"name":"马铃薯早疫病一般","value":0.000001763654822184435},{"name":"马铃薯早疫病严重","value":0.0000015550906340422443},{"name":"草莓健康","value":0.00000432761915192259},{"name":"草莓叶枯病一般","value":0.00002086278527713148},{"name":"草莓叶枯病严重","value":0.00001378915328587027},{"name":"番茄健康","value":0.000004376331474986728},{"name":"未识别到植物","value":0.0007244648259074893},{"name":"番茄叶斑病一般","value":0.000003732413134116541},{"name":"番茄叶斑病严重","value":0.000024100879159050237},{"name":"樱桃健康","value":4.356154603701867e-8},{"name":"樱桃白粉病一般","value":0.00001860876324144556},{"name":"樱桃白粉病严重","value":0.0034855682315537706},{"name":"玉米健康","value":99.99513626098633}]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>file-1688022820237-429661039.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:42 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>file-1688022886061-494897341.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:14:46 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[{"name":"苹果健康","value":0.000046769417849645833},{"name":"苹果黑星病一般","value":0.0008488986168231349},{"name":"玉米锈病一般","value":0.0016340360161848366},{"name":"玉米锈病严重","value":0.0007039231149974512},{"name":"葡萄健康","value":0.01457300822949037},{"name":"葡萄黑腐病一般","value":16.022272408008575},{"name":"葡萄黑腐病严重","value":83.8651180267334},{"name":"苹果黑星病严重","value":0.0017239055523532443},{"name":"桃健康","value":0.00019527860786183737},{"name":"桃疮痂病一般","value":0.016454956494271755},{"name":"桃疮痂病严重","value":0.0003244198751417571},{"name":"辣椒健康","value":0.00037535296542046126},{"name":"辣椒疮痂病一般","value":0.0156089459778741},{"name":"辣椒疮痂病严重","value":0.011978574184468016},{"name":"马铃薯健康","value":0.00007540768933722575},{"name":"马铃薯早疫病一般","value":0.0038333066186169162},{"name":"马铃薯早疫病严重","value":0.0007461937912012218},{"name":"草莓健康","value":0.0004987089596397709},{"name":"草莓叶枯病一般","value":0.005952640640316531},{"name":"草莓叶枯病严重","value":0.00022636745597992558},{"name":"番茄健康","value":0.0011104934856120963},{"name":"未识别到植物","value":0.0009961322575691156},{"name":"番茄叶斑病一般","value":0.021452551300171763},{"name":"番茄叶斑病严重","value":0.012797091039828956},{"name":"樱桃健康","value":0.00007201417702162871},{"name":"樱桃白粉病一般","value":0.00018710487665885012},{"name":"樱桃白粉病严重","value":0.00014259691170082078},{"name":"玉米健康","value":0.00005047764943810762}]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>file-1688023407631-123986846.jpeg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:23:27 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[{"name":"苹果健康","value":0.34094268921762705},{"name":"苹果黑星病一般","value":1.1559431441128254},{"name":"玉米锈病一般","value":0.131555600091815},{"name":"玉米锈病严重","value":0.21650907583534718},{"name":"葡萄健康","value":4.774577170610428},{"name":"葡萄黑腐病一般","value":1.1350969783961773},{"name":"葡萄黑腐病严重","value":3.1098557636141777},{"name":"苹果黑星病严重","value":83.76235365867615},{"name":"桃健康","value":0.0038785085052950308},{"name":"桃疮痂病一般","value":0.4119384102523327},{"name":"桃疮痂病严重","value":0.02916670637205243},{"name":"辣椒健康","value":0.0018596530935610645},{"name":"辣椒疮痂病一般","value":0.043537080637179315},{"name":"辣椒疮痂病严重","value":0.061921041924506426},{"name":"马铃薯健康","value":0.01965435076272115},{"name":"马铃薯早疫病一般","value":0.0027260221031610854},{"name":"马铃薯早疫病严重","value":0.0036195935535943136},{"name":"草莓健康","value":0.061950599774718285},{"name":"草莓叶枯病一般","value":0.030051273643039167},{"name":"草莓叶枯病严重","value":0.01428628311259672},{"name":"番茄健康","value":0.03298389492556453},{"name":"未识别到植物","value":0.7427927106618881},{"name":"番茄叶斑病一般","value":2.6637742295861244},{"name":"番茄叶斑病严重","value":0.5604107398539782},{"name":"樱桃健康","value":0.07393115083687007},{"name":"樱桃白粉病一般","value":0.014961248962208629},{"name":"樱桃白粉病严重","value":0.2882392145693302},{"name":"玉米健康","value":0.3114843973889947}]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>file-1688023772221-980108095.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:29:32 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[{"name":"苹果健康","value":0.0007662644748052116},{"name":"苹果黑星病一般","value":0.0011067950254073367},{"name":"玉米锈病一般","value":0.000107403332094691},{"name":"玉米锈病严重","value":0.00579391053179279},{"name":"葡萄健康","value":0.009661664807936177},{"name":"葡萄黑腐病一般","value":0.08409222355112433},{"name":"葡萄黑腐病严重","value":0.06411581416614354},{"name":"苹果黑星病严重","value":0.15164236538112164},{"name":"桃健康","value":0.00019702736153703881},{"name":"桃疮痂病一般","value":0.001541044912301004},{"name":"桃疮痂病严重","value":0.0012551190593512729},{"name":"辣椒健康","value":0.0006231377028598217},{"name":"辣椒疮痂病一般","value":0.0020083167328266427},{"name":"辣椒疮痂病严重","value":0.008505500591127202},{"name":"马铃薯健康","value":0.003296261638752185},{"name":"马铃薯早疫病一般","value":0.0022254593204706907},{"name":"马铃薯早疫病严重","value":0.051603763131424785},{"name":"草莓健康","value":0.00032161058243218577},{"name":"草莓叶枯病一般","value":0.0022079733753344044},{"name":"草莓叶枯病严重","value":0.00141010214065318},{"name":"番茄健康","value":0.010269802442053333},{"name":"未识别到植物","value":0.012042060552630574},{"name":"番茄叶斑病一般","value":1.0764085687696934},{"name":"番茄叶斑病严重","value":98.4986662864685},{"name":"樱桃健康","value":0.0007564248790004058},{"name":"樱桃白粉病一般","value":0.00014796901268709917},{"name":"樱桃白粉病严重","value":0.008927103772293776},{"name":"玉米健康","value":0.00029733382689300925}]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>file-1688024854784-636832270.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:47:34 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[{"name":"苹果健康","value":0.0031449744710698724},{"name":"苹果黑星病一般","value":0.014020164962857962},{"name":"玉米锈病一般","value":0.004999568409402855},{"name":"玉米锈病严重","value":0.08731948910281062},{"name":"葡萄健康","value":3.4025683999061584},{"name":"葡萄黑腐病一般","value":3.5010188817977905},{"name":"葡萄黑腐病严重","value":1.0489082895219326},{"name":"苹果黑星病严重","value":0.26049085427075624},{"name":"桃健康","value":0.0016792595488368534},{"name":"桃疮痂病一般","value":0.04225464363116771},{"name":"桃疮痂病严重","value":0.0078168413892854},{"name":"辣椒健康","value":0.0758918933570385},{"name":"辣椒疮痂病一般","value":0.02490663027856499},{"name":"辣椒疮痂病严重","value":0.10242806747555733},{"name":"马铃薯健康","value":0.016496404714416713},{"name":"马铃薯早疫病一般","value":0.04034728044643998},{"name":"马铃薯早疫病严重","value":0.9516698308289051},{"name":"草莓健康","value":0.006080062667024322},{"name":"草莓叶枯病一般","value":0.047118571819737554},{"name":"草莓叶枯病严重","value":0.11712739942595363},{"name":"番茄健康","value":0.07621707045473158},{"name":"未识别到植物","value":0.019613276526797563},{"name":"番茄叶斑病一般","value":3.1627334654331207},{"name":"番茄叶斑病严重","value":86.8897795677185},{"name":"樱桃健康","value":0.016543093079235405},{"name":"樱桃白粉病一般","value":0.008738243923289701},{"name":"樱桃白粉病严重","value":0.06473949761129916},{"name":"玉米健康","value":0.005349521597963758}]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>file-1688024942723-879189697.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:49:02 GMT+0800 (台北标准时间)</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -427,7 +679,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:8">
+    <x:row r="1" spans="1:9">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -452,109 +704,733 @@
       <x:c r="H1" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
-    </x:row>
-    <x:row r="2" spans="1:8">
+      <x:c r="I1" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:9">
       <x:c r="A2" s="0" t="n">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="n">
+        <x:v>112.982</x:v>
+      </x:c>
+      <x:c r="E2" s="0" t="n">
+        <x:v>22.9193</x:v>
+      </x:c>
+      <x:c r="F2" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="G2" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="H2" s="0" t="n">
+        <x:v>829</x:v>
+      </x:c>
+      <x:c r="I2" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:9">
+      <x:c r="A3" s="0" t="n">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D3" s="0" t="n">
+        <x:v>112.982</x:v>
+      </x:c>
+      <x:c r="E3" s="0" t="n">
+        <x:v>22.9193</x:v>
+      </x:c>
+      <x:c r="F3" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G3" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="H3" s="0" t="n">
+        <x:v>723</x:v>
+      </x:c>
+      <x:c r="I3" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:9">
+      <x:c r="A4" s="0" t="n">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="n">
+        <x:v>112.982</x:v>
+      </x:c>
+      <x:c r="E4" s="0" t="n">
+        <x:v>22.9193</x:v>
+      </x:c>
+      <x:c r="F4" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G4" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H4" s="0" t="n">
+        <x:v>770</x:v>
+      </x:c>
+      <x:c r="I4" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:9">
+      <x:c r="A5" s="0" t="n">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D5" s="0" t="n">
+        <x:v>112.982</x:v>
+      </x:c>
+      <x:c r="E5" s="0" t="n">
+        <x:v>22.9193</x:v>
+      </x:c>
+      <x:c r="F5" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="G5" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="H5" s="0" t="n">
+        <x:v>319</x:v>
+      </x:c>
+      <x:c r="I5" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:9">
+      <x:c r="A6" s="0" t="n">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="n">
+        <x:v>112.982</x:v>
+      </x:c>
+      <x:c r="E6" s="0" t="n">
+        <x:v>22.9193</x:v>
+      </x:c>
+      <x:c r="F6" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="G6" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="H6" s="0" t="n">
+        <x:v>271</x:v>
+      </x:c>
+      <x:c r="I6" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:9">
+      <x:c r="A7" s="0" t="n">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="n">
+        <x:v>112.982</x:v>
+      </x:c>
+      <x:c r="E7" s="0" t="n">
+        <x:v>22.9193</x:v>
+      </x:c>
+      <x:c r="F7" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G7" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="H7" s="0" t="n">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="I7" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:9">
+      <x:c r="A8" s="0" t="n">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="n">
+        <x:v>112.982</x:v>
+      </x:c>
+      <x:c r="E8" s="0" t="n">
+        <x:v>22.9193</x:v>
+      </x:c>
+      <x:c r="F8" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="G8" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="H8" s="0" t="n">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="I8" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:9">
+      <x:c r="A9" s="0" t="n">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="n">
+        <x:v>112.982</x:v>
+      </x:c>
+      <x:c r="E9" s="0" t="n">
+        <x:v>22.9193</x:v>
+      </x:c>
+      <x:c r="F9" s="0" t="s">
         <x:v>38</x:v>
       </x:c>
-      <x:c r="B2" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="C2" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="D2" s="0" t="n">
-        <x:v>112.982</x:v>
-      </x:c>
-      <x:c r="E2" s="0" t="n">
-        <x:v>22.9193</x:v>
-      </x:c>
-      <x:c r="F2" s="0" t="s">
+      <x:c r="G9" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="H9" s="0" t="n">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="I9" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:9">
+      <x:c r="A10" s="0" t="n">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="D10" s="0" t="n">
+        <x:v>112.982</x:v>
+      </x:c>
+      <x:c r="E10" s="0" t="n">
+        <x:v>22.9193</x:v>
+      </x:c>
+      <x:c r="F10" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="G10" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="H10" s="0" t="n">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="I10" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:9">
+      <x:c r="A11" s="0" t="n">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="D11" s="0" t="n">
+        <x:v>112.982</x:v>
+      </x:c>
+      <x:c r="E11" s="0" t="n">
+        <x:v>22.9193</x:v>
+      </x:c>
+      <x:c r="F11" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="G11" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="H11" s="0" t="n">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="I11" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:9">
+      <x:c r="A12" s="0" t="n">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C12" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="n">
+        <x:v>112.982</x:v>
+      </x:c>
+      <x:c r="E12" s="0" t="n">
+        <x:v>22.9193</x:v>
+      </x:c>
+      <x:c r="F12" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="G12" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="H12" s="0" t="n">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="I12" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:9">
+      <x:c r="A13" s="0" t="n">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C13" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="D13" s="0" t="n">
+        <x:v>112.982</x:v>
+      </x:c>
+      <x:c r="E13" s="0" t="n">
+        <x:v>22.9193</x:v>
+      </x:c>
+      <x:c r="F13" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="G13" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="H13" s="0" t="n">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="I13" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:9">
+      <x:c r="A14" s="0" t="n">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C14" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="D14" s="0" t="n">
+        <x:v>112.982</x:v>
+      </x:c>
+      <x:c r="E14" s="0" t="n">
+        <x:v>22.9193</x:v>
+      </x:c>
+      <x:c r="F14" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="G14" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="H14" s="0" t="n">
+        <x:v>156</x:v>
+      </x:c>
+      <x:c r="I14" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:9">
+      <x:c r="A15" s="0" t="n">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="B15" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C15" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="D15" s="0" t="n">
+        <x:v>112.982</x:v>
+      </x:c>
+      <x:c r="E15" s="0" t="n">
+        <x:v>22.9193</x:v>
+      </x:c>
+      <x:c r="F15" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="G15" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="H15" s="0" t="n">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="I15" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:9">
+      <x:c r="A16" s="0" t="n">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="B16" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C16" s="0" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="D16" s="0" t="n">
+        <x:v>112.982</x:v>
+      </x:c>
+      <x:c r="E16" s="0" t="n">
+        <x:v>22.9193</x:v>
+      </x:c>
+      <x:c r="F16" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="G16" s="0" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="H16" s="0" t="n">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="I16" s="0" t="s">
+        <x:v>67</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:9">
+      <x:c r="A17" s="0" t="n">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="B17" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C17" s="0" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="D17" s="0" t="n">
+        <x:v>112.982</x:v>
+      </x:c>
+      <x:c r="E17" s="0" t="n">
+        <x:v>22.9193</x:v>
+      </x:c>
+      <x:c r="F17" s="0" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="G17" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="H17" s="0" t="n">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="I17" s="0" t="s">
+        <x:v>71</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:9">
+      <x:c r="A18" s="0" t="n">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="B18" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C18" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="D18" s="0" t="n">
+        <x:v>112.982</x:v>
+      </x:c>
+      <x:c r="E18" s="0" t="n">
+        <x:v>22.9193</x:v>
+      </x:c>
+      <x:c r="F18" s="0" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="G18" s="0" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="H18" s="0" t="n">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="I18" s="0" t="s">
+        <x:v>74</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:9">
+      <x:c r="A19" s="0" t="n">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="B19" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C19" s="0" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="D19" s="0" t="n">
+        <x:v>112.982</x:v>
+      </x:c>
+      <x:c r="E19" s="0" t="n">
+        <x:v>22.9193</x:v>
+      </x:c>
+      <x:c r="F19" s="0" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="G19" s="0" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="H19" s="0" t="n">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="I19" s="0" t="s">
+        <x:v>78</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:9">
+      <x:c r="A20" s="0" t="n">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="B20" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C20" s="0" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="D20" s="0" t="n">
+        <x:v>112.982</x:v>
+      </x:c>
+      <x:c r="E20" s="0" t="n">
+        <x:v>22.9193</x:v>
+      </x:c>
+      <x:c r="F20" s="0" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="G20" s="0" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="H20" s="0" t="n">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="I20" s="0" t="s">
+        <x:v>82</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:9">
+      <x:c r="A21" s="0" t="n">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="B21" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C21" s="0" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="D21" s="0" t="n">
+        <x:v>112.982</x:v>
+      </x:c>
+      <x:c r="E21" s="0" t="n">
+        <x:v>22.9193</x:v>
+      </x:c>
+      <x:c r="F21" s="0" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="G21" s="0" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="H21" s="0" t="n">
+        <x:v>504</x:v>
+      </x:c>
+      <x:c r="I21" s="0" t="s">
+        <x:v>86</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:9">
+      <x:c r="A22" s="0" t="n">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="B22" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C22" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="G2" s="0" t="s">
+      <x:c r="D22" s="0" t="n">
+        <x:v>112.982</x:v>
+      </x:c>
+      <x:c r="E22" s="0" t="n">
+        <x:v>22.9193</x:v>
+      </x:c>
+      <x:c r="F22" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="H2" s="0" t="n">
-        <x:v>1553</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:8">
-      <x:c r="A3" s="0" t="n">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="B3" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="C3" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D3" s="0" t="n">
-        <x:v>112.982</x:v>
-      </x:c>
-      <x:c r="E3" s="0" t="n">
-        <x:v>22.9193</x:v>
-      </x:c>
-      <x:c r="F3" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="G3" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="H3" s="0" t="n">
-        <x:v>52</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:8">
-      <x:c r="A4" s="0" t="n">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="B4" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="C4" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="D4" s="0" t="n">
-        <x:v>112.982</x:v>
-      </x:c>
-      <x:c r="E4" s="0" t="n">
-        <x:v>22.9193</x:v>
-      </x:c>
-      <x:c r="F4" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="G4" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="H4" s="0" t="n">
+      <x:c r="G22" s="0" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="H22" s="0" t="n">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="I22" s="0" t="s">
+        <x:v>88</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:9">
+      <x:c r="A23" s="0" t="n">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="B23" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C23" s="0" t="s">
         <x:v>45</x:v>
       </x:c>
-    </x:row>
-    <x:row r="5" spans="1:8">
-      <x:c r="A5" s="0" t="n">
+      <x:c r="D23" s="0" t="n">
+        <x:v>112.982</x:v>
+      </x:c>
+      <x:c r="E23" s="0" t="n">
+        <x:v>22.9193</x:v>
+      </x:c>
+      <x:c r="F23" s="0" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="G23" s="0" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="H23" s="0" t="n">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="I23" s="0" t="s">
+        <x:v>91</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:9">
+      <x:c r="A24" s="0" t="n">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="B24" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C24" s="0" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="D24" s="0" t="n">
+        <x:v>112.982</x:v>
+      </x:c>
+      <x:c r="E24" s="0" t="n">
+        <x:v>22.9193</x:v>
+      </x:c>
+      <x:c r="F24" s="0" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="G24" s="0" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="H24" s="0" t="n">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="I24" s="0" t="s">
+        <x:v>94</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:9">
+      <x:c r="A25" s="0" t="n">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="B25" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C25" s="0" t="s">
         <x:v>41</x:v>
       </x:c>
-      <x:c r="B5" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="C5" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D5" s="0" t="n">
-        <x:v>112.982</x:v>
-      </x:c>
-      <x:c r="E5" s="0" t="n">
-        <x:v>22.9193</x:v>
-      </x:c>
-      <x:c r="F5" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="G5" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="H5" s="0" t="n">
-        <x:v>72</x:v>
+      <x:c r="D25" s="0" t="n">
+        <x:v>112.982</x:v>
+      </x:c>
+      <x:c r="E25" s="0" t="n">
+        <x:v>22.9193</x:v>
+      </x:c>
+      <x:c r="F25" s="0" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="G25" s="0" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="H25" s="0" t="n">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="I25" s="0" t="s">
+        <x:v>97</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:9">
+      <x:c r="A26" s="0" t="n">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="B26" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C26" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="D26" s="0" t="n">
+        <x:v>112.982</x:v>
+      </x:c>
+      <x:c r="E26" s="0" t="n">
+        <x:v>22.9193</x:v>
+      </x:c>
+      <x:c r="F26" s="0" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="G26" s="0" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="H26" s="0" t="n">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="I26" s="0" t="s">
+        <x:v>100</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/uploads/data.xlsx
+++ b/uploads/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41" count="41">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="274" count="274">
   <x:si>
     <x:t>id</x:t>
   </x:si>
@@ -317,6 +317,567 @@
   </x:si>
   <x:si>
     <x:t>Thu Jun 29 2023 07:49:02 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[{"name":"苹果健康","value":0.000001771566182640072},{"name":"苹果黑星病一般","value":0.00000191237123914334},{"name":"玉米锈病一般","value":0.0000049032863103093405},{"name":"玉米锈病严重","value":0.0000020773198272650006},{"name":"葡萄健康","value":99.99977946281433},{"name":"葡萄黑腐病一般","value":0.000004161303479577327},{"name":"葡萄黑腐病严重","value":0.000008093054049140846},{"name":"苹果黑星病严重","value":0.0000024945245868934762},{"name":"桃健康","value":0.000015326865820952662},{"name":"桃疮痂病一般","value":0.000007726459472223723},{"name":"桃疮痂病严重","value":0.000003591092934129847},{"name":"辣椒健康","value":0.0000014602409059705224},{"name":"辣椒疮痂病一般","value":0.0000037710226052922735},{"name":"辣椒疮痂病严重","value":1.7117258721555118e-7},{"name":"马铃薯健康","value":0.00003500927903132833},{"name":"马铃薯早疫病一般","value":6.801954111068653e-7},{"name":"马铃薯早疫病严重","value":3.2859008847196947e-7},{"name":"草莓健康","value":0.00002191002437257339},{"name":"草莓叶枯病一般","value":0.0000013018865097080834},{"name":"草莓叶枯病严重","value":3.9699861176245577e-7},{"name":"番茄健康","value":5.675232284119147e-7},{"name":"未识别到植物","value":0.0000031327683558401986},{"name":"番茄叶斑病一般","value":0.00007440998501806462},{"name":"番茄叶斑病严重","value":0.000006714564193543993},{"name":"樱桃健康","value":0.000012361624612822197},{"name":"樱桃白粉病一般","value":0.000003957587324521228},{"name":"樱桃白粉病严重","value":4.461181646320256e-7},{"name":"玉米健康","value":0.000004329844927042359}]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>file-1688046848747-157462196.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 13:54:09 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[{"name":"苹果健康","value":98.88560175895691},{"name":"苹果黑星病一般","value":1.0444621555507183},{"name":"玉米锈病一般","value":0.0022133577658678405},{"name":"玉米锈病严重","value":0.0000862566082560079},{"name":"葡萄健康","value":0.006683263200102374},{"name":"葡萄黑腐病一般","value":0.0001833333158174355},{"name":"葡萄黑腐病严重","value":0.0000376918876554555},{"name":"苹果黑星病严重","value":0.008721865742700174},{"name":"桃健康","value":0.00027574187697609887},{"name":"桃疮痂病一般","value":0.017876758647616953},{"name":"桃疮痂病严重","value":0.005997242988087237},{"name":"辣椒健康","value":0.0010878651664825156},{"name":"辣椒疮痂病一般","value":0.0003943613137380453},{"name":"辣椒疮痂病严重","value":0.000031185587090476474},{"name":"马铃薯健康","value":0.0008929990144679323},{"name":"马铃薯早疫病一般","value":0.00011784928801716887},{"name":"马铃薯早疫病严重","value":0.00009956614803741104},{"name":"草莓健康","value":0.009527891961624846},{"name":"草莓叶枯病一般","value":0.00004886841793450003},{"name":"草莓叶枯病严重","value":0.00003118215090580634},{"name":"番茄健康","value":0.0005497385700437007},{"name":"未识别到植物","value":0.0005100806447444484},{"name":"番茄叶斑病一般","value":0.0012059948858222924},{"name":"番茄叶斑病严重","value":0.00026004636310972273},{"name":"樱桃健康","value":0.004276256368029863},{"name":"樱桃白粉病一般","value":0.00022449576135841198},{"name":"樱桃白粉病严重","value":0.0007688312507525552},{"name":"玉米健康","value":0.00783522627898492}]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>file-1688046848751-380256663.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 13:54:10 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[{"name":"苹果健康","value":0.000013514689101157273},{"name":"苹果黑星病一般","value":0.00009875438991002738},{"name":"玉米锈病一般","value":0.0003978218501288211},{"name":"玉米锈病严重","value":0.00013435220580504392},{"name":"葡萄健康","value":0.0016865024008438922},{"name":"葡萄黑腐病一般","value":63.54014277458191},{"name":"葡萄黑腐病严重","value":36.44007742404938},{"name":"苹果黑星病严重","value":0.00015918608369247522},{"name":"桃健康","value":0.000039467357737521525},{"name":"桃疮痂病一般","value":0.0006368481535901083},{"name":"桃疮痂病严重","value":0.000006223237392077863},{"name":"辣椒健康","value":0.00035552327517507365},{"name":"辣椒疮痂病一般","value":0.007862888014642522},{"name":"辣椒疮痂病严重","value":0.0004071775038028136},{"name":"马铃薯健康","value":0.00000874625030178322},{"name":"马铃薯早疫病一般","value":0.0001823800289457722},{"name":"马铃薯早疫病严重","value":0.000013435463586120022},{"name":"草莓健康","value":0.00012359395213934476},{"name":"草莓叶枯病一般","value":0.0005962015166005585},{"name":"草莓叶枯病严重","value":0.000010242057868481425},{"name":"番茄健康","value":0.0011860581253131386},{"name":"未识别到植物","value":0.00019004725118065835},{"name":"番茄叶斑病一般","value":0.005371649967855774},{"name":"番茄叶斑病严重","value":0.00014988236216595396},{"name":"樱桃健康","value":0.000046273115117401176},{"name":"樱桃白粉病一般","value":0.00006743439371348359},{"name":"樱桃白粉病严重","value":0.000035102056017422},{"name":"玉米健康","value":0.000002898711848331459}]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>file-1688046848719-371685350.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 13:54:09 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[{"name":"苹果健康","value":0.0012089205483789556},{"name":"苹果黑星病一般","value":0.0008733046342968009},{"name":"玉米锈病一般","value":0.008947263268055394},{"name":"玉米锈病严重","value":0.06458095740526915},{"name":"葡萄健康","value":0.005920701005379669},{"name":"葡萄黑腐病一般","value":0.009310957830166444},{"name":"葡萄黑腐病严重","value":1.2091320008039474},{"name":"苹果黑星病严重","value":0.017479558300692588},{"name":"桃健康","value":0.0004824378265766427},{"name":"桃疮痂病一般","value":0.06329855532385409},{"name":"桃疮痂病严重","value":0.06905612535774708},{"name":"辣椒健康","value":0.00044341654756863136},{"name":"辣椒疮痂病一般","value":0.004157844887231477},{"name":"辣椒疮痂病严重","value":0.18616809975355864},{"name":"马铃薯健康","value":0.008884946146281436},{"name":"马铃薯早疫病一般","value":0.008405536209465936},{"name":"马铃薯早疫病严重","value":0.1268484629690647},{"name":"草莓健康","value":0.0005626704023597995},{"name":"草莓叶枯病一般","value":0.05966227618046105},{"name":"草莓叶枯病严重","value":0.09423923911526799},{"name":"番茄健康","value":0.0015250834621838294},{"name":"未识别到植物","value":0.05946684395894408},{"name":"番茄叶斑病一般","value":1.1644728481769562},{"name":"番茄叶斑病严重","value":96.82171940803528},{"name":"樱桃健康","value":0.0027389278329792432},{"name":"樱桃白粉病一般","value":0.0008921267180994619},{"name":"樱桃白粉病严重","value":0.0035779070458374918},{"name":"玉米健康","value":0.005940757182543166}]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>file-1688047202998-636418810.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 14:00:04 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>file-1688098439750-890130031.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fri Jun 30 2023 04:14:11 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>file-1688098439744-55253641.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fri Jun 30 2023 04:14:12 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>file-1688098439753-720876853.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fri Jun 30 2023 04:14:12 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[{"name":"苹果健康","value":0.0050231381464982405},{"name":"苹果黑星病一般","value":0.001948497629200574},{"name":"玉米锈病一般","value":0.005325994789018296},{"name":"玉米锈病严重","value":0.05212368560023606},{"name":"葡萄健康","value":0.40674200281500816},{"name":"葡萄黑腐病一般","value":0.15665965620428324},{"name":"葡萄黑腐病严重","value":0.21284043323248625},{"name":"苹果黑星病严重","value":0.003983697752119042},{"name":"桃健康","value":0.004684991654357873},{"name":"桃疮痂病一般","value":0.38131552282720804},{"name":"桃疮痂病严重","value":0.19700790289789438},{"name":"辣椒健康","value":0.03285167331341654},{"name":"辣椒疮痂病一般","value":0.004144417107454501},{"name":"辣椒疮痂病严重","value":0.015383267600554973},{"name":"马铃薯健康","value":0.25683080311864614},{"name":"马铃薯早疫病一般","value":0.08472598274238408},{"name":"马铃薯早疫病严重","value":1.0845176875591278},{"name":"草莓健康","value":0.0030784216505708173},{"name":"草莓叶枯病一般","value":0.42619681917130947},{"name":"草莓叶枯病严重","value":4.088502377271652},{"name":"番茄健康","value":0.023622866137884557},{"name":"未识别到植物","value":0.05575183895416558},{"name":"番茄叶斑病一般","value":9.963726997375488},{"name":"番茄叶斑病严重","value":82.49983787536621},{"name":"樱桃健康","value":0.01397298910887912},{"name":"樱桃白粉病一般","value":0.009473488171352074},{"name":"樱桃白粉病严重","value":0.005868069638381712},{"name":"玉米健康","value":0.0038619218685198575}]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>file-1688111770299-136525101.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fri Jun 30 2023 07:56:12 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[{"name":"苹果健康","value":0.005121093636262231},{"name":"苹果黑星病一般","value":0.0028578764613484964},{"name":"玉米锈病一般","value":0.05178700666874647},{"name":"玉米锈病严重","value":0.2605878049507737},{"name":"葡萄健康","value":0.11627189815044403},{"name":"葡萄黑腐病一般","value":0.05096437525935471},{"name":"葡萄黑腐病严重","value":0.8548090234398842},{"name":"苹果黑星病严重","value":0.028978902264498174},{"name":"桃健康","value":0.006180779746500775},{"name":"桃疮痂病一般","value":0.84907291457057},{"name":"桃疮痂病严重","value":0.8362466469407082},{"name":"辣椒健康","value":0.006761133408872411},{"name":"辣椒疮痂病一般","value":0.0070323840191122144},{"name":"辣椒疮痂病严重","value":0.13263090513646603},{"name":"马铃薯健康","value":0.13086131075397134},{"name":"马铃薯早疫病一般","value":0.017966548330150545},{"name":"马铃薯早疫病严重","value":0.09235845063813031},{"name":"草莓健康","value":0.005367819539969787},{"name":"草莓叶枯病一般","value":2.334405295550823},{"name":"草莓叶枯病严重","value":6.1106618493795395},{"name":"番茄健康","value":0.007326119521167129},{"name":"未识别到植物","value":0.39151469245553017},{"name":"番茄叶斑病一般","value":3.1070267781615257},{"name":"番茄叶斑病严重","value":84.46308970451355},{"name":"樱桃健康","value":0.016781270096544176},{"name":"樱桃白粉病一般","value":0.01778730802470818},{"name":"樱桃白粉病严重","value":0.02623356704134494},{"name":"玉米健康","value":0.06931439856998622}]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>file-1688112045354-948037763.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fri Jun 30 2023 08:00:48 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[{"name":"苹果健康","value":0.000058399899671712774},{"name":"苹果黑星病一般","value":0.00002797495994855126},{"name":"玉米锈病一般","value":0.000262134881268139},{"name":"玉米锈病严重","value":0.005561122452490963},{"name":"葡萄健康","value":0.0037439342122524977},{"name":"葡萄黑腐病一般","value":0.002203378789999988},{"name":"葡萄黑腐病严重","value":0.3234892850741744},{"name":"苹果黑星病严重","value":0.00029483931029972155},{"name":"桃健康","value":0.00004531103172666917},{"name":"桃疮痂病一般","value":0.0030468179829767905},{"name":"桃疮痂病严重","value":0.009674854663899168},{"name":"辣椒健康","value":0.000022313423642117414},{"name":"辣椒疮痂病一般","value":0.00005505618787537969},{"name":"辣椒疮痂病严重","value":0.011237440776312724},{"name":"马铃薯健康","value":0.0039178295992314816},{"name":"马铃薯早疫病一般","value":0.0015166349840001203},{"name":"马铃薯早疫病严重","value":0.03386877360753715},{"name":"草莓健康","value":0.00003739675662473019},{"name":"草莓叶枯病一般","value":0.09194192825816572},{"name":"草莓叶枯病严重","value":0.07410640246234834},{"name":"番茄健康","value":0.00015352385389633127},{"name":"未识别到植物","value":0.0008357804290426429},{"name":"番茄叶斑病一般","value":0.2911548363044858},{"name":"番茄叶斑病严重","value":99.14213418960571},{"name":"樱桃健康","value":0.00027352343749953434},{"name":"樱桃白粉病一般","value":0.000026948066533805104},{"name":"樱桃白粉病严重","value":0.0001890168391582847},{"name":"玉米健康","value":0.00011889629831784987}]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>file-1688112486843-923991470.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fri Jun 30 2023 08:08:09 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[{"name":"苹果健康","value":0.000026914892714557936},{"name":"苹果黑星病一般","value":0.00001612881277424094},{"name":"玉米锈病一般","value":0.00022827598513686098},{"name":"玉米锈病严重","value":0.005167674680706114},{"name":"葡萄健康","value":0.0019598350263549946},{"name":"葡萄黑腐病一般","value":0.0006469290838140296},{"name":"葡萄黑腐病严重","value":0.13413475826382637},{"name":"苹果黑星病严重","value":0.00022436438484874088},{"name":"桃健康","value":0.00003721158350344922},{"name":"桃疮痂病一般","value":0.001639723268453963},{"name":"桃疮痂病严重","value":0.008130870264722034},{"name":"辣椒健康","value":0.000013207234417222935},{"name":"辣椒疮痂病一般","value":0.00004253858492120344},{"name":"辣椒疮痂病严重","value":0.00873595563462004},{"name":"马铃薯健康","value":0.0026384228476672433},{"name":"马铃薯早疫病一般","value":0.0005660892838932341},{"name":"马铃薯早疫病严重","value":0.014558366092387587},{"name":"草莓健康","value":0.00003752790860289679},{"name":"草莓叶枯病一般","value":0.08831099257804453},{"name":"草莓叶枯病严重","value":0.08269041427411139},{"name":"番茄健康","value":0.00007970259048306616},{"name":"未识别到植物","value":0.00047408134378201794},{"name":"番茄叶斑病一般","value":0.18881196156144142},{"name":"番茄叶斑病严重","value":99.46032762527466},{"name":"樱桃健康","value":0.0002760091092568473},{"name":"樱桃白粉病一般","value":0.0000221659007593189},{"name":"樱桃白粉病严重","value":0.00013547740991270985},{"name":"玉米健康","value":0.00006743225640093442}]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>file-1688112488324-671958530.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fri Jun 30 2023 08:08:09 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[{"name":"苹果健康","value":0.0000232211490924783},{"name":"苹果黑星病一般","value":0.000013459154502015735},{"name":"玉米锈病一般","value":0.0000784160931743827},{"name":"玉米锈病严重","value":0.0020046158169861883},{"name":"葡萄健康","value":0.002531422069296241},{"name":"葡萄黑腐病一般","value":0.0005673778105119709},{"name":"葡萄黑腐病严重","value":0.05785783287137747},{"name":"苹果黑星病严重","value":0.00013157057310309028},{"name":"桃健康","value":0.000025212918330907996},{"name":"桃疮痂病一般","value":0.0009440589565201662},{"name":"桃疮痂病严重","value":0.006678513454971835},{"name":"辣椒健康","value":0.000007537470025908988},{"name":"辣椒疮痂病一般","value":0.000018678400692806463},{"name":"辣椒疮痂病严重","value":0.0024751947421464138},{"name":"马铃薯健康","value":0.001788865301932674},{"name":"马铃薯早疫病一般","value":0.0003904656750819413},{"name":"马铃薯早疫病严重","value":0.011178804561495781},{"name":"草莓健康","value":0.00002557430605065747},{"name":"草莓叶枯病一般","value":0.04731991793960333},{"name":"草莓叶枯病严重","value":0.04036177706439048},{"name":"番茄健康","value":0.0000686796681748092},{"name":"未识别到植物","value":0.00035149855648342054},{"name":"番茄叶斑病一般","value":0.2307133749127388},{"name":"番茄叶斑病严重","value":99.59416389465332},{"name":"樱桃健康","value":0.00016178549913092866},{"name":"樱桃白粉病一般","value":0.000015370881101262057},{"name":"樱桃白粉病严重","value":0.00006509881131933071},{"name":"玉米健康","value":0.00003593865471884783}]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>file-1688112491088-924950561.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fri Jun 30 2023 08:08:12 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[{"name":"苹果健康","value":0.000012539017291146592},{"name":"苹果黑星病一般","value":0.000010530105498673947},{"name":"玉米锈病一般","value":0.0000819140836938459},{"name":"玉米锈病严重","value":0.00256835191976279},{"name":"葡萄健康","value":0.0010219306204817258},{"name":"葡萄黑腐病一般","value":0.0001250561467713851},{"name":"葡萄黑腐病严重","value":0.04131013993173838},{"name":"苹果黑星病严重","value":0.0002370986067035119},{"name":"桃健康","value":0.00001712464694492155},{"name":"桃疮痂病一般","value":0.0004335408448241651},{"name":"桃疮痂病严重","value":0.003046220081159845},{"name":"辣椒健康","value":0.00000739295629159642},{"name":"辣椒疮痂病一般","value":0.000019941916207244503},{"name":"辣椒疮痂病严重","value":0.00797695538494736},{"name":"马铃薯健康","value":0.0030148823498166166},{"name":"马铃薯早疫病一般","value":0.0002537160071369726},{"name":"马铃薯早疫病严重","value":0.02059666148852557},{"name":"草莓健康","value":0.00001909946973910337},{"name":"草莓叶枯病一般","value":0.030654057627543807},{"name":"草莓叶枯病严重","value":0.05388020072132349},{"name":"番茄健康","value":0.00011563525958990795},{"name":"未识别到植物","value":0.00024775774818408536},{"name":"番茄叶斑病一般","value":0.15289464499801397},{"name":"番茄叶斑病严重","value":99.68108534812927},{"name":"樱桃健康","value":0.00017970976387005066},{"name":"樱桃白粉病一般","value":0.000010436443176331522},{"name":"樱桃白粉病严重","value":0.00011816547385024023},{"name":"玉米健康","value":0.00006339510605357646}]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>file-1688112494195-566147186.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fri Jun 30 2023 08:08:15 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[{"name":"苹果健康","value":0.000017525727002976055},{"name":"苹果黑星病一般","value":0.000008698128795003868},{"name":"玉米锈病一般","value":0.00006587835628124594},{"name":"玉米锈病严重","value":0.0020559800759656355},{"name":"葡萄健康","value":0.0015158399946813006},{"name":"葡萄黑腐病一般","value":0.00018303602473679348},{"name":"葡萄黑腐病严重","value":0.03482970641925931},{"name":"苹果黑星病严重","value":0.00015993357465049485},{"name":"桃健康","value":0.0000138893270218432},{"name":"桃疮痂病一般","value":0.0003746063384824083},{"name":"桃疮痂病严重","value":0.002332902658963576},{"name":"辣椒健康","value":0.00000924753180697735},{"name":"辣椒疮痂病一般","value":0.000014546148463523423},{"name":"辣椒疮痂病严重","value":0.0050175178330391645},{"name":"马铃薯健康","value":0.003315990397823043},{"name":"马铃薯早疫病一般","value":0.00018047925323116942},{"name":"马铃薯早疫病严重","value":0.016041733033489436},{"name":"草莓健康","value":0.000019410175866596546},{"name":"草莓叶枯病一般","value":0.01620414259377867},{"name":"草莓叶枯病严重","value":0.043326400918886065},{"name":"番茄健康","value":0.00013876915545552038},{"name":"未识别到植物","value":0.0002688565018615918},{"name":"番茄叶斑病一般","value":0.17827092669904232},{"name":"番茄叶斑病严重","value":99.69531893730164},{"name":"樱桃健康","value":0.00016541565628358512},{"name":"樱桃白粉病一般","value":0.000008553168129310507},{"name":"樱桃白粉病严重","value":0.00008359585876860365},{"name":"玉米健康","value":0.000056586151231385884}]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>file-1688112497098-252206235.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fri Jun 30 2023 08:08:19 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[{"name":"苹果健康","value":0.000018807318724611832},{"name":"苹果黑星病一般","value":0.000016992154883155308},{"name":"玉米锈病一般","value":0.00011210711363673909},{"name":"玉米锈病严重","value":0.0027179599783266895},{"name":"葡萄健康","value":0.001606404475751333},{"name":"葡萄黑腐病一般","value":0.0002389655264778412},{"name":"葡萄黑腐病严重","value":0.07754601538181305},{"name":"苹果黑星病严重","value":0.0002780472186714178},{"name":"桃健康","value":0.00001597843919398656},{"name":"桃疮痂病一般","value":0.0005696812877431512},{"name":"桃疮痂病严重","value":0.003168788316543214},{"name":"辣椒健康","value":0.000010302405684115001},{"name":"辣椒疮痂病一般","value":0.000026599954594530573},{"name":"辣椒疮痂病严重","value":0.01265109603991732},{"name":"马铃薯健康","value":0.004357348007033579},{"name":"马铃薯早疫病一般","value":0.00033765859370760154},{"name":"马铃薯早疫病严重","value":0.02578302228357643},{"name":"草莓健康","value":0.00002479376632891217},{"name":"草莓叶枯病一般","value":0.031853196560405195},{"name":"草莓叶枯病严重","value":0.056087441043928266},{"name":"番茄健康","value":0.00013178279232306522},{"name":"未识别到植物","value":0.00033042595077859005},{"name":"番茄叶斑病一般","value":0.20762602798640728},{"name":"番茄叶斑病严重","value":99.57407116889954},{"name":"樱桃健康","value":0.00021407681742857676},{"name":"樱桃白粉病一般","value":0.000010486793655672955},{"name":"樱桃白粉病严重","value":0.00009923287507263012},{"name":"玉米健康","value":0.00009590287390892627}]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>file-1688112497328-161142704.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fri Jun 30 2023 08:08:20 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>未识别到植物</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[{"name":"苹果健康","value":0.001093513401428936},{"name":"苹果黑星病一般","value":0.0000488548721477855},{"name":"玉米锈病一般","value":0.0010603046575852204},{"name":"玉米锈病严重","value":0.0012501370292739011},{"name":"葡萄健康","value":0.00014249050082071335},{"name":"葡萄黑腐病一般","value":0.00028784777441615006},{"name":"葡萄黑腐病严重","value":0.000028627212600440544},{"name":"苹果黑星病严重","value":0.000025160952077385446},{"name":"桃健康","value":0.0005475917987496359},{"name":"桃疮痂病一般","value":0.0007582616035506362},{"name":"桃疮痂病严重","value":0.0006806343208154431},{"name":"辣椒健康","value":0.0007486061349482043},{"name":"辣椒疮痂病一般","value":0.00007861822837185173},{"name":"辣椒疮痂病严重","value":0.000031438443670595007},{"name":"马铃薯健康","value":0.00007834995585653814},{"name":"马铃薯早疫病一般","value":0.00010548330919846194},{"name":"马铃薯早疫病严重","value":0.00002157657235102306},{"name":"草莓健康","value":0.00007425098829116905},{"name":"草莓叶枯病一般","value":0.00005810302923237032},{"name":"草莓叶枯病严重","value":0.000036983320228500816},{"name":"番茄健康","value":0.000023283972439003264},{"name":"未识别到植物","value":99.989253282547},{"name":"番茄叶斑病一般","value":0.00006710799311804294},{"name":"番茄叶斑病严重","value":0.000013477014704221801},{"name":"樱桃健康","value":0.0008540624548913911},{"name":"樱桃白粉病一般","value":0.00013522177368940902},{"name":"樱桃白粉病严重","value":0.0000745361433018843},{"name":"玉米健康","value":0.002419654447294306}]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>file-1688112500181-950667692.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fri Jun 30 2023 08:08:22 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[{"name":"苹果健康","value":0.00008789818934928917},{"name":"苹果黑星病一般","value":0.00012080447504558833},{"name":"玉米锈病一般","value":0.0003222658506274456},{"name":"玉米锈病严重","value":0.006320582906482741},{"name":"葡萄健康","value":0.00457898604508955},{"name":"葡萄黑腐病一般","value":0.006095998833188787},{"name":"葡萄黑腐病严重","value":0.1510963891632855},{"name":"苹果黑星病严重","value":0.0013406459402176552},{"name":"桃健康","value":0.00006399402536771959},{"name":"桃疮痂病一般","value":0.009814633085625246},{"name":"桃疮痂病严重","value":0.023539410904049873},{"name":"辣椒健康","value":0.00007116115057215211},{"name":"辣椒疮痂病一般","value":0.00012200580385979265},{"name":"辣椒疮痂病严重","value":0.012938289728481323},{"name":"马铃薯健康","value":0.00311206495098304},{"name":"马铃薯早疫病一般","value":0.0022033253117115237},{"name":"马铃薯早疫病严重","value":0.03899344301316887},{"name":"草莓健康","value":0.00008864572578204388},{"name":"草莓叶枯病一般","value":0.1360792201012373},{"name":"草莓叶枯病严重","value":0.49036266282200813},{"name":"番茄健康","value":0.000538941276317928},{"name":"未识别到植物","value":0.005433923433884047},{"name":"番茄叶斑病一般","value":0.5778184626251459},{"name":"番茄叶斑病严重","value":98.5273540019989},{"name":"樱桃健康","value":0.000428657631346141},{"name":"樱桃白粉病一般","value":0.00023378167952614604},{"name":"樱桃白粉病严重","value":0.000431810985901393},{"name":"玉米健康","value":0.0004101631020603236}]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>file-1688112526627-789813168.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fri Jun 30 2023 08:08:47 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[{"name":"苹果健康","value":0.0023392491129925475},{"name":"苹果黑星病一般","value":0.000060240392940613674},{"name":"玉米锈病一般","value":0.0005422707090474432},{"name":"玉米锈病严重","value":0.0003957175522373291},{"name":"葡萄健康","value":0.0013680521078640595},{"name":"葡萄黑腐病一般","value":0.0009102931471716147},{"name":"葡萄黑腐病严重","value":0.000043160787299711956},{"name":"苹果黑星病严重","value":0.00005932395765739784},{"name":"桃健康","value":0.001002534554572776},{"name":"桃疮痂病一般","value":0.0010964116881950758},{"name":"桃疮痂病严重","value":0.0003341823912705877},{"name":"辣椒健康","value":0.0028603408281924203},{"name":"辣椒疮痂病一般","value":0.0001445031898583693},{"name":"辣椒疮痂病严重","value":0.000014301949136097392},{"name":"马铃薯健康","value":0.0001394801415699476},{"name":"马铃薯早疫病一般","value":0.00007437542990373913},{"name":"马铃薯早疫病严重","value":0.000009222032559819127},{"name":"草莓健康","value":0.00263318361248821},{"name":"草莓叶枯病一般","value":0.0002334569899176131},{"name":"草莓叶枯病严重","value":0.00009126048325924785},{"name":"番茄健康","value":0.00020736242731800303},{"name":"未识别到植物","value":99.82629418373108},{"name":"番茄叶斑病一般","value":0.0005643914846586995},{"name":"番茄叶斑病严重","value":0.00005591920171355014},{"name":"樱桃健康","value":0.0004675539457821287},{"name":"樱桃白粉病一般","value":0.0032103438570629805},{"name":"樱桃白粉病严重","value":0.0013785824194201268},{"name":"玉米健康","value":0.15347020234912634}]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>file-1688116735741-75693388.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fri Jun 30 2023 09:18:59 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[{"name":"苹果健康","value":0.13452122220769525},{"name":"苹果黑星病一般","value":0.17916553188115358},{"name":"玉米锈病一般","value":0.22629958111792803},{"name":"玉米锈病严重","value":0.17743648495525122},{"name":"葡萄健康","value":0.6606115493923426},{"name":"葡萄黑腐病一般","value":0.04192164051346481},{"name":"葡萄黑腐病严重","value":0.4990701097995043},{"name":"苹果黑星病严重","value":0.25951035786420107},{"name":"桃健康","value":0.0354030926246196},{"name":"桃疮痂病一般","value":4.137500002980232},{"name":"桃疮痂病严重","value":0.8859243243932724},{"name":"辣椒健康","value":0.019553914899006486},{"name":"辣椒疮痂病一般","value":0.021434115478768945},{"name":"辣椒疮痂病严重","value":0.20326506346464157},{"name":"马铃薯健康","value":0.29223544988781214},{"name":"马铃薯早疫病一般","value":0.11496940860524774},{"name":"马铃薯早疫病严重","value":0.13139118673279881},{"name":"草莓健康","value":0.035311191459186375},{"name":"草莓叶枯病一般","value":2.7907533571124077},{"name":"草莓叶枯病严重","value":0.8050783537328243},{"name":"番茄健康","value":0.010398870654171333},{"name":"未识别到植物","value":0.24363831616938114},{"name":"番茄叶斑病一般","value":16.387520730495453},{"name":"番茄叶斑病严重","value":54.51103448867798},{"name":"樱桃健康","value":0.045903195859864354},{"name":"樱桃白粉病一般","value":0.08770551066845655},{"name":"樱桃白粉病严重","value":0.24774763733148575},{"name":"玉米健康","value":16.814695298671722}]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>file-1688116741795-956820032.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fri Jun 30 2023 09:19:03 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[{"name":"苹果健康","value":0.004053659358760342},{"name":"苹果黑星病一般","value":0.0035900811781175435},{"name":"玉米锈病一般","value":0.007916326285339892},{"name":"玉米锈病严重","value":0.061350298346951604},{"name":"葡萄健康","value":0.015281254309229553},{"name":"葡萄黑腐病一般","value":0.022216983779799193},{"name":"葡萄黑腐病严重","value":0.07014239090494812},{"name":"苹果黑星病严重","value":0.008369133138330653},{"name":"桃健康","value":0.0007707147233304568},{"name":"桃疮痂病一般","value":0.1948295859619975},{"name":"桃疮痂病严重","value":0.4848117008805275},{"name":"辣椒健康","value":0.000586502164878766},{"name":"辣椒疮痂病一般","value":0.0021282752641127445},{"name":"辣椒疮痂病严重","value":0.03797268436755985},{"name":"马铃薯健康","value":0.10649993782863021},{"name":"马铃薯早疫病一般","value":0.0201100658159703},{"name":"马铃薯早疫病严重","value":0.0375872477889061},{"name":"草莓健康","value":0.0024436800231342204},{"name":"草莓叶枯病一般","value":2.6601988822221756},{"name":"草莓叶枯病严重","value":1.4637643471360207},{"name":"番茄健康","value":0.00043834415919263847},{"name":"未识别到植物","value":0.462607154622674},{"name":"番茄叶斑病一般","value":1.9215207546949387},{"name":"番茄叶斑病严重","value":92.35312938690186},{"name":"樱桃健康","value":0.009366309677716345},{"name":"樱桃白粉病一般","value":0.005891481850994751},{"name":"樱桃白粉病严重","value":0.03258700016885996},{"name":"玉米健康","value":0.00983612917480059}]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>file-1688116744918-372580138.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fri Jun 30 2023 09:19:05 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[{"name":"苹果健康","value":0.23720194585621357},{"name":"苹果黑星病一般","value":0.08751788991503417},{"name":"玉米锈病一般","value":0.22296719253063202},{"name":"玉米锈病严重","value":0.48214769922196865},{"name":"葡萄健康","value":0.598572101444006},{"name":"葡萄黑腐病一般","value":0.2864500507712364},{"name":"葡萄黑腐病严重","value":1.9593589007854462},{"name":"苹果黑星病严重","value":0.3231535665690899},{"name":"桃健康","value":0.027987835346721113},{"name":"桃疮痂病一般","value":2.193717658519745},{"name":"桃疮痂病严重","value":1.7324838787317276},{"name":"辣椒健康","value":0.04459257470443845},{"name":"辣椒疮痂病一般","value":0.020617332484107465},{"name":"辣椒疮痂病严重","value":0.4397742450237274},{"name":"马铃薯健康","value":0.4780881106853485},{"name":"马铃薯早疫病一般","value":0.29146531596779823},{"name":"马铃薯早疫病严重","value":0.502558471634984},{"name":"草莓健康","value":0.11033016489818692},{"name":"草莓叶枯病一般","value":28.504642844200134},{"name":"草莓叶枯病严重","value":10.105156898498535},{"name":"番茄健康","value":0.011627688218140975},{"name":"未识别到植物","value":3.918878734111786},{"name":"番茄叶斑病一般","value":4.553648084402084},{"name":"番茄叶斑病严重","value":31.084996461868286},{"name":"樱桃健康","value":0.09126655641011894},{"name":"樱桃白粉病一般","value":0.14928225427865982},{"name":"樱桃白粉病严重","value":0.7619085721671581},{"name":"玉米健康","value":10.77960878610611}]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>file-1688116747903-860572871.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fri Jun 30 2023 09:19:09 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[{"name":"苹果健康","value":0.003050313171115704},{"name":"苹果黑星病一般","value":0.00007214824222501193},{"name":"玉米锈病一般","value":0.0006783382559660822},{"name":"玉米锈病严重","value":0.0005071911346021807},{"name":"葡萄健康","value":0.0019102324586128816},{"name":"葡萄黑腐病一般","value":0.0012100897947675548},{"name":"葡萄黑腐病严重","value":0.00004627469820661645},{"name":"苹果黑星病严重","value":0.00005239573965809541},{"name":"桃健康","value":0.0011273338714090642},{"name":"桃疮痂病一般","value":0.001497026823926717},{"name":"桃疮痂病严重","value":0.000602304817221011},{"name":"辣椒健康","value":0.002936901910288725},{"name":"辣椒疮痂病一般","value":0.00016655197896398022},{"name":"辣椒疮痂病严重","value":0.00001578248571831864},{"name":"马铃薯健康","value":0.0001483224082221568},{"name":"马铃薯早疫病一般","value":0.0001171025132862269},{"name":"马铃薯早疫病严重","value":0.000018932418299755227},{"name":"草莓健康","value":0.0029916534913354553},{"name":"草莓叶枯病一般","value":0.0003422253257667762},{"name":"草莓叶枯病严重","value":0.00014269332950789249},{"name":"番茄健康","value":0.00033711094147292897},{"name":"未识别到植物","value":99.88890290260315},{"name":"番茄叶斑病一般","value":0.0010436772754474077},{"name":"番茄叶斑病严重","value":0.00011790497183028492},{"name":"樱桃健康","value":0.0006661713996436447},{"name":"樱桃白粉病一般","value":0.0032811200071591884},{"name":"樱桃白粉病严重","value":0.0014572132386092562},{"name":"玉米健康","value":0.08656004210934043}]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>file-1688116750637-35964315.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fri Jun 30 2023 09:19:11 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[{"name":"苹果健康","value":0.07673498475924134},{"name":"苹果黑星病一般","value":0.0007564579391328152},{"name":"玉米锈病一般","value":0.0010732093869592063},{"name":"玉米锈病严重","value":0.0018000624550040811},{"name":"葡萄健康","value":0.03307407896500081},{"name":"葡萄黑腐病一般","value":0.004381423786981031},{"name":"葡萄黑腐病严重","value":0.0010905779163294937},{"name":"苹果黑星病严重","value":0.0011754827937693335},{"name":"桃健康","value":0.003984212162322365},{"name":"桃疮痂病一般","value":0.004353107578936033},{"name":"桃疮痂病严重","value":0.0008549111953470856},{"name":"辣椒健康","value":0.006675838812952861},{"name":"辣椒疮痂病一般","value":0.0002441777041894966},{"name":"辣椒疮痂病严重","value":0.00003599650142405153},{"name":"马铃薯健康","value":0.0032026731787482277},{"name":"马铃薯早疫病一般","value":0.0011761539099097718},{"name":"马铃薯早疫病严重","value":0.00025670080958661856},{"name":"草莓健康","value":0.016603640688117594},{"name":"草莓叶枯病一般","value":0.0040581770008429885},{"name":"草莓叶枯病严重","value":0.0011579889360291418},{"name":"番茄健康","value":0.0008376915502594784},{"name":"未识别到植物","value":98.57001900672913},{"name":"番茄叶斑病一般","value":0.005890283500775695},{"name":"番茄叶斑病严重","value":0.0006952009698579786},{"name":"樱桃健康","value":0.002093822695314884},{"name":"樱桃白粉病一般","value":0.03566680243238807},{"name":"樱桃白粉病严重","value":0.018884365272242576},{"name":"玉米健康","value":1.20322210714221}]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>file-1688116859600-153520220.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fri Jun 30 2023 09:21:00 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[{"name":"苹果健康","value":0.00004341993076195649},{"name":"苹果黑星病一般","value":0.000624183849140536},{"name":"玉米锈病一般","value":0.0005004447302781045},{"name":"玉米锈病严重","value":0.00021159489733690862},{"name":"葡萄健康","value":0.000712020073478925},{"name":"葡萄黑腐病一般","value":94.36480402946472},{"name":"葡萄黑腐病严重","value":5.606383830308914},{"name":"苹果黑星病严重","value":0.0013130678780726157},{"name":"桃健康","value":0.00004838561267206387},{"name":"桃疮痂病一般","value":0.004887769682682119},{"name":"桃疮痂病严重","value":0.00003158642698508629},{"name":"辣椒健康","value":0.0015473140592803247},{"name":"辣椒疮痂病一般","value":0.006366796151269227},{"name":"辣椒疮痂病严重","value":0.001091247031581588},{"name":"马铃薯健康","value":0.00004317867308145651},{"name":"马铃薯早疫病一般","value":0.0014387862393050455},{"name":"马铃薯早疫病严重","value":0.000028277057140257966},{"name":"草莓健康","value":0.00034289637369511183},{"name":"草莓叶枯病一般","value":0.0006126104835857404},{"name":"草莓叶枯病严重","value":0.00003291357586476806},{"name":"番茄健康","value":0.0010312616723240353},{"name":"未识别到植物","value":0.00027033217975258594},{"name":"番茄叶斑病一般","value":0.007101093069650233},{"name":"番茄叶斑病严重","value":0.0002776348310362664},{"name":"樱桃健康","value":0.000039251784755833796},{"name":"樱桃白粉病一般","value":0.00016425343574155704},{"name":"樱桃白粉病严重","value":0.000014551631011272548},{"name":"玉米健康","value":0.00003937151120680937}]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>file-1688117258313-223639618.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fri Jun 30 2023 09:27:39 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>file-1688119161928-654961911.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fri Jun 30 2023 09:59:23 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>file-1688119414181-765718622.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fri Jun 30 2023 10:03:35 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>file-1688122172119-939013550.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fri Jun 30 2023 10:49:33 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>file-1688122330496-664916351.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fri Jun 30 2023 10:52:11 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>file-1688122418628-183988268.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fri Jun 30 2023 10:53:39 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>file-1688122468565-498471019.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fri Jun 30 2023 10:54:29 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>file-1688122667275-786159825.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fri Jun 30 2023 10:57:51 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>file-1688122760470-490178203.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fri Jun 30 2023 10:59:21 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>file-1688122928740-436238630.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fri Jun 30 2023 11:02:09 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>file-1688123202751-56631817.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fri Jun 30 2023 11:06:43 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>file-1688123238291-690922238.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fri Jun 30 2023 11:07:19 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>file-1688123302287-475790832.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fri Jun 30 2023 11:08:23 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>file-1688123334510-98016597.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fri Jun 30 2023 11:08:54 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>file-1688123446813-123323977.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fri Jun 30 2023 11:10:50 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>file-1688123518756-126908201.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fri Jun 30 2023 11:11:59 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>file-1688123566052-592019756.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fri Jun 30 2023 11:12:46 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>file-1688123582451-381831627.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fri Jun 30 2023 11:13:03 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>file-1688123623840-349678360.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fri Jun 30 2023 11:13:44 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>file-1688123662375-961966253.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fri Jun 30 2023 11:14:22 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>file-1688123724658-756050400.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fri Jun 30 2023 11:15:25 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>file-1688123878040-612556060.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fri Jun 30 2023 11:18:02 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>file-1688123917746-215246965.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fri Jun 30 2023 11:18:38 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>file-1688123973720-71977940.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fri Jun 30 2023 11:19:34 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>file-1688124053931-529890255.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fri Jun 30 2023 11:20:54 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>file-1688124075975-135161485.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fri Jun 30 2023 11:21:17 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>file-1688124189848-552621145.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fri Jun 30 2023 11:23:10 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>file-1688124237149-601252700.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fri Jun 30 2023 11:23:57 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>file-1688124272149-264150302.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fri Jun 30 2023 11:24:32 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>file-1688124345818-685842688.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fri Jun 30 2023 11:25:46 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[{"name":"苹果健康","value":0.0000028366649473809957},{"name":"苹果黑星病一般","value":0.00019261269699200056},{"name":"玉米锈病一般","value":0.01308675273321569},{"name":"玉米锈病严重","value":0.002187421705457382},{"name":"葡萄健康","value":0.00025972144612751435},{"name":"葡萄黑腐病一般","value":0.000010114348469869583},{"name":"葡萄黑腐病严重","value":0.00000332618945719787},{"name":"苹果黑星病严重","value":0.000038978802763267595},{"name":"桃健康","value":0.0037597394111799076},{"name":"桃疮痂病一般","value":0.00004800108968083805},{"name":"桃疮痂病严重","value":0.000027150713322043885},{"name":"辣椒健康","value":0.00007128651873244962},{"name":"辣椒疮痂病一般","value":0.0018329003069084138},{"name":"辣椒疮痂病严重","value":0.00005794665867142612},{"name":"马铃薯健康","value":0.00021589535208477173},{"name":"马铃薯早疫病一般","value":0.003729963646037504},{"name":"马铃薯早疫病严重","value":3.68428132446752e-7},{"name":"草莓健康","value":0.0009739113011164591},{"name":"草莓叶枯病一般","value":0.00004697219253557705},{"name":"草莓叶枯病严重","value":0.000002064485293828966},{"name":"番茄健康","value":0.0000049889010256265465},{"name":"未识别到植物","value":99.97063279151917},{"name":"番茄叶斑病一般","value":0.000999635631160345},{"name":"番茄叶斑病严重","value":0.0000028763830428601977},{"name":"樱桃健康","value":0.00000911687081384116},{"name":"樱桃白粉病一般","value":0.00040611898839415517},{"name":"樱桃白粉病严重","value":0.000015200126313175133},{"name":"玉米健康","value":0.0013789874174108263}]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>file-1688124843724-43577779.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fri Jun 30 2023 11:34:05 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[{"name":"苹果健康","value":1.296854068577602e-7},{"name":"苹果黑星病一般","value":9.826610636309852e-8},{"name":"玉米锈病一般","value":1.2031767804288052e-7},{"name":"玉米锈病严重","value":1.735175669814737e-7},{"name":"葡萄健康","value":99.9998152256012},{"name":"葡萄黑腐病一般","value":0.000001499847357422368},{"name":"葡萄黑腐病严重","value":0.0000016974096794797333},{"name":"苹果黑星病严重","value":1.2275335192768466e-7},{"name":"桃健康","value":8.926286376720327e-7},{"name":"桃疮痂病一般","value":3.3892575412863835e-7},{"name":"桃疮痂病严重","value":1.5832702926488196e-7},{"name":"辣椒健康","value":1.8453664152318083e-7},{"name":"辣椒疮痂病一般","value":3.947012161553687e-8},{"name":"辣椒疮痂病严重","value":8.35330277171309e-9},{"name":"马铃薯健康","value":0.00001933859294922513},{"name":"马铃薯早疫病一般","value":5.665405922172795e-8},{"name":"马铃薯早疫病严重","value":1.2313540465047623e-8},{"name":"草莓健康","value":0.00008129425168590387},{"name":"草莓叶枯病一般","value":0.000004541774956123845},{"name":"草莓叶枯病严重","value":0.0000031855840632033505},{"name":"番茄健康","value":6.755031645155896e-7},{"name":"未识别到植物","value":4.278767562482244e-7},{"name":"番茄叶斑病一般","value":0.00006486985739684314},{"name":"番茄叶斑病严重","value":4.1755345847604985e-7},{"name":"樱桃健康","value":7.332999985010247e-7},{"name":"樱桃白粉病一般","value":4.345622084400702e-7},{"name":"樱桃白粉病严重","value":1.2302061591640268e-7},{"name":"玉米健康","value":6.442233413395115e-7}]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>file-1688124867945-452724199.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fri Jun 30 2023 11:34:28 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[{"name":"苹果健康","value":86.00248098373413},{"name":"苹果黑星病一般","value":13.544657826423645},{"name":"玉米锈病一般","value":0.014916926738806069},{"name":"玉米锈病严重","value":0.00024239839149231557},{"name":"葡萄健康","value":0.026960141258314252},{"name":"葡萄黑腐病一般","value":0.0003604111270760768},{"name":"葡萄黑腐病严重","value":0.000042668790456446004},{"name":"苹果黑星病严重","value":0.030249723931774497},{"name":"桃健康","value":0.001849872751336079},{"name":"桃疮痂病一般","value":0.05488508031703532},{"name":"桃疮痂病严重","value":0.0011485891263873782},{"name":"辣椒健康","value":0.05051001789979637},{"name":"辣椒疮痂病一般","value":0.021841676789335907},{"name":"辣椒疮痂病严重","value":0.00012422087820596062},{"name":"马铃薯健康","value":0.006466226477641612},{"name":"马铃薯早疫病一般","value":0.0005338112714525778},{"name":"马铃薯早疫病严重","value":0.00003255674982938217},{"name":"草莓健康","value":0.15780001413077116},{"name":"草莓叶枯病一般","value":0.00011032502698071767},{"name":"草莓叶枯病严重","value":0.000025136705517070368},{"name":"番茄健康","value":0.005073861393611878},{"name":"未识别到植物","value":0.0032498650398338214},{"name":"番茄叶斑病一般","value":0.043521373299881816},{"name":"番茄叶斑病严重","value":0.0003670342948680627},{"name":"樱桃健康","value":0.009111189137911424},{"name":"樱桃白粉病一般","value":0.003474348341114819},{"name":"樱桃白粉病严重","value":0.0011690792234730907},{"name":"玉米健康","value":0.01879534247564152}]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>file-1688124875370-816995342.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fri Jun 30 2023 11:34:35 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>file-1688125131661-7704116.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fri Jun 30 2023 11:38:55 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>file-1688125131663-285122793.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fri Jun 30 2023 11:38:55 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>file-1688125131665-849325367.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fri Jun 30 2023 11:38:55 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[{"name":"苹果健康","value":0.004781407551490702},{"name":"苹果黑星病一般","value":0.2028782619163394},{"name":"玉米锈病一般","value":14.583326876163483},{"name":"玉米锈病严重","value":1.8580183386802673},{"name":"葡萄健康","value":0.03517042496241629},{"name":"葡萄黑腐病一般","value":5.358046293258667},{"name":"葡萄黑腐病严重","value":71.24701738357544},{"name":"苹果黑星病严重","value":0.12079104781150818},{"name":"桃健康","value":0.018074682157021016},{"name":"桃疮痂病一般","value":0.7773562334477901},{"name":"桃疮痂病严重","value":0.009494768892182037},{"name":"辣椒健康","value":0.049730780301615596},{"name":"辣椒疮痂病一般","value":1.5074717812240124},{"name":"辣椒疮痂病严重","value":0.6571300327777863},{"name":"马铃薯健康","value":0.01725176116451621},{"name":"马铃薯早疫病一般","value":2.801162004470825},{"name":"马铃薯早疫病严重","value":0.011820297368103638},{"name":"草莓健康","value":0.012155395961599424},{"name":"草莓叶枯病一般","value":0.1647504512220621},{"name":"草莓叶枯病严重","value":0.0038935308111831546},{"name":"番茄健康","value":0.0311703683109954},{"name":"未识别到植物","value":0.043649994768202305},{"name":"番茄叶斑病一般","value":0.3869666950777173},{"name":"番茄叶斑病严重","value":0.005483908171299845},{"name":"樱桃健康","value":0.0027279971618554555},{"name":"樱桃白粉病一般","value":0.04867117968387902},{"name":"樱桃白粉病严重","value":0.002622805186547339},{"name":"玉米健康","value":0.038383432547561824}]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>file-1688125131658-118406264.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fri Jun 30 2023 11:38:55 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>file-1688125381332-622932560.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fri Jun 30 2023 11:43:05 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>file-1688125396367-759227013.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fri Jun 30 2023 11:43:16 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>file-1688125396369-677446314.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fri Jun 30 2023 11:43:16 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>file-1688125396372-45605760.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fri Jun 30 2023 11:43:17 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>file-1688125396364-938174836.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fri Jun 30 2023 11:43:17 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[{"name":"苹果健康","value":0.40574907325208187},{"name":"苹果黑星病一般","value":0.060816307086497545},{"name":"玉米锈病一般","value":0.05512063507921994},{"name":"玉米锈病严重","value":0.1514253788627684},{"name":"葡萄健康","value":0.9492812678217888},{"name":"葡萄黑腐病一般","value":0.014044251292943954},{"name":"葡萄黑腐病严重","value":0.07030169363133609},{"name":"苹果黑星病严重","value":0.4407379310578108},{"name":"桃健康","value":1.5055355615913868},{"name":"桃疮痂病一般","value":0.027429329929873347},{"name":"桃疮痂病严重","value":0.024022172146942466},{"name":"辣椒健康","value":0.06352282944135368},{"name":"辣椒疮痂病一般","value":0.0821063993498683},{"name":"辣椒疮痂病严重","value":0.03475219709798694},{"name":"马铃薯健康","value":0.6539017427712679},{"name":"马铃薯早疫病一般","value":0.10668368777260184},{"name":"马铃薯早疫病严重","value":0.025740882847458124},{"name":"草莓健康","value":1.7972812056541443},{"name":"草莓叶枯病一般","value":0.06272764876484871},{"name":"草莓叶枯病严重","value":0.007101830851752311},{"name":"番茄健康","value":0.10988040594384074},{"name":"未识别到植物","value":33.395934104919434},{"name":"番茄叶斑病一般","value":2.638358250260353},{"name":"番茄叶斑病严重","value":0.7199421059340239},{"name":"樱桃健康","value":0.04122333193663508},{"name":"樱桃白粉病一般","value":16.336683928966522},{"name":"樱桃白粉病严重","value":27.295833826065063},{"name":"玉米健康","value":12.923863530158997}]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>file-1688125396362-621118408.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fri Jun 30 2023 11:43:17 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>file-1688125396365-992219158.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fri Jun 30 2023 11:43:17 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>file-1688125638201-689069560.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fri Jun 30 2023 11:47:20 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>file-1688126189329-68410595.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fri Jun 30 2023 11:56:30 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>file-1688126315513-838420685.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fri Jun 30 2023 11:58:38 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>file-1688127271664-843081721.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fri Jun 30 2023 12:14:32 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>玉米锈病一般</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[{"name":"苹果健康","value":0.0009840476195677184},{"name":"苹果黑星病一般","value":0.001715451799100265},{"name":"玉米锈病一般","value":78.82091403007507},{"name":"玉米锈病严重","value":0.4240122623741627},{"name":"葡萄健康","value":0.004940415237797424},{"name":"葡萄黑腐病一般","value":0.003977903907070868},{"name":"葡萄黑腐病严重","value":0.00978489188128151},{"name":"苹果黑星病严重","value":0.0009484997463005129},{"name":"桃健康","value":0.03231949813198298},{"name":"桃疮痂病一般","value":0.09789620526134968},{"name":"桃疮痂病严重","value":0.004479315975913778},{"name":"辣椒健康","value":0.0015891246221144684},{"name":"辣椒疮痂病一般","value":0.11314199073240161},{"name":"辣椒疮痂病严重","value":0.006774944631615654},{"name":"马铃薯健康","value":0.0020828454580623657},{"name":"马铃薯早疫病一般","value":0.00031733243304188363},{"name":"马铃薯早疫病严重","value":0.00002757964239208377},{"name":"草莓健康","value":0.027130069793201983},{"name":"草莓叶枯病一般","value":0.004308082498027943},{"name":"草莓叶枯病严重","value":0.00008575365768592746},{"name":"番茄健康","value":0.0017585392924956977},{"name":"未识别到植物","value":20.363445580005646},{"name":"番茄叶斑病一般","value":0.011161799193359911},{"name":"番茄叶斑病严重","value":0.0003293519739600015},{"name":"樱桃健康","value":0.0018615673980093561},{"name":"樱桃白粉病一般","value":0.011661732423817739},{"name":"樱桃白粉病严重","value":0.0020952951672370546},{"name":"玉米健康","value":0.050253234803676605}]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>file-1688133317053-581345164.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fri Jun 30 2023 13:55:19 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[{"name":"苹果健康","value":0.0002436361000945908},{"name":"苹果黑星病一般","value":0.0005435859748104122},{"name":"玉米锈病一般","value":0.3365261945873499},{"name":"玉米锈病严重","value":0.02354400639887899},{"name":"葡萄健康","value":0.0022206220819498412},{"name":"葡萄黑腐病一般","value":1.6414226964116096},{"name":"葡萄黑腐病严重","value":97.88627624511719},{"name":"苹果黑星病严重","value":0.0013032614333496895},{"name":"桃健康","value":0.00019392193735257024},{"name":"桃疮痂病一般","value":0.008054177305893973},{"name":"桃疮痂病严重","value":0.000588924467592733},{"name":"辣椒健康","value":0.00016615210824966198},{"name":"辣椒疮痂病一般","value":0.024794184719212353},{"name":"辣椒疮痂病严重","value":0.008364343375433236},{"name":"马铃薯健康","value":0.00033423152672185097},{"name":"马铃薯早疫病一般","value":0.02405198902124539},{"name":"马铃薯早疫病严重","value":0.0012791471817763522},{"name":"草莓健康","value":0.00047972848733479623},{"name":"草莓叶枯病一般","value":0.025106556131504476},{"name":"草莓叶枯病严重","value":0.0002505604925318039},{"name":"番茄健康","value":0.002002068140427582},{"name":"未识别到植物","value":0.003927950456272811},{"name":"番茄叶斑病一般","value":0.005997381231281906},{"name":"番茄叶斑病严重","value":0.0005210418748902157},{"name":"樱桃健康","value":0.000059626211168506416},{"name":"樱桃白粉病一般","value":0.0010896095773205161},{"name":"樱桃白粉病严重","value":0.00047578869271092117},{"name":"玉米健康","value":0.00018372157910562237}]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>file-1688133345034-280957206.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fri Jun 30 2023 13:55:45 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[{"name":"苹果健康","value":0.06162265781313181},{"name":"苹果黑星病一般","value":0.1243565115146339},{"name":"玉米锈病一般","value":62.54684925079346},{"name":"玉米锈病严重","value":20.344969630241394},{"name":"葡萄健康","value":0.20630082581192255},{"name":"葡萄黑腐病一般","value":0.13648925814777613},{"name":"葡萄黑腐病严重","value":0.5254984833300114},{"name":"苹果黑星病严重","value":0.29319131281226873},{"name":"桃健康","value":0.16209555324167013},{"name":"桃疮痂病一般","value":0.16198008088395},{"name":"桃疮痂病严重","value":0.08495784131810069},{"name":"辣椒健康","value":0.13587564462795854},{"name":"辣椒疮痂病一般","value":0.47734491527080536},{"name":"辣椒疮痂病严重","value":0.15498879365622997},{"name":"马铃薯健康","value":0.08318027830682695},{"name":"马铃薯早疫病一般","value":0.1302055548876524},{"name":"马铃薯早疫病严重","value":0.01815708674257621},{"name":"草莓健康","value":0.27458362746983767},{"name":"草莓叶枯病一般","value":0.1581478980369866},{"name":"草莓叶枯病严重","value":0.03560865297913551},{"name":"番茄健康","value":0.8682388812303543},{"name":"未识别到植物","value":7.3718152940273285},{"name":"番茄叶斑病一般","value":0.8665066212415695},{"name":"番茄叶斑病严重","value":0.05677571753039956},{"name":"樱桃健康","value":0.09301163954660296},{"name":"樱桃白粉病一般","value":0.5849887151271105},{"name":"樱桃白粉病严重","value":1.6135018318891525},{"name":"玉米健康","value":2.428758703172207}]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>file-1688133369032-226926555.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fri Jun 30 2023 13:56:09 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>file-1688133403359-16188917.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fri Jun 30 2023 13:56:43 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>file-1688133517731-210777884.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fri Jun 30 2023 13:58:38 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>file-1688133620257-559874743.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fri Jun 30 2023 14:00:22 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>file-1688133626753-376979095.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fri Jun 30 2023 14:00:26 GMT+0800 (台北标准时间)</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1433,6 +1994,2268 @@
         <x:v>100</x:v>
       </x:c>
     </x:row>
+    <x:row r="27" spans="1:9">
+      <x:c r="A27" s="0" t="n">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="B27" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C27" s="0" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="D27" s="0" t="n">
+        <x:v>112.982</x:v>
+      </x:c>
+      <x:c r="E27" s="0" t="n">
+        <x:v>22.9193</x:v>
+      </x:c>
+      <x:c r="F27" s="0" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="G27" s="0" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="H27" s="0" t="n">
+        <x:v>923</x:v>
+      </x:c>
+      <x:c r="I27" s="0" t="s">
+        <x:v>103</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:9">
+      <x:c r="A28" s="0" t="n">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="B28" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C28" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="D28" s="0" t="n">
+        <x:v>112.982</x:v>
+      </x:c>
+      <x:c r="E28" s="0" t="n">
+        <x:v>22.9193</x:v>
+      </x:c>
+      <x:c r="F28" s="0" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="G28" s="0" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="H28" s="0" t="n">
+        <x:v>1061</x:v>
+      </x:c>
+      <x:c r="I28" s="0" t="s">
+        <x:v>106</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:9">
+      <x:c r="A29" s="0" t="n">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="B29" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C29" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="D29" s="0" t="n">
+        <x:v>112.982</x:v>
+      </x:c>
+      <x:c r="E29" s="0" t="n">
+        <x:v>22.9193</x:v>
+      </x:c>
+      <x:c r="F29" s="0" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="G29" s="0" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="H29" s="0" t="n">
+        <x:v>798</x:v>
+      </x:c>
+      <x:c r="I29" s="0" t="s">
+        <x:v>109</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:9">
+      <x:c r="A30" s="0" t="n">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="B30" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C30" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="D30" s="0" t="n">
+        <x:v>112.982</x:v>
+      </x:c>
+      <x:c r="E30" s="0" t="n">
+        <x:v>22.9193</x:v>
+      </x:c>
+      <x:c r="F30" s="0" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="G30" s="0" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="H30" s="0" t="n">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="I30" s="0" t="s">
+        <x:v>112</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:9">
+      <x:c r="A31" s="0" t="n">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="B31" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C31" s="0" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="D31" s="0" t="n">
+        <x:v>112.982</x:v>
+      </x:c>
+      <x:c r="E31" s="0" t="n">
+        <x:v>22.9193</x:v>
+      </x:c>
+      <x:c r="F31" s="0" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="G31" s="0" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="H31" s="0" t="n">
+        <x:v>11864</x:v>
+      </x:c>
+      <x:c r="I31" s="0" t="s">
+        <x:v>114</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:9">
+      <x:c r="A32" s="0" t="n">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="B32" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C32" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="D32" s="0" t="n">
+        <x:v>112.982</x:v>
+      </x:c>
+      <x:c r="E32" s="0" t="n">
+        <x:v>22.9193</x:v>
+      </x:c>
+      <x:c r="F32" s="0" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="G32" s="0" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="H32" s="0" t="n">
+        <x:v>12264</x:v>
+      </x:c>
+      <x:c r="I32" s="0" t="s">
+        <x:v>116</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:9">
+      <x:c r="A33" s="0" t="n">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="B33" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C33" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="D33" s="0" t="n">
+        <x:v>112.982</x:v>
+      </x:c>
+      <x:c r="E33" s="0" t="n">
+        <x:v>22.9193</x:v>
+      </x:c>
+      <x:c r="F33" s="0" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="G33" s="0" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="H33" s="0" t="n">
+        <x:v>12753</x:v>
+      </x:c>
+      <x:c r="I33" s="0" t="s">
+        <x:v>118</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:9">
+      <x:c r="A34" s="0" t="n">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="B34" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C34" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="D34" s="0" t="n">
+        <x:v>112.982</x:v>
+      </x:c>
+      <x:c r="E34" s="0" t="n">
+        <x:v>22.9193</x:v>
+      </x:c>
+      <x:c r="F34" s="0" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="G34" s="0" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="H34" s="0" t="n">
+        <x:v>240</x:v>
+      </x:c>
+      <x:c r="I34" s="0" t="s">
+        <x:v>121</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:9">
+      <x:c r="A35" s="0" t="n">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="B35" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C35" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="D35" s="0" t="n">
+        <x:v>112.982</x:v>
+      </x:c>
+      <x:c r="E35" s="0" t="n">
+        <x:v>22.9193</x:v>
+      </x:c>
+      <x:c r="F35" s="0" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="G35" s="0" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="H35" s="0" t="n">
+        <x:v>219</x:v>
+      </x:c>
+      <x:c r="I35" s="0" t="s">
+        <x:v>124</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:9">
+      <x:c r="A36" s="0" t="n">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="B36" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C36" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="D36" s="0" t="n">
+        <x:v>112.982</x:v>
+      </x:c>
+      <x:c r="E36" s="0" t="n">
+        <x:v>22.9193</x:v>
+      </x:c>
+      <x:c r="F36" s="0" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="G36" s="0" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="H36" s="0" t="n">
+        <x:v>167</x:v>
+      </x:c>
+      <x:c r="I36" s="0" t="s">
+        <x:v>127</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:9">
+      <x:c r="A37" s="0" t="n">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="B37" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C37" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="D37" s="0" t="n">
+        <x:v>112.982</x:v>
+      </x:c>
+      <x:c r="E37" s="0" t="n">
+        <x:v>22.9193</x:v>
+      </x:c>
+      <x:c r="F37" s="0" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="G37" s="0" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="H37" s="0" t="n">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="I37" s="0" t="s">
+        <x:v>130</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:9">
+      <x:c r="A38" s="0" t="n">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="B38" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C38" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="D38" s="0" t="n">
+        <x:v>112.982</x:v>
+      </x:c>
+      <x:c r="E38" s="0" t="n">
+        <x:v>22.9193</x:v>
+      </x:c>
+      <x:c r="F38" s="0" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="G38" s="0" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="H38" s="0" t="n">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="I38" s="0" t="s">
+        <x:v>133</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:9">
+      <x:c r="A39" s="0" t="n">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="B39" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C39" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="D39" s="0" t="n">
+        <x:v>112.982</x:v>
+      </x:c>
+      <x:c r="E39" s="0" t="n">
+        <x:v>22.9193</x:v>
+      </x:c>
+      <x:c r="F39" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="G39" s="0" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="H39" s="0" t="n">
+        <x:v>165</x:v>
+      </x:c>
+      <x:c r="I39" s="0" t="s">
+        <x:v>136</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:9">
+      <x:c r="A40" s="0" t="n">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="B40" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C40" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="D40" s="0" t="n">
+        <x:v>112.982</x:v>
+      </x:c>
+      <x:c r="E40" s="0" t="n">
+        <x:v>22.9193</x:v>
+      </x:c>
+      <x:c r="F40" s="0" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="G40" s="0" t="s">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="H40" s="0" t="n">
+        <x:v>331</x:v>
+      </x:c>
+      <x:c r="I40" s="0" t="s">
+        <x:v>139</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:9">
+      <x:c r="A41" s="0" t="n">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="B41" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C41" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="D41" s="0" t="n">
+        <x:v>112.982</x:v>
+      </x:c>
+      <x:c r="E41" s="0" t="n">
+        <x:v>22.9193</x:v>
+      </x:c>
+      <x:c r="F41" s="0" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="G41" s="0" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="H41" s="0" t="n">
+        <x:v>226</x:v>
+      </x:c>
+      <x:c r="I41" s="0" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:9">
+      <x:c r="A42" s="0" t="n">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="B42" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C42" s="0" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="D42" s="0" t="n">
+        <x:v>112.982</x:v>
+      </x:c>
+      <x:c r="E42" s="0" t="n">
+        <x:v>22.9193</x:v>
+      </x:c>
+      <x:c r="F42" s="0" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="G42" s="0" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="H42" s="0" t="n">
+        <x:v>164</x:v>
+      </x:c>
+      <x:c r="I42" s="0" t="s">
+        <x:v>146</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="1:9">
+      <x:c r="A43" s="0" t="n">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="B43" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C43" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="D43" s="0" t="n">
+        <x:v>112.982</x:v>
+      </x:c>
+      <x:c r="E43" s="0" t="n">
+        <x:v>22.9193</x:v>
+      </x:c>
+      <x:c r="F43" s="0" t="s">
+        <x:v>147</x:v>
+      </x:c>
+      <x:c r="G43" s="0" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="H43" s="0" t="n">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="I43" s="0" t="s">
+        <x:v>149</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:9">
+      <x:c r="A44" s="0" t="n">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="B44" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C44" s="0" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="D44" s="0" t="n">
+        <x:v>112.982</x:v>
+      </x:c>
+      <x:c r="E44" s="0" t="n">
+        <x:v>22.9193</x:v>
+      </x:c>
+      <x:c r="F44" s="0" t="s">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="G44" s="0" t="s">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="H44" s="0" t="n">
+        <x:v>244</x:v>
+      </x:c>
+      <x:c r="I44" s="0" t="s">
+        <x:v>152</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:9">
+      <x:c r="A45" s="0" t="n">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="B45" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C45" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="D45" s="0" t="n">
+        <x:v>112.982</x:v>
+      </x:c>
+      <x:c r="E45" s="0" t="n">
+        <x:v>22.9193</x:v>
+      </x:c>
+      <x:c r="F45" s="0" t="s">
+        <x:v>153</x:v>
+      </x:c>
+      <x:c r="G45" s="0" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="H45" s="0" t="n">
+        <x:v>445</x:v>
+      </x:c>
+      <x:c r="I45" s="0" t="s">
+        <x:v>155</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46" spans="1:9">
+      <x:c r="A46" s="0" t="n">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="B46" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C46" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="D46" s="0" t="n">
+        <x:v>112.982</x:v>
+      </x:c>
+      <x:c r="E46" s="0" t="n">
+        <x:v>22.9193</x:v>
+      </x:c>
+      <x:c r="F46" s="0" t="s">
+        <x:v>156</x:v>
+      </x:c>
+      <x:c r="G46" s="0" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="H46" s="0" t="n">
+        <x:v>387</x:v>
+      </x:c>
+      <x:c r="I46" s="0" t="s">
+        <x:v>158</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47" spans="1:9">
+      <x:c r="A47" s="0" t="n">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="B47" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C47" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="D47" s="0" t="n">
+        <x:v>112.982</x:v>
+      </x:c>
+      <x:c r="E47" s="0" t="n">
+        <x:v>22.9193</x:v>
+      </x:c>
+      <x:c r="F47" s="0" t="s">
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="G47" s="0" t="s">
+        <x:v>160</x:v>
+      </x:c>
+      <x:c r="H47" s="0" t="n">
+        <x:v>541</x:v>
+      </x:c>
+      <x:c r="I47" s="0" t="s">
+        <x:v>161</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="48" spans="1:9">
+      <x:c r="A48" s="0" t="n">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="B48" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C48" s="0" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="D48" s="0" t="n">
+        <x:v>112.982</x:v>
+      </x:c>
+      <x:c r="E48" s="0" t="n">
+        <x:v>22.9193</x:v>
+      </x:c>
+      <x:c r="F48" s="0" t="s">
+        <x:v>162</x:v>
+      </x:c>
+      <x:c r="G48" s="0" t="s">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="H48" s="0" t="n">
+        <x:v>358</x:v>
+      </x:c>
+      <x:c r="I48" s="0" t="s">
+        <x:v>164</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="49" spans="1:9">
+      <x:c r="A49" s="0" t="n">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="B49" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C49" s="0" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="D49" s="0" t="n">
+        <x:v>112.982</x:v>
+      </x:c>
+      <x:c r="E49" s="0" t="n">
+        <x:v>22.9193</x:v>
+      </x:c>
+      <x:c r="F49" s="0" t="s">
+        <x:v>165</x:v>
+      </x:c>
+      <x:c r="G49" s="0" t="s">
+        <x:v>166</x:v>
+      </x:c>
+      <x:c r="H49" s="0" t="n">
+        <x:v>308</x:v>
+      </x:c>
+      <x:c r="I49" s="0" t="s">
+        <x:v>167</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50" spans="1:9">
+      <x:c r="A50" s="0" t="n">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="B50" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C50" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="D50" s="0" t="n">
+        <x:v>112.982</x:v>
+      </x:c>
+      <x:c r="E50" s="0" t="n">
+        <x:v>22.9193</x:v>
+      </x:c>
+      <x:c r="F50" s="0" t="s">
+        <x:v>168</x:v>
+      </x:c>
+      <x:c r="G50" s="0" t="s">
+        <x:v>169</x:v>
+      </x:c>
+      <x:c r="H50" s="0" t="n">
+        <x:v>667</x:v>
+      </x:c>
+      <x:c r="I50" s="0" t="s">
+        <x:v>170</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="51" spans="1:9">
+      <x:c r="A51" s="0" t="n">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="B51" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C51" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="D51" s="0" t="n">
+        <x:v>112.982</x:v>
+      </x:c>
+      <x:c r="E51" s="0" t="n">
+        <x:v>22.9193</x:v>
+      </x:c>
+      <x:c r="F51" s="0" t="s">
+        <x:v>168</x:v>
+      </x:c>
+      <x:c r="G51" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="H51" s="0" t="n">
+        <x:v>1758</x:v>
+      </x:c>
+      <x:c r="I51" s="0" t="s">
+        <x:v>172</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="52" spans="1:9">
+      <x:c r="A52" s="0" t="n">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="B52" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C52" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="D52" s="0" t="n">
+        <x:v>112.982</x:v>
+      </x:c>
+      <x:c r="E52" s="0" t="n">
+        <x:v>22.9193</x:v>
+      </x:c>
+      <x:c r="F52" s="0" t="s">
+        <x:v>168</x:v>
+      </x:c>
+      <x:c r="G52" s="0" t="s">
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="H52" s="0" t="n">
+        <x:v>340</x:v>
+      </x:c>
+      <x:c r="I52" s="0" t="s">
+        <x:v>174</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="53" spans="1:9">
+      <x:c r="A53" s="0" t="n">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="B53" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C53" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="D53" s="0" t="n">
+        <x:v>112.982</x:v>
+      </x:c>
+      <x:c r="E53" s="0" t="n">
+        <x:v>22.9193</x:v>
+      </x:c>
+      <x:c r="F53" s="0" t="s">
+        <x:v>168</x:v>
+      </x:c>
+      <x:c r="G53" s="0" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="H53" s="0" t="n">
+        <x:v>1666</x:v>
+      </x:c>
+      <x:c r="I53" s="0" t="s">
+        <x:v>176</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="54" spans="1:9">
+      <x:c r="A54" s="0" t="n">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="B54" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C54" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="D54" s="0" t="n">
+        <x:v>112.982</x:v>
+      </x:c>
+      <x:c r="E54" s="0" t="n">
+        <x:v>22.9193</x:v>
+      </x:c>
+      <x:c r="F54" s="0" t="s">
+        <x:v>168</x:v>
+      </x:c>
+      <x:c r="G54" s="0" t="s">
+        <x:v>177</x:v>
+      </x:c>
+      <x:c r="H54" s="0" t="n">
+        <x:v>1028</x:v>
+      </x:c>
+      <x:c r="I54" s="0" t="s">
+        <x:v>178</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="55" spans="1:9">
+      <x:c r="A55" s="0" t="n">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="B55" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C55" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="D55" s="0" t="n">
+        <x:v>112.982</x:v>
+      </x:c>
+      <x:c r="E55" s="0" t="n">
+        <x:v>22.9193</x:v>
+      </x:c>
+      <x:c r="F55" s="0" t="s">
+        <x:v>168</x:v>
+      </x:c>
+      <x:c r="G55" s="0" t="s">
+        <x:v>179</x:v>
+      </x:c>
+      <x:c r="H55" s="0" t="n">
+        <x:v>922</x:v>
+      </x:c>
+      <x:c r="I55" s="0" t="s">
+        <x:v>180</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="56" spans="1:9">
+      <x:c r="A56" s="0" t="n">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="B56" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C56" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="D56" s="0" t="n">
+        <x:v>112.982</x:v>
+      </x:c>
+      <x:c r="E56" s="0" t="n">
+        <x:v>22.9193</x:v>
+      </x:c>
+      <x:c r="F56" s="0" t="s">
+        <x:v>168</x:v>
+      </x:c>
+      <x:c r="G56" s="0" t="s">
+        <x:v>181</x:v>
+      </x:c>
+      <x:c r="H56" s="0" t="n">
+        <x:v>1139</x:v>
+      </x:c>
+      <x:c r="I56" s="0" t="s">
+        <x:v>182</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="57" spans="1:9">
+      <x:c r="A57" s="0" t="n">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="B57" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C57" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="D57" s="0" t="n">
+        <x:v>112.982</x:v>
+      </x:c>
+      <x:c r="E57" s="0" t="n">
+        <x:v>22.9193</x:v>
+      </x:c>
+      <x:c r="F57" s="0" t="s">
+        <x:v>168</x:v>
+      </x:c>
+      <x:c r="G57" s="0" t="s">
+        <x:v>183</x:v>
+      </x:c>
+      <x:c r="H57" s="0" t="n">
+        <x:v>989</x:v>
+      </x:c>
+      <x:c r="I57" s="0" t="s">
+        <x:v>184</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="58" spans="1:9">
+      <x:c r="A58" s="0" t="n">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="B58" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C58" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="D58" s="0" t="n">
+        <x:v>112.982</x:v>
+      </x:c>
+      <x:c r="E58" s="0" t="n">
+        <x:v>22.9193</x:v>
+      </x:c>
+      <x:c r="F58" s="0" t="s">
+        <x:v>168</x:v>
+      </x:c>
+      <x:c r="G58" s="0" t="s">
+        <x:v>185</x:v>
+      </x:c>
+      <x:c r="H58" s="0" t="n">
+        <x:v>915</x:v>
+      </x:c>
+      <x:c r="I58" s="0" t="s">
+        <x:v>186</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="59" spans="1:9">
+      <x:c r="A59" s="0" t="n">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="B59" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C59" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="D59" s="0" t="n">
+        <x:v>112.982</x:v>
+      </x:c>
+      <x:c r="E59" s="0" t="n">
+        <x:v>22.9193</x:v>
+      </x:c>
+      <x:c r="F59" s="0" t="s">
+        <x:v>168</x:v>
+      </x:c>
+      <x:c r="G59" s="0" t="s">
+        <x:v>187</x:v>
+      </x:c>
+      <x:c r="H59" s="0" t="n">
+        <x:v>335</x:v>
+      </x:c>
+      <x:c r="I59" s="0" t="s">
+        <x:v>188</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="60" spans="1:9">
+      <x:c r="A60" s="0" t="n">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="B60" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C60" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="D60" s="0" t="n">
+        <x:v>112.982</x:v>
+      </x:c>
+      <x:c r="E60" s="0" t="n">
+        <x:v>22.9193</x:v>
+      </x:c>
+      <x:c r="F60" s="0" t="s">
+        <x:v>168</x:v>
+      </x:c>
+      <x:c r="G60" s="0" t="s">
+        <x:v>189</x:v>
+      </x:c>
+      <x:c r="H60" s="0" t="n">
+        <x:v>231</x:v>
+      </x:c>
+      <x:c r="I60" s="0" t="s">
+        <x:v>190</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="61" spans="1:9">
+      <x:c r="A61" s="0" t="n">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="B61" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C61" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="D61" s="0" t="n">
+        <x:v>112.982</x:v>
+      </x:c>
+      <x:c r="E61" s="0" t="n">
+        <x:v>22.9193</x:v>
+      </x:c>
+      <x:c r="F61" s="0" t="s">
+        <x:v>168</x:v>
+      </x:c>
+      <x:c r="G61" s="0" t="s">
+        <x:v>191</x:v>
+      </x:c>
+      <x:c r="H61" s="0" t="n">
+        <x:v>920</x:v>
+      </x:c>
+      <x:c r="I61" s="0" t="s">
+        <x:v>192</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="62" spans="1:9">
+      <x:c r="A62" s="0" t="n">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="B62" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C62" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="D62" s="0" t="n">
+        <x:v>112.982</x:v>
+      </x:c>
+      <x:c r="E62" s="0" t="n">
+        <x:v>22.9193</x:v>
+      </x:c>
+      <x:c r="F62" s="0" t="s">
+        <x:v>168</x:v>
+      </x:c>
+      <x:c r="G62" s="0" t="s">
+        <x:v>193</x:v>
+      </x:c>
+      <x:c r="H62" s="0" t="n">
+        <x:v>586</x:v>
+      </x:c>
+      <x:c r="I62" s="0" t="s">
+        <x:v>194</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="63" spans="1:9">
+      <x:c r="A63" s="0" t="n">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="B63" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C63" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="D63" s="0" t="n">
+        <x:v>112.982</x:v>
+      </x:c>
+      <x:c r="E63" s="0" t="n">
+        <x:v>22.9193</x:v>
+      </x:c>
+      <x:c r="F63" s="0" t="s">
+        <x:v>168</x:v>
+      </x:c>
+      <x:c r="G63" s="0" t="s">
+        <x:v>195</x:v>
+      </x:c>
+      <x:c r="H63" s="0" t="n">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="I63" s="0" t="s">
+        <x:v>196</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="64" spans="1:9">
+      <x:c r="A64" s="0" t="n">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="B64" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C64" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="D64" s="0" t="n">
+        <x:v>112.982</x:v>
+      </x:c>
+      <x:c r="E64" s="0" t="n">
+        <x:v>22.9193</x:v>
+      </x:c>
+      <x:c r="F64" s="0" t="s">
+        <x:v>168</x:v>
+      </x:c>
+      <x:c r="G64" s="0" t="s">
+        <x:v>197</x:v>
+      </x:c>
+      <x:c r="H64" s="0" t="n">
+        <x:v>187</x:v>
+      </x:c>
+      <x:c r="I64" s="0" t="s">
+        <x:v>198</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="65" spans="1:9">
+      <x:c r="A65" s="0" t="n">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="B65" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C65" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="D65" s="0" t="n">
+        <x:v>112.982</x:v>
+      </x:c>
+      <x:c r="E65" s="0" t="n">
+        <x:v>22.9193</x:v>
+      </x:c>
+      <x:c r="F65" s="0" t="s">
+        <x:v>168</x:v>
+      </x:c>
+      <x:c r="G65" s="0" t="s">
+        <x:v>199</x:v>
+      </x:c>
+      <x:c r="H65" s="0" t="n">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="I65" s="0" t="s">
+        <x:v>200</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="66" spans="1:9">
+      <x:c r="A66" s="0" t="n">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="B66" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C66" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="D66" s="0" t="n">
+        <x:v>112.982</x:v>
+      </x:c>
+      <x:c r="E66" s="0" t="n">
+        <x:v>22.9193</x:v>
+      </x:c>
+      <x:c r="F66" s="0" t="s">
+        <x:v>168</x:v>
+      </x:c>
+      <x:c r="G66" s="0" t="s">
+        <x:v>201</x:v>
+      </x:c>
+      <x:c r="H66" s="0" t="n">
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="I66" s="0" t="s">
+        <x:v>202</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="67" spans="1:9">
+      <x:c r="A67" s="0" t="n">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="B67" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C67" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="D67" s="0" t="n">
+        <x:v>112.982</x:v>
+      </x:c>
+      <x:c r="E67" s="0" t="n">
+        <x:v>22.9193</x:v>
+      </x:c>
+      <x:c r="F67" s="0" t="s">
+        <x:v>168</x:v>
+      </x:c>
+      <x:c r="G67" s="0" t="s">
+        <x:v>203</x:v>
+      </x:c>
+      <x:c r="H67" s="0" t="n">
+        <x:v>226</x:v>
+      </x:c>
+      <x:c r="I67" s="0" t="s">
+        <x:v>204</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="68" spans="1:9">
+      <x:c r="A68" s="0" t="n">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="B68" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C68" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="D68" s="0" t="n">
+        <x:v>112.982</x:v>
+      </x:c>
+      <x:c r="E68" s="0" t="n">
+        <x:v>22.9193</x:v>
+      </x:c>
+      <x:c r="F68" s="0" t="s">
+        <x:v>168</x:v>
+      </x:c>
+      <x:c r="G68" s="0" t="s">
+        <x:v>205</x:v>
+      </x:c>
+      <x:c r="H68" s="0" t="n">
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="I68" s="0" t="s">
+        <x:v>206</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="69" spans="1:9">
+      <x:c r="A69" s="0" t="n">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="B69" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C69" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="D69" s="0" t="n">
+        <x:v>112.982</x:v>
+      </x:c>
+      <x:c r="E69" s="0" t="n">
+        <x:v>22.9193</x:v>
+      </x:c>
+      <x:c r="F69" s="0" t="s">
+        <x:v>168</x:v>
+      </x:c>
+      <x:c r="G69" s="0" t="s">
+        <x:v>207</x:v>
+      </x:c>
+      <x:c r="H69" s="0" t="n">
+        <x:v>168</x:v>
+      </x:c>
+      <x:c r="I69" s="0" t="s">
+        <x:v>208</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="70" spans="1:9">
+      <x:c r="A70" s="0" t="n">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="B70" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C70" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="D70" s="0" t="n">
+        <x:v>112.982</x:v>
+      </x:c>
+      <x:c r="E70" s="0" t="n">
+        <x:v>22.9193</x:v>
+      </x:c>
+      <x:c r="F70" s="0" t="s">
+        <x:v>168</x:v>
+      </x:c>
+      <x:c r="G70" s="0" t="s">
+        <x:v>209</x:v>
+      </x:c>
+      <x:c r="H70" s="0" t="n">
+        <x:v>321</x:v>
+      </x:c>
+      <x:c r="I70" s="0" t="s">
+        <x:v>210</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="71" spans="1:9">
+      <x:c r="A71" s="0" t="n">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="B71" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C71" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="D71" s="0" t="n">
+        <x:v>112.982</x:v>
+      </x:c>
+      <x:c r="E71" s="0" t="n">
+        <x:v>22.9193</x:v>
+      </x:c>
+      <x:c r="F71" s="0" t="s">
+        <x:v>168</x:v>
+      </x:c>
+      <x:c r="G71" s="0" t="s">
+        <x:v>211</x:v>
+      </x:c>
+      <x:c r="H71" s="0" t="n">
+        <x:v>915</x:v>
+      </x:c>
+      <x:c r="I71" s="0" t="s">
+        <x:v>212</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="72" spans="1:9">
+      <x:c r="A72" s="0" t="n">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="B72" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C72" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="D72" s="0" t="n">
+        <x:v>112.982</x:v>
+      </x:c>
+      <x:c r="E72" s="0" t="n">
+        <x:v>22.9193</x:v>
+      </x:c>
+      <x:c r="F72" s="0" t="s">
+        <x:v>168</x:v>
+      </x:c>
+      <x:c r="G72" s="0" t="s">
+        <x:v>213</x:v>
+      </x:c>
+      <x:c r="H72" s="0" t="n">
+        <x:v>1036</x:v>
+      </x:c>
+      <x:c r="I72" s="0" t="s">
+        <x:v>214</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="73" spans="1:9">
+      <x:c r="A73" s="0" t="n">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="B73" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C73" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="D73" s="0" t="n">
+        <x:v>112.982</x:v>
+      </x:c>
+      <x:c r="E73" s="0" t="n">
+        <x:v>22.9193</x:v>
+      </x:c>
+      <x:c r="F73" s="0" t="s">
+        <x:v>168</x:v>
+      </x:c>
+      <x:c r="G73" s="0" t="s">
+        <x:v>215</x:v>
+      </x:c>
+      <x:c r="H73" s="0" t="n">
+        <x:v>153</x:v>
+      </x:c>
+      <x:c r="I73" s="0" t="s">
+        <x:v>216</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="74" spans="1:9">
+      <x:c r="A74" s="0" t="n">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="B74" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C74" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="D74" s="0" t="n">
+        <x:v>112.982</x:v>
+      </x:c>
+      <x:c r="E74" s="0" t="n">
+        <x:v>22.9193</x:v>
+      </x:c>
+      <x:c r="F74" s="0" t="s">
+        <x:v>168</x:v>
+      </x:c>
+      <x:c r="G74" s="0" t="s">
+        <x:v>217</x:v>
+      </x:c>
+      <x:c r="H74" s="0" t="n">
+        <x:v>271</x:v>
+      </x:c>
+      <x:c r="I74" s="0" t="s">
+        <x:v>218</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="75" spans="1:9">
+      <x:c r="A75" s="0" t="n">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="B75" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C75" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="D75" s="0" t="n">
+        <x:v>112.982</x:v>
+      </x:c>
+      <x:c r="E75" s="0" t="n">
+        <x:v>22.9193</x:v>
+      </x:c>
+      <x:c r="F75" s="0" t="s">
+        <x:v>168</x:v>
+      </x:c>
+      <x:c r="G75" s="0" t="s">
+        <x:v>219</x:v>
+      </x:c>
+      <x:c r="H75" s="0" t="n">
+        <x:v>1008</x:v>
+      </x:c>
+      <x:c r="I75" s="0" t="s">
+        <x:v>220</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="76" spans="1:9">
+      <x:c r="A76" s="0" t="n">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="B76" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C76" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="D76" s="0" t="n">
+        <x:v>112.982</x:v>
+      </x:c>
+      <x:c r="E76" s="0" t="n">
+        <x:v>22.9193</x:v>
+      </x:c>
+      <x:c r="F76" s="0" t="s">
+        <x:v>168</x:v>
+      </x:c>
+      <x:c r="G76" s="0" t="s">
+        <x:v>221</x:v>
+      </x:c>
+      <x:c r="H76" s="0" t="n">
+        <x:v>915</x:v>
+      </x:c>
+      <x:c r="I76" s="0" t="s">
+        <x:v>222</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="77" spans="1:9">
+      <x:c r="A77" s="0" t="n">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="B77" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C77" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="D77" s="0" t="n">
+        <x:v>112.982</x:v>
+      </x:c>
+      <x:c r="E77" s="0" t="n">
+        <x:v>22.9193</x:v>
+      </x:c>
+      <x:c r="F77" s="0" t="s">
+        <x:v>168</x:v>
+      </x:c>
+      <x:c r="G77" s="0" t="s">
+        <x:v>223</x:v>
+      </x:c>
+      <x:c r="H77" s="0" t="n">
+        <x:v>181</x:v>
+      </x:c>
+      <x:c r="I77" s="0" t="s">
+        <x:v>224</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="78" spans="1:9">
+      <x:c r="A78" s="0" t="n">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="B78" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C78" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="D78" s="0" t="n">
+        <x:v>112.982</x:v>
+      </x:c>
+      <x:c r="E78" s="0" t="n">
+        <x:v>22.9193</x:v>
+      </x:c>
+      <x:c r="F78" s="0" t="s">
+        <x:v>168</x:v>
+      </x:c>
+      <x:c r="G78" s="0" t="s">
+        <x:v>225</x:v>
+      </x:c>
+      <x:c r="H78" s="0" t="n">
+        <x:v>558</x:v>
+      </x:c>
+      <x:c r="I78" s="0" t="s">
+        <x:v>226</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="79" spans="1:9">
+      <x:c r="A79" s="0" t="n">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="B79" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C79" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="D79" s="0" t="n">
+        <x:v>112.982</x:v>
+      </x:c>
+      <x:c r="E79" s="0" t="n">
+        <x:v>22.9193</x:v>
+      </x:c>
+      <x:c r="F79" s="0" t="s">
+        <x:v>168</x:v>
+      </x:c>
+      <x:c r="G79" s="0" t="s">
+        <x:v>227</x:v>
+      </x:c>
+      <x:c r="H79" s="0" t="n">
+        <x:v>870</x:v>
+      </x:c>
+      <x:c r="I79" s="0" t="s">
+        <x:v>228</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="80" spans="1:9">
+      <x:c r="A80" s="0" t="n">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="B80" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C80" s="0" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="D80" s="0" t="n">
+        <x:v>112.982</x:v>
+      </x:c>
+      <x:c r="E80" s="0" t="n">
+        <x:v>22.9193</x:v>
+      </x:c>
+      <x:c r="F80" s="0" t="s">
+        <x:v>229</x:v>
+      </x:c>
+      <x:c r="G80" s="0" t="s">
+        <x:v>230</x:v>
+      </x:c>
+      <x:c r="H80" s="0" t="n">
+        <x:v>399</x:v>
+      </x:c>
+      <x:c r="I80" s="0" t="s">
+        <x:v>231</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="81" spans="1:9">
+      <x:c r="A81" s="0" t="n">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="B81" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C81" s="0" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="D81" s="0" t="n">
+        <x:v>112.982</x:v>
+      </x:c>
+      <x:c r="E81" s="0" t="n">
+        <x:v>22.9193</x:v>
+      </x:c>
+      <x:c r="F81" s="0" t="s">
+        <x:v>232</x:v>
+      </x:c>
+      <x:c r="G81" s="0" t="s">
+        <x:v>233</x:v>
+      </x:c>
+      <x:c r="H81" s="0" t="n">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="I81" s="0" t="s">
+        <x:v>234</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="82" spans="1:9">
+      <x:c r="A82" s="0" t="n">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="B82" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C82" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="D82" s="0" t="n">
+        <x:v>112.982</x:v>
+      </x:c>
+      <x:c r="E82" s="0" t="n">
+        <x:v>22.9193</x:v>
+      </x:c>
+      <x:c r="F82" s="0" t="s">
+        <x:v>235</x:v>
+      </x:c>
+      <x:c r="G82" s="0" t="s">
+        <x:v>236</x:v>
+      </x:c>
+      <x:c r="H82" s="0" t="n">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="I82" s="0" t="s">
+        <x:v>237</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="83" spans="1:9">
+      <x:c r="A83" s="0" t="n">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="B83" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C83" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="D83" s="0" t="n">
+        <x:v>112.982</x:v>
+      </x:c>
+      <x:c r="E83" s="0" t="n">
+        <x:v>22.9193</x:v>
+      </x:c>
+      <x:c r="F83" s="0" t="s">
+        <x:v>168</x:v>
+      </x:c>
+      <x:c r="G83" s="0" t="s">
+        <x:v>238</x:v>
+      </x:c>
+      <x:c r="H83" s="0" t="n">
+        <x:v>258</x:v>
+      </x:c>
+      <x:c r="I83" s="0" t="s">
+        <x:v>239</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="84" spans="1:9">
+      <x:c r="A84" s="0" t="n">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="B84" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C84" s="0" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="D84" s="0" t="n">
+        <x:v>112.982</x:v>
+      </x:c>
+      <x:c r="E84" s="0" t="n">
+        <x:v>22.9193</x:v>
+      </x:c>
+      <x:c r="F84" s="0" t="s">
+        <x:v>232</x:v>
+      </x:c>
+      <x:c r="G84" s="0" t="s">
+        <x:v>240</x:v>
+      </x:c>
+      <x:c r="H84" s="0" t="n">
+        <x:v>153</x:v>
+      </x:c>
+      <x:c r="I84" s="0" t="s">
+        <x:v>241</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="85" spans="1:9">
+      <x:c r="A85" s="0" t="n">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="B85" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C85" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="D85" s="0" t="n">
+        <x:v>112.982</x:v>
+      </x:c>
+      <x:c r="E85" s="0" t="n">
+        <x:v>22.9193</x:v>
+      </x:c>
+      <x:c r="F85" s="0" t="s">
+        <x:v>235</x:v>
+      </x:c>
+      <x:c r="G85" s="0" t="s">
+        <x:v>242</x:v>
+      </x:c>
+      <x:c r="H85" s="0" t="n">
+        <x:v>200</x:v>
+      </x:c>
+      <x:c r="I85" s="0" t="s">
+        <x:v>243</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="86" spans="1:9">
+      <x:c r="A86" s="0" t="n">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="B86" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C86" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="D86" s="0" t="n">
+        <x:v>112.982</x:v>
+      </x:c>
+      <x:c r="E86" s="0" t="n">
+        <x:v>22.9193</x:v>
+      </x:c>
+      <x:c r="F86" s="0" t="s">
+        <x:v>244</x:v>
+      </x:c>
+      <x:c r="G86" s="0" t="s">
+        <x:v>245</x:v>
+      </x:c>
+      <x:c r="H86" s="0" t="n">
+        <x:v>411</x:v>
+      </x:c>
+      <x:c r="I86" s="0" t="s">
+        <x:v>246</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="87" spans="1:9">
+      <x:c r="A87" s="0" t="n">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="B87" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C87" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="D87" s="0" t="n">
+        <x:v>112.982</x:v>
+      </x:c>
+      <x:c r="E87" s="0" t="n">
+        <x:v>22.9193</x:v>
+      </x:c>
+      <x:c r="F87" s="0" t="s">
+        <x:v>168</x:v>
+      </x:c>
+      <x:c r="G87" s="0" t="s">
+        <x:v>247</x:v>
+      </x:c>
+      <x:c r="H87" s="0" t="n">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="I87" s="0" t="s">
+        <x:v>248</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="88" spans="1:9">
+      <x:c r="A88" s="0" t="n">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="B88" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C88" s="0" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="D88" s="0" t="n">
+        <x:v>112.982</x:v>
+      </x:c>
+      <x:c r="E88" s="0" t="n">
+        <x:v>22.9193</x:v>
+      </x:c>
+      <x:c r="F88" s="0" t="s">
+        <x:v>232</x:v>
+      </x:c>
+      <x:c r="G88" s="0" t="s">
+        <x:v>249</x:v>
+      </x:c>
+      <x:c r="H88" s="0" t="n">
+        <x:v>147</x:v>
+      </x:c>
+      <x:c r="I88" s="0" t="s">
+        <x:v>250</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="89" spans="1:9">
+      <x:c r="A89" s="0" t="n">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="B89" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C89" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="D89" s="0" t="n">
+        <x:v>112.982</x:v>
+      </x:c>
+      <x:c r="E89" s="0" t="n">
+        <x:v>22.9193</x:v>
+      </x:c>
+      <x:c r="F89" s="0" t="s">
+        <x:v>168</x:v>
+      </x:c>
+      <x:c r="G89" s="0" t="s">
+        <x:v>251</x:v>
+      </x:c>
+      <x:c r="H89" s="0" t="n">
+        <x:v>209</x:v>
+      </x:c>
+      <x:c r="I89" s="0" t="s">
+        <x:v>252</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="90" spans="1:9">
+      <x:c r="A90" s="0" t="n">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="B90" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C90" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="D90" s="0" t="n">
+        <x:v>112.982</x:v>
+      </x:c>
+      <x:c r="E90" s="0" t="n">
+        <x:v>22.9193</x:v>
+      </x:c>
+      <x:c r="F90" s="0" t="s">
+        <x:v>235</x:v>
+      </x:c>
+      <x:c r="G90" s="0" t="s">
+        <x:v>253</x:v>
+      </x:c>
+      <x:c r="H90" s="0" t="n">
+        <x:v>205</x:v>
+      </x:c>
+      <x:c r="I90" s="0" t="s">
+        <x:v>254</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="91" spans="1:9">
+      <x:c r="A91" s="0" t="n">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="B91" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C91" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="D91" s="0" t="n">
+        <x:v>112.982</x:v>
+      </x:c>
+      <x:c r="E91" s="0" t="n">
+        <x:v>22.9193</x:v>
+      </x:c>
+      <x:c r="F91" s="0" t="s">
+        <x:v>244</x:v>
+      </x:c>
+      <x:c r="G91" s="0" t="s">
+        <x:v>255</x:v>
+      </x:c>
+      <x:c r="H91" s="0" t="n">
+        <x:v>384</x:v>
+      </x:c>
+      <x:c r="I91" s="0" t="s">
+        <x:v>256</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="92" spans="1:9">
+      <x:c r="A92" s="0" t="n">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="B92" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C92" s="0" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="D92" s="0" t="n">
+        <x:v>112.982</x:v>
+      </x:c>
+      <x:c r="E92" s="0" t="n">
+        <x:v>22.9193</x:v>
+      </x:c>
+      <x:c r="F92" s="0" t="s">
+        <x:v>257</x:v>
+      </x:c>
+      <x:c r="G92" s="0" t="s">
+        <x:v>258</x:v>
+      </x:c>
+      <x:c r="H92" s="0" t="n">
+        <x:v>623</x:v>
+      </x:c>
+      <x:c r="I92" s="0" t="s">
+        <x:v>259</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="93" spans="1:9">
+      <x:c r="A93" s="0" t="n">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="B93" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C93" s="0" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="D93" s="0" t="n">
+        <x:v>112.982</x:v>
+      </x:c>
+      <x:c r="E93" s="0" t="n">
+        <x:v>22.9193</x:v>
+      </x:c>
+      <x:c r="F93" s="0" t="s">
+        <x:v>229</x:v>
+      </x:c>
+      <x:c r="G93" s="0" t="s">
+        <x:v>260</x:v>
+      </x:c>
+      <x:c r="H93" s="0" t="n">
+        <x:v>873</x:v>
+      </x:c>
+      <x:c r="I93" s="0" t="s">
+        <x:v>261</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="94" spans="1:9">
+      <x:c r="A94" s="0" t="n">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="B94" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C94" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="D94" s="0" t="n">
+        <x:v>112.982</x:v>
+      </x:c>
+      <x:c r="E94" s="0" t="n">
+        <x:v>22.9193</x:v>
+      </x:c>
+      <x:c r="F94" s="0" t="s">
+        <x:v>168</x:v>
+      </x:c>
+      <x:c r="G94" s="0" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="H94" s="0" t="n">
+        <x:v>1637</x:v>
+      </x:c>
+      <x:c r="I94" s="0" t="s">
+        <x:v>263</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="95" spans="1:9">
+      <x:c r="A95" s="0" t="n">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="B95" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C95" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="D95" s="0" t="n">
+        <x:v>112.982</x:v>
+      </x:c>
+      <x:c r="E95" s="0" t="n">
+        <x:v>22.9193</x:v>
+      </x:c>
+      <x:c r="F95" s="0" t="s">
+        <x:v>168</x:v>
+      </x:c>
+      <x:c r="G95" s="0" t="s">
+        <x:v>264</x:v>
+      </x:c>
+      <x:c r="H95" s="0" t="n">
+        <x:v>1007</x:v>
+      </x:c>
+      <x:c r="I95" s="0" t="s">
+        <x:v>265</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="96" spans="1:9">
+      <x:c r="A96" s="0" t="n">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="B96" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C96" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="D96" s="0" t="n">
+        <x:v>112.982</x:v>
+      </x:c>
+      <x:c r="E96" s="0" t="n">
+        <x:v>22.9193</x:v>
+      </x:c>
+      <x:c r="F96" s="0" t="s">
+        <x:v>244</x:v>
+      </x:c>
+      <x:c r="G96" s="0" t="s">
+        <x:v>266</x:v>
+      </x:c>
+      <x:c r="H96" s="0" t="n">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="I96" s="0" t="s">
+        <x:v>267</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="97" spans="1:9">
+      <x:c r="A97" s="0" t="n">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="B97" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C97" s="0" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="D97" s="0" t="n">
+        <x:v>112.982</x:v>
+      </x:c>
+      <x:c r="E97" s="0" t="n">
+        <x:v>22.9193</x:v>
+      </x:c>
+      <x:c r="F97" s="0" t="s">
+        <x:v>229</x:v>
+      </x:c>
+      <x:c r="G97" s="0" t="s">
+        <x:v>268</x:v>
+      </x:c>
+      <x:c r="H97" s="0" t="n">
+        <x:v>273</x:v>
+      </x:c>
+      <x:c r="I97" s="0" t="s">
+        <x:v>269</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="98" spans="1:9">
+      <x:c r="A98" s="0" t="n">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="B98" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C98" s="0" t="s">
+        <x:v>270</x:v>
+      </x:c>
+      <x:c r="D98" s="0" t="n">
+        <x:v>112.982</x:v>
+      </x:c>
+      <x:c r="E98" s="0" t="n">
+        <x:v>22.9193</x:v>
+      </x:c>
+      <x:c r="F98" s="0" t="s">
+        <x:v>271</x:v>
+      </x:c>
+      <x:c r="G98" s="0" t="s">
+        <x:v>272</x:v>
+      </x:c>
+      <x:c r="H98" s="0" t="n">
+        <x:v>1934</x:v>
+      </x:c>
+      <x:c r="I98" s="0" t="s">
+        <x:v>273</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="99" spans="1:9">
+      <x:c r="A99" s="0" t="n">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="B99" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C99" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="D99" s="0" t="n">
+        <x:v>112.982</x:v>
+      </x:c>
+      <x:c r="E99" s="0" t="n">
+        <x:v>22.9193</x:v>
+      </x:c>
+      <x:c r="F99" s="0" t="s">
+        <x:v>274</x:v>
+      </x:c>
+      <x:c r="G99" s="0" t="s">
+        <x:v>275</x:v>
+      </x:c>
+      <x:c r="H99" s="0" t="n">
+        <x:v>216</x:v>
+      </x:c>
+      <x:c r="I99" s="0" t="s">
+        <x:v>276</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="100" spans="1:9">
+      <x:c r="A100" s="0" t="n">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="B100" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C100" s="0" t="s">
+        <x:v>270</x:v>
+      </x:c>
+      <x:c r="D100" s="0" t="n">
+        <x:v>112.982</x:v>
+      </x:c>
+      <x:c r="E100" s="0" t="n">
+        <x:v>22.9193</x:v>
+      </x:c>
+      <x:c r="F100" s="0" t="s">
+        <x:v>277</x:v>
+      </x:c>
+      <x:c r="G100" s="0" t="s">
+        <x:v>278</x:v>
+      </x:c>
+      <x:c r="H100" s="0" t="n">
+        <x:v>208</x:v>
+      </x:c>
+      <x:c r="I100" s="0" t="s">
+        <x:v>279</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="101" spans="1:9">
+      <x:c r="A101" s="0" t="n">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="B101" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C101" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="D101" s="0" t="n">
+        <x:v>112.982</x:v>
+      </x:c>
+      <x:c r="E101" s="0" t="n">
+        <x:v>22.9193</x:v>
+      </x:c>
+      <x:c r="F101" s="0" t="s">
+        <x:v>274</x:v>
+      </x:c>
+      <x:c r="G101" s="0" t="s">
+        <x:v>280</x:v>
+      </x:c>
+      <x:c r="H101" s="0" t="n">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="I101" s="0" t="s">
+        <x:v>281</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="102" spans="1:9">
+      <x:c r="A102" s="0" t="n">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="B102" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C102" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="D102" s="0" t="n">
+        <x:v>112.982</x:v>
+      </x:c>
+      <x:c r="E102" s="0" t="n">
+        <x:v>22.9193</x:v>
+      </x:c>
+      <x:c r="F102" s="0" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="G102" s="0" t="s">
+        <x:v>282</x:v>
+      </x:c>
+      <x:c r="H102" s="0" t="n">
+        <x:v>776</x:v>
+      </x:c>
+      <x:c r="I102" s="0" t="s">
+        <x:v>283</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="103" spans="1:9">
+      <x:c r="A103" s="0" t="n">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="B103" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C103" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="D103" s="0" t="n">
+        <x:v>112.982</x:v>
+      </x:c>
+      <x:c r="E103" s="0" t="n">
+        <x:v>22.9193</x:v>
+      </x:c>
+      <x:c r="F103" s="0" t="s">
+        <x:v>168</x:v>
+      </x:c>
+      <x:c r="G103" s="0" t="s">
+        <x:v>284</x:v>
+      </x:c>
+      <x:c r="H103" s="0" t="n">
+        <x:v>1720</x:v>
+      </x:c>
+      <x:c r="I103" s="0" t="s">
+        <x:v>285</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="104" spans="1:9">
+      <x:c r="A104" s="0" t="n">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="B104" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C104" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="D104" s="0" t="n">
+        <x:v>112.982</x:v>
+      </x:c>
+      <x:c r="E104" s="0" t="n">
+        <x:v>22.9193</x:v>
+      </x:c>
+      <x:c r="F104" s="0" t="s">
+        <x:v>244</x:v>
+      </x:c>
+      <x:c r="G104" s="0" t="s">
+        <x:v>286</x:v>
+      </x:c>
+      <x:c r="H104" s="0" t="n">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="I104" s="0" t="s">
+        <x:v>287</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>

--- a/uploads/data.xlsx
+++ b/uploads/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="274" count="274">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="59" count="59">
   <x:si>
     <x:t>id</x:t>
   </x:si>
@@ -43,841 +43,1006 @@
     <x:t>datetime</x:t>
   </x:si>
   <x:si>
-    <x:t>广东省佛山市南海区西樵镇西樵山西樵山风景名胜区</x:t>
+    <x:t>河北省深圳市涪城许街h座</x:t>
+  </x:si>
+  <x:si>
+    <x:t>苹果健康</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[{"name":"苹果健康","value":0.00017873001070256578},{"name":"苹果黑星病一般","value":0.000010266488459365064},{"name":"玉米锈病一般","value":0.000006817222697463876},{"name":"玉米锈病严重","value":0.000010591988086616766},{"name":"葡萄健康","value":0.000005244349310373764},{"name":"葡萄黑腐病一般","value":0.00000695524491334254},{"name":"葡萄黑腐病严重","value":0.000002003465660038728},{"name":"苹果黑星病严重","value":0.000027452625772639294},{"name":"桃健康","value":99.87145066261292},{"name":"桃疮痂病一般","value":0.12301651295274496},{"name":"桃疮痂病严重","value":0.0028121972718508914},{"name":"辣椒健康","value":0.00008054007025748433},{"name":"辣椒疮痂病一般","value":0.00020228012544976082},{"name":"辣椒疮痂病严重","value":0.000009343831663954916},{"name":"马铃薯健康","value":0.000011222118700970896},{"name":"马铃薯早疫病一般","value":0.000005377006218054703},{"name":"马铃薯早疫病严重","value":3.482444332902901e-7},{"name":"草莓健康","value":0.0000163976054068371},{"name":"草莓叶枯病一般","value":0.0000174701483501849},{"name":"草莓叶枯病严重","value":0.00005821581225973205},{"name":"番茄健康","value":0.000007500157295226018},{"name":"未识别到植物","value":0.0012858508853241801},{"name":"番茄叶斑病一般","value":0.000040271856960316654},{"name":"番茄叶斑病严重","value":0.000011522306664346615},{"name":"樱桃健康","value":0.000017880944369608187},{"name":"樱桃白粉病一般","value":0.0002556189883762272},{"name":"樱桃白粉病严重","value":0.00008934689503803384},{"name":"玉米健康","value":0.00036062917843082687}]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>file-1688022820163-499345057.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>吉林省南昌县朝阳梧州街r座</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>辽宁省乌鲁木齐县滨城杨路m座</x:t>
+  </x:si>
+  <x:si>
+    <x:t>玉米锈病一般</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>天津市桂香市清浦张路f座</x:t>
+  </x:si>
+  <x:si>
+    <x:t>草莓健康</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>山东省香港县山亭黄街r座</x:t>
+  </x:si>
+  <x:si>
+    <x:t>葡萄健康</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>陕西省杰县和平孟街V座</x:t>
+  </x:si>
+  <x:si>
+    <x:t>番茄叶斑病一般</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>四川省婷市长寿通辽路W座</x:t>
+  </x:si>
+  <x:si>
+    <x:t>苹果黑星病一般</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>台湾省哈尔滨县海陵李路t座</x:t>
+  </x:si>
+  <x:si>
+    <x:t>辣椒健康</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>山西省汕尾县和平六安街W座</x:t>
+  </x:si>
+  <x:si>
+    <x:t>马铃薯健康</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>北京市太原县大东郑路k座</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>福建省鑫县东丽银川街x座</x:t>
+  </x:si>
+  <x:si>
+    <x:t>辣椒疮痂病一般</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>内蒙古自治区佳县秀英杨路X座</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>福建省大冶县和平萧街d座</x:t>
+  </x:si>
+  <x:si>
+    <x:t>草莓叶枯病严重</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>河北省淑兰市淄川海口路X座</x:t>
+  </x:si>
+  <x:si>
+    <x:t>樱桃健康</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>海南省哈尔滨市怀柔邯郸路v座</x:t>
   </x:si>
   <x:si>
     <x:t>桃健康</x:t>
   </x:si>
   <x:si>
-    <x:t>[{"name":"苹果健康","value":0.00017873001070256578},{"name":"苹果黑星病一般","value":0.000010266488459365064},{"name":"玉米锈病一般","value":0.000006817222697463876},{"name":"玉米锈病严重","value":0.000010591988086616766},{"name":"葡萄健康","value":0.000005244349310373764},{"name":"葡萄黑腐病一般","value":0.00000695524491334254},{"name":"葡萄黑腐病严重","value":0.000002003465660038728},{"name":"苹果黑星病严重","value":0.000027452625772639294},{"name":"桃健康","value":99.87145066261292},{"name":"桃疮痂病一般","value":0.12301651295274496},{"name":"桃疮痂病严重","value":0.0028121972718508914},{"name":"辣椒健康","value":0.00008054007025748433},{"name":"辣椒疮痂病一般","value":0.00020228012544976082},{"name":"辣椒疮痂病严重","value":0.000009343831663954916},{"name":"马铃薯健康","value":0.000011222118700970896},{"name":"马铃薯早疫病一般","value":0.000005377006218054703},{"name":"马铃薯早疫病严重","value":3.482444332902901e-7},{"name":"草莓健康","value":0.0000163976054068371},{"name":"草莓叶枯病一般","value":0.0000174701483501849},{"name":"草莓叶枯病严重","value":0.00005821581225973205},{"name":"番茄健康","value":0.000007500157295226018},{"name":"未识别到植物","value":0.0012858508853241801},{"name":"番茄叶斑病一般","value":0.000040271856960316654},{"name":"番茄叶斑病严重","value":0.000011522306664346615},{"name":"樱桃健康","value":0.000017880944369608187},{"name":"樱桃白粉病一般","value":0.0002556189883762272},{"name":"樱桃白粉病严重","value":0.00008934689503803384},{"name":"玉米健康","value":0.00036062917843082687}]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>file-1688022820163-499345057.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>辣椒疮痂病一般</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[{"name":"苹果健康","value":0.0010542705240368377},{"name":"苹果黑星病一般","value":0.013875456352252513},{"name":"玉米锈病一般","value":0.0024876444513211027},{"name":"玉米锈病严重","value":0.00071587774073123},{"name":"葡萄健康","value":0.000472509054816328},{"name":"葡萄黑腐病一般","value":0.00020292779936426086},{"name":"葡萄黑腐病严重","value":0.0060216272686375305},{"name":"苹果黑星病严重","value":0.004544827243080363},{"name":"桃健康","value":0.042931578354910016},{"name":"桃疮痂病一般","value":0.03258136275690049},{"name":"桃疮痂病严重","value":0.002100695201079361},{"name":"辣椒健康","value":0.0012107467227906454},{"name":"辣椒疮痂病一般","value":61.06540560722351},{"name":"辣椒疮痂病严重","value":38.815146684646606},{"name":"马铃薯健康","value":0.0016653293641866185},{"name":"马铃薯早疫病一般","value":0.0010846311852219515},{"name":"马铃薯早疫病严重","value":0.00007990703352334094},{"name":"草莓健康","value":0.000491315267936443},{"name":"草莓叶枯病一般","value":0.0009684629731054883},{"name":"草莓叶枯病严重","value":0.0002125081664416939},{"name":"番茄健康","value":0.00004335786343290238},{"name":"未识别到植物","value":0.0027687137844623066},{"name":"番茄叶斑病一般","value":0.0011907402040378656},{"name":"番茄叶斑病严重","value":0.000855234611663036},{"name":"樱桃健康","value":0.0002214105961684254},{"name":"樱桃白粉病一般","value":0.0010330079021514393},{"name":"樱桃白粉病严重","value":0.00013718215541302925},{"name":"玉米健康","value":0.0004954273208568338}]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>file-1688022820162-958699876.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>四川省建县长寿李街E座</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>山东省岩市西夏常路b座</x:t>
   </x:si>
   <x:si>
     <x:t>番茄健康</x:t>
   </x:si>
   <x:si>
-    <x:t>[{"name":"苹果健康","value":0.05729171680286527},{"name":"苹果黑星病一般","value":0.4997551441192627},{"name":"玉米锈病一般","value":0.022324267774820328},{"name":"玉米锈病严重","value":0.012790628534276038},{"name":"葡萄健康","value":0.0006622064120165305},{"name":"葡萄黑腐病一般","value":0.012491963570937514},{"name":"葡萄黑腐病严重","value":0.001601619806024246},{"name":"苹果黑星病严重","value":0.07233364740386605},{"name":"桃健康","value":0.4019366577267647},{"name":"桃疮痂病一般","value":0.5743934772908688},{"name":"桃疮痂病严重","value":0.032024961546994746},{"name":"辣椒健康","value":0.18399108666926622},{"name":"辣椒疮痂病一般","value":3.410177305340767},{"name":"辣椒疮痂病严重","value":0.056780147133395076},{"name":"马铃薯健康","value":0.016263159341178834},{"name":"马铃薯早疫病一般","value":0.028086412930861115},{"name":"马铃薯早疫病严重","value":0.0019642600818770006},{"name":"草莓健康","value":0.02427686849841848},{"name":"草莓叶枯病一般","value":0.018839102995116264},{"name":"草莓叶枯病严重","value":0.002768742160697002},{"name":"番茄健康","value":93.69291067123413},{"name":"未识别到植物","value":0.008321235509356484},{"name":"番茄叶斑病一般","value":0.35379945766180754},{"name":"番茄叶斑病严重","value":0.04392463306430727},{"name":"樱桃健康","value":0.01111167948693037},{"name":"樱桃白粉病一般","value":0.08959326078183949},{"name":"樱桃白粉病严重","value":0.3274511778727174},{"name":"玉米健康","value":0.0421329663367942}]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>file-1688022820165-843001231.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>苹果黑星病一般</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[{"name":"苹果健康","value":0.00034906554446934024},{"name":"苹果黑星病一般","value":99.89703893661499},{"name":"玉米锈病一般","value":0.00046969144023023546},{"name":"玉米锈病严重","value":0.000005217038534510721},{"name":"葡萄健康","value":0.0003889428626280278},{"name":"葡萄黑腐病一般","value":0.000055634177442698274},{"name":"葡萄黑腐病严重","value":0.000017106093253005383},{"name":"苹果黑星病严重","value":0.08938494720496237},{"name":"桃健康","value":0.000016679206282788073},{"name":"桃疮痂病一般","value":0.0018555845599621534},{"name":"桃疮痂病严重","value":0.000012531930337900121},{"name":"辣椒健康","value":0.0000022636228891315113},{"name":"辣椒疮痂病一般","value":0.009772655903361738},{"name":"辣椒疮痂病严重","value":0.00007697129262851377},{"name":"马铃薯健康","value":2.1102475322720693e-7},{"name":"马铃薯早疫病一般","value":0.000029718705718551064},{"name":"马铃薯早疫病严重","value":0.0000023089921086238974},{"name":"草莓健康","value":0.000020186769233987434},{"name":"草莓叶枯病一般","value":0.0000030510630466551447},{"name":"草莓叶枯病严重","value":4.41986558463725e-8},{"name":"番茄健康","value":7.329184370519215e-7},{"name":"未识别到植物","value":0.000004029383759984739},{"name":"番茄叶斑病一般","value":0.00003486567266008933},{"name":"番茄叶斑病严重","value":0.0000010439362263525709},{"name":"樱桃健康","value":0.0004309033101890236},{"name":"樱桃白粉病一般","value":0.00001111315768298482},{"name":"樱桃白粉病严重","value":0.000008371676329943512},{"name":"玉米健康","value":0.000004357928773401909}]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>file-1688022820167-839386374.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>山东省乌鲁木齐县高明栗街w座</x:t>
+  </x:si>
+  <x:si>
+    <x:t>樱桃白粉病一般</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>澳门特别行政区淑英县闵行姚路P座</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>河北省西宁县江北西安街M座</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>青海省淮安县江北赵路D座</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>福建省福州市清浦海门路z座</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>吉林省冬梅县门头沟潮州路z座</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>新疆维吾尔自治区乌鲁木齐市闵行长春路F座</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>福建省兴城市海陵周街i座</x:t>
+  </x:si>
+  <x:si>
+    <x:t>马铃薯早疫病严重</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>新疆维吾尔自治区重庆市友好李街K座</x:t>
+  </x:si>
+  <x:si>
+    <x:t>葡萄黑腐病严重</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>澳门特别行政区宁县南溪嘉禾路l座</x:t>
+  </x:si>
+  <x:si>
+    <x:t>桃疮痂病一般</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>辽宁省澳门市秀英辽阳路K座</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>香港特别行政区桂花市南溪任街E座</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>山西省呼和浩特市浔阳刘街t座</x:t>
+  </x:si>
+  <x:si>
+    <x:t>玉米健康</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>北京市六盘水市清浦东莞路L座</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>河北省丽丽市长寿李路K座</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>黑龙江省梧州市永川武汉路H座</x:t>
+  </x:si>
+  <x:si>
+    <x:t>樱桃白粉病严重</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>河南省深圳市永川张路z座</x:t>
+  </x:si>
+  <x:si>
+    <x:t>辣椒疮痂病严重</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>澳门特别行政区雪市蓟州宁德路v座</x:t>
+  </x:si>
+  <x:si>
+    <x:t>玉米锈病严重</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>辽宁省玉梅市丰都王路W座</x:t>
+  </x:si>
+  <x:si>
+    <x:t>未识别到植物</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>台湾省澳门县山亭郭路K座</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>湖北省南昌市翔安巢湖街s座</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>吉林省萍市长寿拉萨路g座</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>内蒙古自治区长沙县南长沈阳街X座</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>澳门特别行政区汕尾县南长阮街d座</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>新疆维吾尔自治区兰州县普陀通辽街N座</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>河南省玉英市清城兴安盟路k座</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>黑龙江省惠州县新城顾路v座</x:t>
+  </x:si>
+  <x:si>
+    <x:t>葡萄黑腐病一般</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>广东省梧州市平山方路C座</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>海南省金凤县东城边路d座</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>云南省福州县长寿叶街n座</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>新疆维吾尔自治区惠州市兴山永安路z座</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>湖北省畅县清城郑街J座</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>台湾省洋县清浦陈街N座</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>台湾省荆门市海陵朱街A座</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>天津市淑珍县和平台北街C座</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>台湾省杨县新城朴路M座</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>贵州省郑州市牧野大冶路N座</x:t>
+  </x:si>
+  <x:si>
+    <x:t>苹果黑星病严重</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>新疆维吾尔自治区深圳市龙潭辛集街B座</x:t>
   </x:si>
   <x:si>
     <x:t>草莓叶枯病一般</x:t>
   </x:si>
   <x:si>
-    <x:t>[{"name":"苹果健康","value":4.262765251894507e-7},{"name":"苹果黑星病一般","value":0.000004640412143430694},{"name":"玉米锈病一般","value":0.0009218902960128617},{"name":"玉米锈病严重","value":0.00011672794926198549},{"name":"葡萄健康","value":6.209057268335982e-7},{"name":"葡萄黑腐病一般","value":0.000014178017693211586},{"name":"葡萄黑腐病严重","value":0.00010015262432716554},{"name":"苹果黑星病严重","value":0.000008422316710721134},{"name":"桃健康","value":0.0000015749995085911905},{"name":"桃疮痂病一般","value":0.0000530866032022459},{"name":"桃疮痂病严重","value":0.0000075655222531167965},{"name":"辣椒健康","value":1.9666934747419873e-7},{"name":"辣椒疮痂病一般","value":0.00003404160509035137},{"name":"辣椒疮痂病严重","value":0.00000569431009012078},{"name":"马铃薯健康","value":0.000002511849572783831},{"name":"马铃薯早疫病一般","value":0.00007562802579741401},{"name":"马铃薯早疫病严重","value":0.000010937267092003822},{"name":"草莓健康","value":0.00021229377580311848},{"name":"草莓叶枯病一般","value":99.77348446846008},{"name":"草莓叶枯病严重","value":0.2247462049126625},{"name":"番茄健康","value":0.00000324514211058613},{"name":"未识别到植物","value":0.000011006257949475184},{"name":"番茄叶斑病一般","value":0.00005946507712906168},{"name":"番茄叶斑病严重","value":0.000008958117092561224},{"name":"樱桃健康","value":6.952381781388794e-7},{"name":"樱桃白粉病一般","value":0.00010077658316731686},{"name":"樱桃白粉病严重","value":0.000009167631986883862},{"name":"玉米健康","value":0.000008326611578013399}]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>file-1688022820163-467523931.JPG</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>番茄叶斑病一般</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[{"name":"苹果健康","value":0.000021989244203268754},{"name":"苹果黑星病一般","value":0.0005542977305594832},{"name":"玉米锈病一般","value":0.000482015275338199},{"name":"玉米锈病严重","value":0.00024999160359584494},{"name":"葡萄健康","value":0.00007443581466759497},{"name":"葡萄黑腐病一般","value":0.00008178890311683062},{"name":"葡萄黑腐病严重","value":0.0002380691284997738},{"name":"苹果黑星病严重","value":0.00030919252367311856},{"name":"桃健康","value":0.0038924801629036665},{"name":"桃疮痂病一般","value":0.025730737252160907},{"name":"桃疮痂病严重","value":0.00039794299482309725},{"name":"辣椒健康","value":0.0002509820205887081},{"name":"辣椒疮痂病一般","value":0.05081766867078841},{"name":"辣椒疮痂病严重","value":0.007849896792322397},{"name":"马铃薯健康","value":0.0012592222446983214},{"name":"马铃薯早疫病一般","value":0.0028301601560087875},{"name":"马铃薯早疫病严重","value":0.00012607266626218916},{"name":"草莓健康","value":0.00015020767705209437},{"name":"草莓叶枯病一般","value":0.0027477266485220753},{"name":"草莓叶枯病严重","value":0.000067620243271449},{"name":"番茄健康","value":0.00026134525796805974},{"name":"未识别到植物","value":0.000060543999325091136},{"name":"番茄叶斑病一般","value":73.02305102348328},{"name":"番茄叶斑病严重","value":26.878121495246887},{"name":"樱桃健康","value":0.00016004719327611383},{"name":"樱桃白粉病一般","value":0.000039105674431993975},{"name":"樱桃白粉病严重","value":0.00015906807675492018},{"name":"玉米健康","value":0.000014043526164186915}]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>file-1688022820166-251135096.JPG</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>辣椒健康</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[{"name":"苹果健康","value":0.000055292957767960615},{"name":"苹果黑星病一般","value":0.00007868234206398483},{"name":"玉米锈病一般","value":0.000028718619660139666},{"name":"玉米锈病严重","value":0.000014737155140664981},{"name":"葡萄健康","value":0.00013638865539178369},{"name":"葡萄黑腐病一般","value":0.000019898347147773165},{"name":"葡萄黑腐病严重","value":0.00000286443970765049},{"name":"苹果黑星病严重","value":0.000022157790624532936},{"name":"桃健康","value":0.2567657735198736},{"name":"桃疮痂病一般","value":0.0021303625544533134},{"name":"桃疮痂病严重","value":0.000022802876742389344},{"name":"辣椒健康","value":97.22160696983337},{"name":"辣椒疮痂病一般","value":2.513072080910206},{"name":"辣椒疮痂病严重","value":0.00038073330870247446},{"name":"马铃薯健康","value":0.00032985540201480035},{"name":"马铃薯早疫病一般","value":0.00006403405450328137},{"name":"马铃薯早疫病严重","value":0.0000011022197377030807},{"name":"草莓健康","value":0.0001652145328989718},{"name":"草莓叶枯病一般","value":0.000007535142998449373},{"name":"草莓叶枯病严重","value":0.000006126641238779484},{"name":"番茄健康","value":0.0029152561182854697},{"name":"未识别到植物","value":0.00006555020490850438},{"name":"番茄叶斑病一般","value":0.0004213383363094181},{"name":"番茄叶斑病严重","value":0.00000227210374958986},{"name":"樱桃健康","value":0.00001021515458887734},{"name":"樱桃白粉病一般","value":0.0011732868188119028},{"name":"樱桃白粉病严重","value":0.0001063592208083719},{"name":"玉米健康","value":0.00039164538065961096}]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>file-1688022820188-868959342.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[{"name":"苹果健康","value":0.0028678536182269454},{"name":"苹果黑星病一般","value":0.33622090704739094},{"name":"玉米锈病一般","value":0.053149787709116936},{"name":"玉米锈病严重","value":0.031139171915128827},{"name":"葡萄健康","value":0.550096808001399},{"name":"葡萄黑腐病一般","value":0.00028842939627793385},{"name":"葡萄黑腐病严重","value":0.00046231320993683767},{"name":"苹果黑星病严重","value":0.012429855996742845},{"name":"桃健康","value":13.063700497150421},{"name":"桃疮痂病一般","value":0.04078815400134772},{"name":"桃疮痂病严重","value":0.008960812556324527},{"name":"辣椒健康","value":0.17680664313957095},{"name":"辣椒疮痂病一般","value":51.9478976726532},{"name":"辣椒疮痂病严重","value":0.32305505592375994},{"name":"马铃薯健康","value":32.52548277378082},{"name":"马铃薯早疫病一般","value":0.07225323934108019},{"name":"马铃薯早疫病严重","value":0.0007185613867477514},{"name":"草莓健康","value":0.039345474215224385},{"name":"草莓叶枯病一般","value":0.0011520964108058251},{"name":"草莓叶枯病严重","value":0.00016932038988670683},{"name":"番茄健康","value":0.040507304947823286},{"name":"未识别到植物","value":0.042689318070188165},{"name":"番茄叶斑病一般","value":0.6705481093376875},{"name":"番茄叶斑病严重","value":0.016205970314331353},{"name":"樱桃健康","value":0.013897512690164149},{"name":"樱桃白粉病一般","value":0.012544800119940192},{"name":"樱桃白粉病严重","value":0.002271818812005222},{"name":"玉米健康","value":0.014350513811223209}]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>file-1688022820189-891170016.JPG</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>海南省佳县牧野田路k座</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>海南省张家港市沙市王路L座</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>西藏自治区六安市和平卢路q座</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>海南省嘉禾县清河李路c座</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>宁夏回族自治区济南县华龙北京街j座</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>山东省辽阳县平山东莞路p座</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>广东省石家庄县锡山马鞍山街U座</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>台湾省洁县南湖长沙街j座</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>江西省勇县吉区拉萨街i座</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>安徽省东莞市上街汕尾路V座</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>辽宁省瑜县山亭合肥路D座</x:t>
+  </x:si>
+  <x:si>
+    <x:t>马铃薯早疫病一般</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>安徽省秀英县闵行安路Z座</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>澳门特别行政区淮安市东城张家港街O座</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>重庆市台北市合川朱街J座</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>广东省雪梅市崇文王路n座</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>江西省南昌县兴山六盘水路G座</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>甘肃省北京县秀英兴城路c座</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>宁夏回族自治区莉市龙潭杭州路x座</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>山东省莉市西夏周路K座</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>广东省慧县金平海口路n座</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>河南省汕尾市清浦丁路z座</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>云南省梅市闵行哈尔滨街q座</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>青海省通辽县西夏广州路D座</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>福建省南宁县高明魏街D座</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>陕西省马鞍山市高港贵阳路Y座</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>甘肃省淮安县高坪蔡路q座</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>香港特别行政区强市门头沟蓝街q座</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>新疆维吾尔自治区琴市西夏刘街k座</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>安徽省莹市蓟州高街X座</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>云南省娟县清浦刘街p座</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>重庆市鑫市城东海口街w座</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>香港特别行政区福州县魏都王街I座</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>宁夏回族自治区坤县魏都郑州街E座</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>江西省静县梁平张家港街p座</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>天津市东莞县海陵何路B座</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>江西省惠州县友好通辽街C座</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>甘肃省桂珍县黄浦孙路d座</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>香港特别行政区玉梅县六枝特曹路W座</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>内蒙古自治区岩县沙市南宁街S座</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>浙江省柳市和平潮州街P座</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>广西壮族自治区沈阳市花溪太原街T座</x:t>
   </x:si>
   <x:si>
     <x:t>番茄叶斑病严重</x:t>
   </x:si>
   <x:si>
-    <x:t>[{"name":"苹果健康","value":0.0003422325562496553},{"name":"苹果黑星病一般","value":0.0006424695584428264},{"name":"玉米锈病一般","value":0.0061243925301823765},{"name":"玉米锈病严重","value":0.034520303597673774},{"name":"葡萄健康","value":0.009162195783574134},{"name":"葡萄黑腐病一般","value":0.01229985209647566},{"name":"葡萄黑腐病严重","value":0.15430976636707783},{"name":"苹果黑星病严重","value":0.0076693751907441765},{"name":"桃健康","value":0.00313253840431571},{"name":"桃疮痂病一般","value":0.2969220979139209},{"name":"桃疮痂病严重","value":0.1225054613314569},{"name":"辣椒健康","value":0.006629794370383024},{"name":"辣椒疮痂病一般","value":0.09697413770481944},{"name":"辣椒疮痂病严重","value":2.024686336517334},{"name":"马铃薯健康","value":0.016343251627404243},{"name":"马铃薯早疫病一般","value":0.046231294982135296},{"name":"马铃薯早疫病严重","value":0.3392439801245928},{"name":"草莓健康","value":0.0003468584736765479},{"name":"草莓叶枯病一般","value":0.0845254398882389},{"name":"草莓叶枯病严重","value":0.030446011805906892},{"name":"番茄健康","value":0.0011815111065516248},{"name":"未识别到植物","value":0.012531812535598874},{"name":"番茄叶斑病一般","value":0.32629964407533407},{"name":"番茄叶斑病严重","value":96.35207056999207},{"name":"樱桃健康","value":0.0003886909780703718},{"name":"樱桃白粉病一般","value":0.0017653590475674719},{"name":"樱桃白粉病严重","value":0.01215776865137741},{"name":"玉米健康","value":0.0005443242571345763}]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>file-1688022820189-660149523.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>葡萄黑腐病严重</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[{"name":"苹果健康","value":0.000007864485240816066},{"name":"苹果黑星病一般","value":0.000001807240934681431},{"name":"玉米锈病一般","value":0.000024005555587791605},{"name":"玉米锈病严重","value":0.000028494201842477196},{"name":"葡萄健康","value":0.00003010721343343903},{"name":"葡萄黑腐病一般","value":0.00034899753700301517},{"name":"葡萄黑腐病严重","value":99.99112486839294},{"name":"苹果黑星病严重","value":0.0003202829702786403},{"name":"桃健康","value":0.000009981884119270035},{"name":"桃疮痂病一般","value":0.00008453616828774102},{"name":"桃疮痂病严重","value":0.0000033036879898418192},{"name":"辣椒健康","value":0.000003590112740425866},{"name":"辣椒疮痂病一般","value":0.000020051768956363958},{"name":"辣椒疮痂病严重","value":0.00018845761360353208},{"name":"马铃薯健康","value":0.0000033463962267887837},{"name":"马铃薯早疫病一般","value":0.0000049512145494645665},{"name":"马铃薯早疫病严重","value":0.00006143952191450808},{"name":"草莓健康","value":0.0000059616461101086315},{"name":"草莓叶枯病一般","value":0.006515778659377247},{"name":"草莓叶枯病严重","value":0.0006583640242752153},{"name":"番茄健康","value":0.000002452209635350755},{"name":"未识别到植物","value":0.0002616789288367727},{"name":"番茄叶斑病一般","value":0.0000975782882051135},{"name":"番茄叶斑病严重","value":0.000042915954168165626},{"name":"樱桃健康","value":0.000004392410346554243},{"name":"樱桃白粉病一般","value":0.0000315555496399611},{"name":"樱桃白粉病严重","value":0.000006176768607701888},{"name":"玉米健康","value":0.00010837302397703752}]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>file-1688022820189-527604198.JPG</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[{"name":"苹果健康","value":0.0036313849705038592},{"name":"苹果黑星病一般","value":0.07019347394816577},{"name":"玉米锈病一般","value":0.011017316865036264},{"name":"玉米锈病严重","value":0.010212004417553544},{"name":"葡萄健康","value":0.0012297750799916685},{"name":"葡萄黑腐病一般","value":0.0006467839284596266},{"name":"葡萄黑腐病严重","value":0.001418960982846329},{"name":"苹果黑星病严重","value":0.010113216558238491},{"name":"桃健康","value":6.889239698648453},{"name":"桃疮痂病一般","value":0.09710081503726542},{"name":"桃疮痂病严重","value":0.009983852214645594},{"name":"辣椒健康","value":0.1313783577643335},{"name":"辣椒疮痂病一般","value":91.10198020935059},{"name":"辣椒疮痂病严重","value":1.3859421946108341},{"name":"马铃薯健康","value":0.015804557187948376},{"name":"马铃薯早疫病一般","value":0.07194848149083555},{"name":"马铃薯早疫病严重","value":0.0004764862296724459},{"name":"草莓健康","value":0.024096113338600844},{"name":"草莓叶枯病一般","value":0.0037944460927974433},{"name":"草莓叶枯病严重","value":0.0002300149844813859},{"name":"番茄健康","value":0.0026676874767872505},{"name":"未识别到植物","value":0.08198792347684503},{"name":"番茄叶斑病一般","value":0.03354762447997928},{"name":"番茄叶斑病严重","value":0.0029535411158576608},{"name":"樱桃健康","value":0.0005333655280992389},{"name":"樱桃白粉病一般","value":0.025715166702866554},{"name":"樱桃白粉病严重","value":0.00455454683105927},{"name":"玉米健康","value":0.007601622201036662}]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>file-1688022820190-771912027.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Thu Jun 29 2023 07:13:42 GMT+0800 (台北标准时间)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>樱桃白粉病一般</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[{"name":"苹果健康","value":0.0012799378055206034},{"name":"苹果黑星病一般","value":0.0035075965570285916},{"name":"玉米锈病一般","value":0.0006765350462956121},{"name":"玉米锈病严重","value":0.000019210865787044895},{"name":"葡萄健康","value":0.0005160396995051997},{"name":"葡萄黑腐病一般","value":0.000013990592151458259},{"name":"葡萄黑腐病严重","value":0.000002713312419189151},{"name":"苹果黑星病严重","value":0.0006061473413865315},{"name":"桃健康","value":0.00102387703009299},{"name":"桃疮痂病一般","value":0.015988900850061327},{"name":"桃疮痂病严重","value":0.00030172050173860043},{"name":"辣椒健康","value":0.009919202420860529},{"name":"辣椒疮痂病一般","value":0.00024285182007588446},{"name":"辣椒疮痂病严重","value":6.203590974251938e-7},{"name":"马铃薯健康","value":0.0019911058188881725},{"name":"马铃薯早疫病一般","value":0.00007646424364793347},{"name":"马铃薯早疫病严重","value":0.0000020855773996686366},{"name":"草莓健康","value":0.0003123392389170476},{"name":"草莓叶枯病一般","value":0.000020594120542227756},{"name":"草莓叶枯病严重","value":0.000005294190330573656},{"name":"番茄健康","value":0.0001247160525963409},{"name":"未识别到植物","value":0.000055974726365093375},{"name":"番茄叶斑病一般","value":0.0003445047241257271},{"name":"番茄叶斑病严重","value":0.0000017487263193061153},{"name":"樱桃健康","value":0.000050042018528984045},{"name":"樱桃白粉病一般","value":99.71826076507568},{"name":"樱桃白粉病严重","value":0.2437450224533677},{"name":"玉米健康","value":0.0009125145879806951}]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>file-1688022820189-146507626.JPG</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Thu Jun 29 2023 07:13:42 GMT+0800 (台北标准时间)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>苹果健康</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[{"name":"苹果健康","value":95.54334282875061},{"name":"苹果黑星病一般","value":0.30449707992374897},{"name":"玉米锈病一般","value":0.0034930435504065827},{"name":"玉米锈病严重","value":0.006250516162253916},{"name":"葡萄健康","value":0.37532688584178686},{"name":"葡萄黑腐病一般","value":0.008587279444327578},{"name":"葡萄黑腐病严重","value":0.0017813646991271526},{"name":"苹果黑星病严重","value":0.05806858534924686},{"name":"桃健康","value":1.977459341287613},{"name":"桃疮痂病一般","value":0.2180927200242877},{"name":"桃疮痂病严重","value":0.30047132167965174},{"name":"辣椒健康","value":0.08879783563315868},{"name":"辣椒疮痂病一般","value":0.018037165864370763},{"name":"辣椒疮痂病严重","value":0.0030332637834362686},{"name":"马铃薯健康","value":0.006359582766890526},{"name":"马铃薯早疫病一般","value":0.009670709550846368},{"name":"马铃薯早疫病严重","value":0.0035012497392017394},{"name":"草莓健康","value":0.3326311241835356},{"name":"草莓叶枯病一般","value":0.0057673078117659315},{"name":"草莓叶枯病严重","value":0.005088704347144812},{"name":"番茄健康","value":0.15141634503379464},{"name":"未识别到植物","value":0.01202054918394424},{"name":"番茄叶斑病一般","value":0.15398886753246188},{"name":"番茄叶斑病严重","value":0.23379202466458082},{"name":"樱桃健康","value":0.01188811584142968},{"name":"樱桃白粉病一般","value":0.021837936947122216},{"name":"樱桃白粉病严重","value":0.042732738074846566},{"name":"玉米健康","value":0.10206714505329728}]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>file-1688022820221-918587094.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Thu Jun 29 2023 07:13:42 GMT+0800 (台北标准时间)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>葡萄黑腐病一般</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[{"name":"苹果健康","value":0.0006400660367944511},{"name":"苹果黑星病一般","value":0.0345314183505252},{"name":"玉米锈病一般","value":0.00007969156285980716},{"name":"玉米锈病严重","value":0.00003301569222458056},{"name":"葡萄健康","value":0.02325837849639356},{"name":"葡萄黑腐病一般","value":95.99584341049194},{"name":"葡萄黑腐病严重","value":3.9027858525514603},{"name":"苹果黑星病严重","value":0.02528828918002546},{"name":"桃健康","value":0.000017467655766267853},{"name":"桃疮痂病一般","value":0.009883235179586336},{"name":"桃疮痂病严重","value":0.00016701241065675276},{"name":"辣椒健康","value":0.000018785850386393577},{"name":"辣椒疮痂病一般","value":0.0013681198652193416},{"name":"辣椒疮痂病严重","value":0.00011715811751855654},{"name":"马铃薯健康","value":0.000003512171531383501},{"name":"马铃薯早疫病一般","value":0.0000787383442002465},{"name":"马铃薯早疫病严重","value":0.00002169236665849894},{"name":"草莓健康","value":0.00029378629733400885},{"name":"草莓叶枯病一般","value":0.00018560136822998174},{"name":"草莓叶枯病严重","value":0.0000198459275679852},{"name":"番茄健康","value":0.00013386902537604328},{"name":"未识别到植物","value":0.00009568487939759507},{"name":"番茄叶斑病一般","value":0.003993215432274155},{"name":"番茄叶斑病严重","value":0.0008249646270996891},{"name":"樱桃健康","value":0.00012471630270738387},{"name":"樱桃白粉病一般","value":0.000054687541251041694},{"name":"樱桃白粉病严重","value":0.00010676160400180379},{"name":"玉米健康","value":0.0000305447457549235}]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>file-1688022820221-946519835.JPG</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Thu Jun 29 2023 07:13:42 GMT+0800 (台北标准时间)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>樱桃健康</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[{"name":"苹果健康","value":0.00043832465053128544},{"name":"苹果黑星病一般","value":0.026517864898778498},{"name":"玉米锈病一般","value":0.0030139675800455734},{"name":"玉米锈病严重","value":0.0003507504288791097},{"name":"葡萄健康","value":0.00009940451946022222},{"name":"葡萄黑腐病一般","value":0.000007768763765625408},{"name":"葡萄黑腐病严重","value":0.000014388588454039564},{"name":"苹果黑星病严重","value":0.00022828844521427527},{"name":"桃健康","value":0.007936718611745164},{"name":"桃疮痂病一般","value":0.005989232522551902},{"name":"桃疮痂病严重","value":0.00034526142371760216},{"name":"辣椒健康","value":0.00019363430965313455},{"name":"辣椒疮痂病一般","value":0.019839084416162223},{"name":"辣椒疮痂病严重","value":0.0008027549483813345},{"name":"马铃薯健康","value":0.0012621258065337315},{"name":"马铃薯早疫病一般","value":0.000011874136163214644},{"name":"马铃薯早疫病严重","value":0.000008767470660586696},{"name":"草莓健康","value":0.002906963163695764},{"name":"草莓叶枯病一般","value":0.00023617715214641066},{"name":"草莓叶枯病严重","value":0.000023103912383248826},{"name":"番茄健康","value":0.00025419576559215784},{"name":"未识别到植物","value":0.000034773927382047987},{"name":"番茄叶斑病一般","value":0.0007646935046068393},{"name":"番茄叶斑病严重","value":0.00035032103369303513},{"name":"樱桃健康","value":99.92730617523193},{"name":"樱桃白粉病一般","value":0.000021602332367365307},{"name":"樱桃白粉病严重","value":0.000010966103047849174},{"name":"玉米健康","value":0.0010299083442077972}]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>file-1688022820222-74523931.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Thu Jun 29 2023 07:13:42 GMT+0800 (台北标准时间)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>樱桃白粉病严重</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[{"name":"苹果健康","value":0.0004853904101764783},{"name":"苹果黑星病一般","value":0.00030565483939426485},{"name":"玉米锈病一般","value":0.0000600477903844876},{"name":"玉米锈病严重","value":0.00012877882227257942},{"name":"葡萄健康","value":0.00002026927035103654},{"name":"葡萄黑腐病一般","value":0.000021085020307509694},{"name":"葡萄黑腐病严重","value":0.0000520610342391592},{"name":"苹果黑星病严重","value":0.004975708361598663},{"name":"桃健康","value":0.0001324147319792246},{"name":"桃疮痂病一般","value":0.0012882744158559944},{"name":"桃疮痂病严重","value":0.0008298498869407922},{"name":"辣椒健康","value":0.00029968377930345014},{"name":"辣椒疮痂病一般","value":0.00048065408009279054},{"name":"辣椒疮痂病严重","value":0.00013730559658142738},{"name":"马铃薯健康","value":0.00018332177660340676},{"name":"马铃薯早疫病一般","value":0.00035373766422708286},{"name":"马铃薯早疫病严重","value":0.000029912746413174318},{"name":"草莓健康","value":0.00005723322828998789},{"name":"草莓叶枯病一般","value":0.000257080660048814},{"name":"草莓叶枯病严重","value":0.00004526087877820828},{"name":"番茄健康","value":0.0006312519417406293},{"name":"未识别到植物","value":0.00003078467614159308},{"name":"番茄叶斑病一般","value":0.00019647361568786437},{"name":"番茄叶斑病严重","value":0.0003409224746064865},{"name":"樱桃健康","value":0.00002071826514793429},{"name":"樱桃白粉病一般","value":3.300829604268074},{"name":"樱桃白粉病严重","value":96.68722152709961},{"name":"玉米健康","value":0.0005862420948687941}]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>file-1688022820223-456549833.JPG</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Thu Jun 29 2023 07:13:42 GMT+0800 (台北标准时间)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[{"name":"苹果健康","value":0.00004215751516767341},{"name":"苹果黑星病一般","value":0.00017503683693576022},{"name":"玉米锈病一般","value":0.0006130639576440444},{"name":"玉米锈病严重","value":0.001946073280123528},{"name":"葡萄健康","value":0.00012400008699842147},{"name":"葡萄黑腐病一般","value":0.00004829507815884426},{"name":"葡萄黑腐病严重","value":0.0014637943422712851},{"name":"苹果黑星病严重","value":0.00221349091589218},{"name":"桃健康","value":0.0000903322927570116},{"name":"桃疮痂病一般","value":0.0007517649464716669},{"name":"桃疮痂病严重","value":0.0004098703357158229},{"name":"辣椒健康","value":0.000024039786694629584},{"name":"辣椒疮痂病一般","value":0.00016044164112827275},{"name":"辣椒疮痂病严重","value":0.0002514457491997746},{"name":"马铃薯健康","value":0.0006249044417927507},{"name":"马铃薯早疫病一般","value":0.005655266431858763},{"name":"马铃薯早疫病严重","value":0.013512009172700346},{"name":"草莓健康","value":0.0005956689165032003},{"name":"草莓叶枯病一般","value":84.59674715995789},{"name":"草莓叶枯病严重","value":15.370345115661621},{"name":"番茄健康","value":0.00001791265447081969},{"name":"未识别到植物","value":0.0005896538823435549},{"name":"番茄叶斑病一般","value":0.0006869853223179234},{"name":"番茄叶斑病严重","value":0.00106757352114073},{"name":"樱桃健康","value":0.00006871578079881147},{"name":"樱桃白粉病一般","value":0.001116468683903804},{"name":"樱桃白粉病严重","value":0.00012124302202209947},{"name":"玉米健康","value":0.0005402211627369979}]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>file-1688022820223-647223563.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Thu Jun 29 2023 07:13:42 GMT+0800 (台北标准时间)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>葡萄健康</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[{"name":"苹果健康","value":0.00021447356175485766},{"name":"苹果黑星病一般","value":0.000030380846283151186},{"name":"玉米锈病一般","value":0.00009927530300046783},{"name":"玉米锈病严重","value":0.00004747648176817165},{"name":"葡萄健康","value":99.98235702514648},{"name":"葡萄黑腐病一般","value":0.001511079699412221},{"name":"葡萄黑腐病严重","value":0.0004974019702785881},{"name":"苹果黑星病严重","value":0.00006292047487477248},{"name":"桃健康","value":0.0004995031758880941},{"name":"桃疮痂病一般","value":0.0007733226993877906},{"name":"桃疮痂病严重","value":0.0006783119260944659},{"name":"辣椒健康","value":0.000013305854906775494},{"name":"辣椒疮痂病一般","value":0.00006548384021698439},{"name":"辣椒疮痂病严重","value":0.000008283769403760743},{"name":"马铃薯健康","value":0.0002403078724455554},{"name":"马铃薯早疫病一般","value":0.000010887750079291436},{"name":"马铃薯早疫病严重","value":0.000003721164176795355},{"name":"草莓健康","value":0.009681184019427747},{"name":"草莓叶枯病一般","value":0.0001380105004500365},{"name":"草莓叶枯病严重","value":0.00002811904096233775},{"name":"番茄健康","value":0.00008973438525572419},{"name":"未识别到植物","value":0.000042780249032148276},{"name":"番茄叶斑病一般","value":0.0020150839191046543},{"name":"番茄叶斑病严重","value":0.0005817794772156049},{"name":"樱桃健康","value":0.00016039787169574993},{"name":"樱桃白粉病一般","value":0.0000899192968972784},{"name":"樱桃白粉病严重","value":0.000024520952024431608},{"name":"玉米健康","value":0.000035598074532572355}]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>file-1688022820223-699882672.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Thu Jun 29 2023 07:13:42 GMT+0800 (台北标准时间)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>苹果黑星病严重</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[{"name":"苹果健康","value":0.000012887065281574905},{"name":"苹果黑星病一般","value":0.006956324796192348},{"name":"玉米锈病一般","value":3.4871128207214497e-7},{"name":"玉米锈病严重","value":0.000004719652224594029},{"name":"葡萄健康","value":0.000006365854687828687},{"name":"葡萄黑腐病一般","value":0.000010755899637615585},{"name":"葡萄黑腐病严重","value":0.000017086424008994072},{"name":"苹果黑星病严重","value":99.99289512634277},{"name":"桃健康","value":2.958214340154086e-7},{"name":"桃疮痂病一般","value":0.000009411255774693927},{"name":"桃疮痂病严重","value":3.6646399248496664e-7},{"name":"辣椒健康","value":1.2923234704587117e-7},{"name":"辣椒疮痂病一般","value":0.0000020766330877108885},{"name":"辣椒疮痂病严重","value":0.0000036149543802821427},{"name":"马铃薯健康","value":4.3609329480887027e-7},{"name":"马铃薯早疫病一般","value":3.887468569274688e-7},{"name":"马铃薯早疫病严重","value":4.252335816801178e-7},{"name":"草莓健康","value":0.0000015740608816372514},{"name":"草莓叶枯病一般","value":0.0000040459514849544576},{"name":"草莓叶枯病严重","value":7.05220770669257e-7},{"name":"番茄健康","value":0.0000023672102500427172},{"name":"未识别到植物","value":0.000014706486695104104},{"name":"番茄叶斑病一般","value":0.000006874059721440062},{"name":"番茄叶斑病严重","value":0.000005336154274004912},{"name":"樱桃健康","value":1.8339597618322045e-7},{"name":"樱桃白粉病一般","value":0.0000012979731067730427},{"name":"樱桃白粉病严重","value":0.00003880471979300637},{"name":"玉米健康","value":0.000005354193177709021}]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>file-1688022820236-845468141.JPG</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Thu Jun 29 2023 07:13:42 GMT+0800 (台北标准时间)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>玉米健康</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[{"name":"苹果健康","value":0.00001261106916672361},{"name":"苹果黑星病一般","value":1.1060424798259305e-7},{"name":"玉米锈病一般","value":0.000003867697628834321},{"name":"玉米锈病严重","value":0.000026147594667236262},{"name":"葡萄健康","value":0.000002231772455729697},{"name":"葡萄黑腐病一般","value":1.7415514586005543e-7},{"name":"葡萄黑腐病严重","value":1.101026714245279e-7},{"name":"苹果黑星病严重","value":0.00005388566819419793},{"name":"桃健康","value":1.7634437243785328e-7},{"name":"桃疮痂病一般","value":0.0003743291472346755},{"name":"桃疮痂病严重","value":0.00007711262810516928},{"name":"辣椒健康","value":1.9886818580783228e-8},{"name":"辣椒疮痂病一般","value":5.713004513907549e-8},{"name":"辣椒疮痂病严重","value":9.051959182215796e-7},{"name":"马铃薯健康","value":0.000009009332302412076},{"name":"马铃薯早疫病一般","value":0.000001763654822184435},{"name":"马铃薯早疫病严重","value":0.0000015550906340422443},{"name":"草莓健康","value":0.00000432761915192259},{"name":"草莓叶枯病一般","value":0.00002086278527713148},{"name":"草莓叶枯病严重","value":0.00001378915328587027},{"name":"番茄健康","value":0.000004376331474986728},{"name":"未识别到植物","value":0.0007244648259074893},{"name":"番茄叶斑病一般","value":0.000003732413134116541},{"name":"番茄叶斑病严重","value":0.000024100879159050237},{"name":"樱桃健康","value":4.356154603701867e-8},{"name":"樱桃白粉病一般","value":0.00001860876324144556},{"name":"樱桃白粉病严重","value":0.0034855682315537706},{"name":"玉米健康","value":99.99513626098633}]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>file-1688022820237-429661039.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Thu Jun 29 2023 07:13:42 GMT+0800 (台北标准时间)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>file-1688022886061-494897341.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Thu Jun 29 2023 07:14:46 GMT+0800 (台北标准时间)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[{"name":"苹果健康","value":0.000046769417849645833},{"name":"苹果黑星病一般","value":0.0008488986168231349},{"name":"玉米锈病一般","value":0.0016340360161848366},{"name":"玉米锈病严重","value":0.0007039231149974512},{"name":"葡萄健康","value":0.01457300822949037},{"name":"葡萄黑腐病一般","value":16.022272408008575},{"name":"葡萄黑腐病严重","value":83.8651180267334},{"name":"苹果黑星病严重","value":0.0017239055523532443},{"name":"桃健康","value":0.00019527860786183737},{"name":"桃疮痂病一般","value":0.016454956494271755},{"name":"桃疮痂病严重","value":0.0003244198751417571},{"name":"辣椒健康","value":0.00037535296542046126},{"name":"辣椒疮痂病一般","value":0.0156089459778741},{"name":"辣椒疮痂病严重","value":0.011978574184468016},{"name":"马铃薯健康","value":0.00007540768933722575},{"name":"马铃薯早疫病一般","value":0.0038333066186169162},{"name":"马铃薯早疫病严重","value":0.0007461937912012218},{"name":"草莓健康","value":0.0004987089596397709},{"name":"草莓叶枯病一般","value":0.005952640640316531},{"name":"草莓叶枯病严重","value":0.00022636745597992558},{"name":"番茄健康","value":0.0011104934856120963},{"name":"未识别到植物","value":0.0009961322575691156},{"name":"番茄叶斑病一般","value":0.021452551300171763},{"name":"番茄叶斑病严重","value":0.012797091039828956},{"name":"樱桃健康","value":0.00007201417702162871},{"name":"樱桃白粉病一般","value":0.00018710487665885012},{"name":"樱桃白粉病严重","value":0.00014259691170082078},{"name":"玉米健康","value":0.00005047764943810762}]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>file-1688023407631-123986846.jpeg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Thu Jun 29 2023 07:23:27 GMT+0800 (台北标准时间)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[{"name":"苹果健康","value":0.34094268921762705},{"name":"苹果黑星病一般","value":1.1559431441128254},{"name":"玉米锈病一般","value":0.131555600091815},{"name":"玉米锈病严重","value":0.21650907583534718},{"name":"葡萄健康","value":4.774577170610428},{"name":"葡萄黑腐病一般","value":1.1350969783961773},{"name":"葡萄黑腐病严重","value":3.1098557636141777},{"name":"苹果黑星病严重","value":83.76235365867615},{"name":"桃健康","value":0.0038785085052950308},{"name":"桃疮痂病一般","value":0.4119384102523327},{"name":"桃疮痂病严重","value":0.02916670637205243},{"name":"辣椒健康","value":0.0018596530935610645},{"name":"辣椒疮痂病一般","value":0.043537080637179315},{"name":"辣椒疮痂病严重","value":0.061921041924506426},{"name":"马铃薯健康","value":0.01965435076272115},{"name":"马铃薯早疫病一般","value":0.0027260221031610854},{"name":"马铃薯早疫病严重","value":0.0036195935535943136},{"name":"草莓健康","value":0.061950599774718285},{"name":"草莓叶枯病一般","value":0.030051273643039167},{"name":"草莓叶枯病严重","value":0.01428628311259672},{"name":"番茄健康","value":0.03298389492556453},{"name":"未识别到植物","value":0.7427927106618881},{"name":"番茄叶斑病一般","value":2.6637742295861244},{"name":"番茄叶斑病严重","value":0.5604107398539782},{"name":"樱桃健康","value":0.07393115083687007},{"name":"樱桃白粉病一般","value":0.014961248962208629},{"name":"樱桃白粉病严重","value":0.2882392145693302},{"name":"玉米健康","value":0.3114843973889947}]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>file-1688023772221-980108095.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Thu Jun 29 2023 07:29:32 GMT+0800 (台北标准时间)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[{"name":"苹果健康","value":0.0007662644748052116},{"name":"苹果黑星病一般","value":0.0011067950254073367},{"name":"玉米锈病一般","value":0.000107403332094691},{"name":"玉米锈病严重","value":0.00579391053179279},{"name":"葡萄健康","value":0.009661664807936177},{"name":"葡萄黑腐病一般","value":0.08409222355112433},{"name":"葡萄黑腐病严重","value":0.06411581416614354},{"name":"苹果黑星病严重","value":0.15164236538112164},{"name":"桃健康","value":0.00019702736153703881},{"name":"桃疮痂病一般","value":0.001541044912301004},{"name":"桃疮痂病严重","value":0.0012551190593512729},{"name":"辣椒健康","value":0.0006231377028598217},{"name":"辣椒疮痂病一般","value":0.0020083167328266427},{"name":"辣椒疮痂病严重","value":0.008505500591127202},{"name":"马铃薯健康","value":0.003296261638752185},{"name":"马铃薯早疫病一般","value":0.0022254593204706907},{"name":"马铃薯早疫病严重","value":0.051603763131424785},{"name":"草莓健康","value":0.00032161058243218577},{"name":"草莓叶枯病一般","value":0.0022079733753344044},{"name":"草莓叶枯病严重","value":0.00141010214065318},{"name":"番茄健康","value":0.010269802442053333},{"name":"未识别到植物","value":0.012042060552630574},{"name":"番茄叶斑病一般","value":1.0764085687696934},{"name":"番茄叶斑病严重","value":98.4986662864685},{"name":"樱桃健康","value":0.0007564248790004058},{"name":"樱桃白粉病一般","value":0.00014796901268709917},{"name":"樱桃白粉病严重","value":0.008927103772293776},{"name":"玉米健康","value":0.00029733382689300925}]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>file-1688024854784-636832270.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Thu Jun 29 2023 07:47:34 GMT+0800 (台北标准时间)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[{"name":"苹果健康","value":0.0031449744710698724},{"name":"苹果黑星病一般","value":0.014020164962857962},{"name":"玉米锈病一般","value":0.004999568409402855},{"name":"玉米锈病严重","value":0.08731948910281062},{"name":"葡萄健康","value":3.4025683999061584},{"name":"葡萄黑腐病一般","value":3.5010188817977905},{"name":"葡萄黑腐病严重","value":1.0489082895219326},{"name":"苹果黑星病严重","value":0.26049085427075624},{"name":"桃健康","value":0.0016792595488368534},{"name":"桃疮痂病一般","value":0.04225464363116771},{"name":"桃疮痂病严重","value":0.0078168413892854},{"name":"辣椒健康","value":0.0758918933570385},{"name":"辣椒疮痂病一般","value":0.02490663027856499},{"name":"辣椒疮痂病严重","value":0.10242806747555733},{"name":"马铃薯健康","value":0.016496404714416713},{"name":"马铃薯早疫病一般","value":0.04034728044643998},{"name":"马铃薯早疫病严重","value":0.9516698308289051},{"name":"草莓健康","value":0.006080062667024322},{"name":"草莓叶枯病一般","value":0.047118571819737554},{"name":"草莓叶枯病严重","value":0.11712739942595363},{"name":"番茄健康","value":0.07621707045473158},{"name":"未识别到植物","value":0.019613276526797563},{"name":"番茄叶斑病一般","value":3.1627334654331207},{"name":"番茄叶斑病严重","value":86.8897795677185},{"name":"樱桃健康","value":0.016543093079235405},{"name":"樱桃白粉病一般","value":0.008738243923289701},{"name":"樱桃白粉病严重","value":0.06473949761129916},{"name":"玉米健康","value":0.005349521597963758}]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>file-1688024942723-879189697.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Thu Jun 29 2023 07:49:02 GMT+0800 (台北标准时间)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[{"name":"苹果健康","value":0.000001771566182640072},{"name":"苹果黑星病一般","value":0.00000191237123914334},{"name":"玉米锈病一般","value":0.0000049032863103093405},{"name":"玉米锈病严重","value":0.0000020773198272650006},{"name":"葡萄健康","value":99.99977946281433},{"name":"葡萄黑腐病一般","value":0.000004161303479577327},{"name":"葡萄黑腐病严重","value":0.000008093054049140846},{"name":"苹果黑星病严重","value":0.0000024945245868934762},{"name":"桃健康","value":0.000015326865820952662},{"name":"桃疮痂病一般","value":0.000007726459472223723},{"name":"桃疮痂病严重","value":0.000003591092934129847},{"name":"辣椒健康","value":0.0000014602409059705224},{"name":"辣椒疮痂病一般","value":0.0000037710226052922735},{"name":"辣椒疮痂病严重","value":1.7117258721555118e-7},{"name":"马铃薯健康","value":0.00003500927903132833},{"name":"马铃薯早疫病一般","value":6.801954111068653e-7},{"name":"马铃薯早疫病严重","value":3.2859008847196947e-7},{"name":"草莓健康","value":0.00002191002437257339},{"name":"草莓叶枯病一般","value":0.0000013018865097080834},{"name":"草莓叶枯病严重","value":3.9699861176245577e-7},{"name":"番茄健康","value":5.675232284119147e-7},{"name":"未识别到植物","value":0.0000031327683558401986},{"name":"番茄叶斑病一般","value":0.00007440998501806462},{"name":"番茄叶斑病严重","value":0.000006714564193543993},{"name":"樱桃健康","value":0.000012361624612822197},{"name":"樱桃白粉病一般","value":0.000003957587324521228},{"name":"樱桃白粉病严重","value":4.461181646320256e-7},{"name":"玉米健康","value":0.000004329844927042359}]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>file-1688046848747-157462196.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Thu Jun 29 2023 13:54:09 GMT+0800 (台北标准时间)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[{"name":"苹果健康","value":98.88560175895691},{"name":"苹果黑星病一般","value":1.0444621555507183},{"name":"玉米锈病一般","value":0.0022133577658678405},{"name":"玉米锈病严重","value":0.0000862566082560079},{"name":"葡萄健康","value":0.006683263200102374},{"name":"葡萄黑腐病一般","value":0.0001833333158174355},{"name":"葡萄黑腐病严重","value":0.0000376918876554555},{"name":"苹果黑星病严重","value":0.008721865742700174},{"name":"桃健康","value":0.00027574187697609887},{"name":"桃疮痂病一般","value":0.017876758647616953},{"name":"桃疮痂病严重","value":0.005997242988087237},{"name":"辣椒健康","value":0.0010878651664825156},{"name":"辣椒疮痂病一般","value":0.0003943613137380453},{"name":"辣椒疮痂病严重","value":0.000031185587090476474},{"name":"马铃薯健康","value":0.0008929990144679323},{"name":"马铃薯早疫病一般","value":0.00011784928801716887},{"name":"马铃薯早疫病严重","value":0.00009956614803741104},{"name":"草莓健康","value":0.009527891961624846},{"name":"草莓叶枯病一般","value":0.00004886841793450003},{"name":"草莓叶枯病严重","value":0.00003118215090580634},{"name":"番茄健康","value":0.0005497385700437007},{"name":"未识别到植物","value":0.0005100806447444484},{"name":"番茄叶斑病一般","value":0.0012059948858222924},{"name":"番茄叶斑病严重","value":0.00026004636310972273},{"name":"樱桃健康","value":0.004276256368029863},{"name":"樱桃白粉病一般","value":0.00022449576135841198},{"name":"樱桃白粉病严重","value":0.0007688312507525552},{"name":"玉米健康","value":0.00783522627898492}]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>file-1688046848751-380256663.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Thu Jun 29 2023 13:54:10 GMT+0800 (台北标准时间)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[{"name":"苹果健康","value":0.000013514689101157273},{"name":"苹果黑星病一般","value":0.00009875438991002738},{"name":"玉米锈病一般","value":0.0003978218501288211},{"name":"玉米锈病严重","value":0.00013435220580504392},{"name":"葡萄健康","value":0.0016865024008438922},{"name":"葡萄黑腐病一般","value":63.54014277458191},{"name":"葡萄黑腐病严重","value":36.44007742404938},{"name":"苹果黑星病严重","value":0.00015918608369247522},{"name":"桃健康","value":0.000039467357737521525},{"name":"桃疮痂病一般","value":0.0006368481535901083},{"name":"桃疮痂病严重","value":0.000006223237392077863},{"name":"辣椒健康","value":0.00035552327517507365},{"name":"辣椒疮痂病一般","value":0.007862888014642522},{"name":"辣椒疮痂病严重","value":0.0004071775038028136},{"name":"马铃薯健康","value":0.00000874625030178322},{"name":"马铃薯早疫病一般","value":0.0001823800289457722},{"name":"马铃薯早疫病严重","value":0.000013435463586120022},{"name":"草莓健康","value":0.00012359395213934476},{"name":"草莓叶枯病一般","value":0.0005962015166005585},{"name":"草莓叶枯病严重","value":0.000010242057868481425},{"name":"番茄健康","value":0.0011860581253131386},{"name":"未识别到植物","value":0.00019004725118065835},{"name":"番茄叶斑病一般","value":0.005371649967855774},{"name":"番茄叶斑病严重","value":0.00014988236216595396},{"name":"樱桃健康","value":0.000046273115117401176},{"name":"樱桃白粉病一般","value":0.00006743439371348359},{"name":"樱桃白粉病严重","value":0.000035102056017422},{"name":"玉米健康","value":0.000002898711848331459}]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>file-1688046848719-371685350.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Thu Jun 29 2023 13:54:09 GMT+0800 (台北标准时间)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[{"name":"苹果健康","value":0.0012089205483789556},{"name":"苹果黑星病一般","value":0.0008733046342968009},{"name":"玉米锈病一般","value":0.008947263268055394},{"name":"玉米锈病严重","value":0.06458095740526915},{"name":"葡萄健康","value":0.005920701005379669},{"name":"葡萄黑腐病一般","value":0.009310957830166444},{"name":"葡萄黑腐病严重","value":1.2091320008039474},{"name":"苹果黑星病严重","value":0.017479558300692588},{"name":"桃健康","value":0.0004824378265766427},{"name":"桃疮痂病一般","value":0.06329855532385409},{"name":"桃疮痂病严重","value":0.06905612535774708},{"name":"辣椒健康","value":0.00044341654756863136},{"name":"辣椒疮痂病一般","value":0.004157844887231477},{"name":"辣椒疮痂病严重","value":0.18616809975355864},{"name":"马铃薯健康","value":0.008884946146281436},{"name":"马铃薯早疫病一般","value":0.008405536209465936},{"name":"马铃薯早疫病严重","value":0.1268484629690647},{"name":"草莓健康","value":0.0005626704023597995},{"name":"草莓叶枯病一般","value":0.05966227618046105},{"name":"草莓叶枯病严重","value":0.09423923911526799},{"name":"番茄健康","value":0.0015250834621838294},{"name":"未识别到植物","value":0.05946684395894408},{"name":"番茄叶斑病一般","value":1.1644728481769562},{"name":"番茄叶斑病严重","value":96.82171940803528},{"name":"樱桃健康","value":0.0027389278329792432},{"name":"樱桃白粉病一般","value":0.0008921267180994619},{"name":"樱桃白粉病严重","value":0.0035779070458374918},{"name":"玉米健康","value":0.005940757182543166}]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>file-1688047202998-636418810.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Thu Jun 29 2023 14:00:04 GMT+0800 (台北标准时间)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>file-1688098439750-890130031.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fri Jun 30 2023 04:14:11 GMT+0800 (台北标准时间)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>file-1688098439744-55253641.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fri Jun 30 2023 04:14:12 GMT+0800 (台北标准时间)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>file-1688098439753-720876853.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fri Jun 30 2023 04:14:12 GMT+0800 (台北标准时间)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[{"name":"苹果健康","value":0.0050231381464982405},{"name":"苹果黑星病一般","value":0.001948497629200574},{"name":"玉米锈病一般","value":0.005325994789018296},{"name":"玉米锈病严重","value":0.05212368560023606},{"name":"葡萄健康","value":0.40674200281500816},{"name":"葡萄黑腐病一般","value":0.15665965620428324},{"name":"葡萄黑腐病严重","value":0.21284043323248625},{"name":"苹果黑星病严重","value":0.003983697752119042},{"name":"桃健康","value":0.004684991654357873},{"name":"桃疮痂病一般","value":0.38131552282720804},{"name":"桃疮痂病严重","value":0.19700790289789438},{"name":"辣椒健康","value":0.03285167331341654},{"name":"辣椒疮痂病一般","value":0.004144417107454501},{"name":"辣椒疮痂病严重","value":0.015383267600554973},{"name":"马铃薯健康","value":0.25683080311864614},{"name":"马铃薯早疫病一般","value":0.08472598274238408},{"name":"马铃薯早疫病严重","value":1.0845176875591278},{"name":"草莓健康","value":0.0030784216505708173},{"name":"草莓叶枯病一般","value":0.42619681917130947},{"name":"草莓叶枯病严重","value":4.088502377271652},{"name":"番茄健康","value":0.023622866137884557},{"name":"未识别到植物","value":0.05575183895416558},{"name":"番茄叶斑病一般","value":9.963726997375488},{"name":"番茄叶斑病严重","value":82.49983787536621},{"name":"樱桃健康","value":0.01397298910887912},{"name":"樱桃白粉病一般","value":0.009473488171352074},{"name":"樱桃白粉病严重","value":0.005868069638381712},{"name":"玉米健康","value":0.0038619218685198575}]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>file-1688111770299-136525101.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fri Jun 30 2023 07:56:12 GMT+0800 (台北标准时间)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[{"name":"苹果健康","value":0.005121093636262231},{"name":"苹果黑星病一般","value":0.0028578764613484964},{"name":"玉米锈病一般","value":0.05178700666874647},{"name":"玉米锈病严重","value":0.2605878049507737},{"name":"葡萄健康","value":0.11627189815044403},{"name":"葡萄黑腐病一般","value":0.05096437525935471},{"name":"葡萄黑腐病严重","value":0.8548090234398842},{"name":"苹果黑星病严重","value":0.028978902264498174},{"name":"桃健康","value":0.006180779746500775},{"name":"桃疮痂病一般","value":0.84907291457057},{"name":"桃疮痂病严重","value":0.8362466469407082},{"name":"辣椒健康","value":0.006761133408872411},{"name":"辣椒疮痂病一般","value":0.0070323840191122144},{"name":"辣椒疮痂病严重","value":0.13263090513646603},{"name":"马铃薯健康","value":0.13086131075397134},{"name":"马铃薯早疫病一般","value":0.017966548330150545},{"name":"马铃薯早疫病严重","value":0.09235845063813031},{"name":"草莓健康","value":0.005367819539969787},{"name":"草莓叶枯病一般","value":2.334405295550823},{"name":"草莓叶枯病严重","value":6.1106618493795395},{"name":"番茄健康","value":0.007326119521167129},{"name":"未识别到植物","value":0.39151469245553017},{"name":"番茄叶斑病一般","value":3.1070267781615257},{"name":"番茄叶斑病严重","value":84.46308970451355},{"name":"樱桃健康","value":0.016781270096544176},{"name":"樱桃白粉病一般","value":0.01778730802470818},{"name":"樱桃白粉病严重","value":0.02623356704134494},{"name":"玉米健康","value":0.06931439856998622}]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>file-1688112045354-948037763.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fri Jun 30 2023 08:00:48 GMT+0800 (台北标准时间)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[{"name":"苹果健康","value":0.000058399899671712774},{"name":"苹果黑星病一般","value":0.00002797495994855126},{"name":"玉米锈病一般","value":0.000262134881268139},{"name":"玉米锈病严重","value":0.005561122452490963},{"name":"葡萄健康","value":0.0037439342122524977},{"name":"葡萄黑腐病一般","value":0.002203378789999988},{"name":"葡萄黑腐病严重","value":0.3234892850741744},{"name":"苹果黑星病严重","value":0.00029483931029972155},{"name":"桃健康","value":0.00004531103172666917},{"name":"桃疮痂病一般","value":0.0030468179829767905},{"name":"桃疮痂病严重","value":0.009674854663899168},{"name":"辣椒健康","value":0.000022313423642117414},{"name":"辣椒疮痂病一般","value":0.00005505618787537969},{"name":"辣椒疮痂病严重","value":0.011237440776312724},{"name":"马铃薯健康","value":0.0039178295992314816},{"name":"马铃薯早疫病一般","value":0.0015166349840001203},{"name":"马铃薯早疫病严重","value":0.03386877360753715},{"name":"草莓健康","value":0.00003739675662473019},{"name":"草莓叶枯病一般","value":0.09194192825816572},{"name":"草莓叶枯病严重","value":0.07410640246234834},{"name":"番茄健康","value":0.00015352385389633127},{"name":"未识别到植物","value":0.0008357804290426429},{"name":"番茄叶斑病一般","value":0.2911548363044858},{"name":"番茄叶斑病严重","value":99.14213418960571},{"name":"樱桃健康","value":0.00027352343749953434},{"name":"樱桃白粉病一般","value":0.000026948066533805104},{"name":"樱桃白粉病严重","value":0.0001890168391582847},{"name":"玉米健康","value":0.00011889629831784987}]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>file-1688112486843-923991470.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fri Jun 30 2023 08:08:09 GMT+0800 (台北标准时间)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[{"name":"苹果健康","value":0.000026914892714557936},{"name":"苹果黑星病一般","value":0.00001612881277424094},{"name":"玉米锈病一般","value":0.00022827598513686098},{"name":"玉米锈病严重","value":0.005167674680706114},{"name":"葡萄健康","value":0.0019598350263549946},{"name":"葡萄黑腐病一般","value":0.0006469290838140296},{"name":"葡萄黑腐病严重","value":0.13413475826382637},{"name":"苹果黑星病严重","value":0.00022436438484874088},{"name":"桃健康","value":0.00003721158350344922},{"name":"桃疮痂病一般","value":0.001639723268453963},{"name":"桃疮痂病严重","value":0.008130870264722034},{"name":"辣椒健康","value":0.000013207234417222935},{"name":"辣椒疮痂病一般","value":0.00004253858492120344},{"name":"辣椒疮痂病严重","value":0.00873595563462004},{"name":"马铃薯健康","value":0.0026384228476672433},{"name":"马铃薯早疫病一般","value":0.0005660892838932341},{"name":"马铃薯早疫病严重","value":0.014558366092387587},{"name":"草莓健康","value":0.00003752790860289679},{"name":"草莓叶枯病一般","value":0.08831099257804453},{"name":"草莓叶枯病严重","value":0.08269041427411139},{"name":"番茄健康","value":0.00007970259048306616},{"name":"未识别到植物","value":0.00047408134378201794},{"name":"番茄叶斑病一般","value":0.18881196156144142},{"name":"番茄叶斑病严重","value":99.46032762527466},{"name":"樱桃健康","value":0.0002760091092568473},{"name":"樱桃白粉病一般","value":0.0000221659007593189},{"name":"樱桃白粉病严重","value":0.00013547740991270985},{"name":"玉米健康","value":0.00006743225640093442}]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>file-1688112488324-671958530.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fri Jun 30 2023 08:08:09 GMT+0800 (台北标准时间)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[{"name":"苹果健康","value":0.0000232211490924783},{"name":"苹果黑星病一般","value":0.000013459154502015735},{"name":"玉米锈病一般","value":0.0000784160931743827},{"name":"玉米锈病严重","value":0.0020046158169861883},{"name":"葡萄健康","value":0.002531422069296241},{"name":"葡萄黑腐病一般","value":0.0005673778105119709},{"name":"葡萄黑腐病严重","value":0.05785783287137747},{"name":"苹果黑星病严重","value":0.00013157057310309028},{"name":"桃健康","value":0.000025212918330907996},{"name":"桃疮痂病一般","value":0.0009440589565201662},{"name":"桃疮痂病严重","value":0.006678513454971835},{"name":"辣椒健康","value":0.000007537470025908988},{"name":"辣椒疮痂病一般","value":0.000018678400692806463},{"name":"辣椒疮痂病严重","value":0.0024751947421464138},{"name":"马铃薯健康","value":0.001788865301932674},{"name":"马铃薯早疫病一般","value":0.0003904656750819413},{"name":"马铃薯早疫病严重","value":0.011178804561495781},{"name":"草莓健康","value":0.00002557430605065747},{"name":"草莓叶枯病一般","value":0.04731991793960333},{"name":"草莓叶枯病严重","value":0.04036177706439048},{"name":"番茄健康","value":0.0000686796681748092},{"name":"未识别到植物","value":0.00035149855648342054},{"name":"番茄叶斑病一般","value":0.2307133749127388},{"name":"番茄叶斑病严重","value":99.59416389465332},{"name":"樱桃健康","value":0.00016178549913092866},{"name":"樱桃白粉病一般","value":0.000015370881101262057},{"name":"樱桃白粉病严重","value":0.00006509881131933071},{"name":"玉米健康","value":0.00003593865471884783}]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>file-1688112491088-924950561.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fri Jun 30 2023 08:08:12 GMT+0800 (台北标准时间)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[{"name":"苹果健康","value":0.000012539017291146592},{"name":"苹果黑星病一般","value":0.000010530105498673947},{"name":"玉米锈病一般","value":0.0000819140836938459},{"name":"玉米锈病严重","value":0.00256835191976279},{"name":"葡萄健康","value":0.0010219306204817258},{"name":"葡萄黑腐病一般","value":0.0001250561467713851},{"name":"葡萄黑腐病严重","value":0.04131013993173838},{"name":"苹果黑星病严重","value":0.0002370986067035119},{"name":"桃健康","value":0.00001712464694492155},{"name":"桃疮痂病一般","value":0.0004335408448241651},{"name":"桃疮痂病严重","value":0.003046220081159845},{"name":"辣椒健康","value":0.00000739295629159642},{"name":"辣椒疮痂病一般","value":0.000019941916207244503},{"name":"辣椒疮痂病严重","value":0.00797695538494736},{"name":"马铃薯健康","value":0.0030148823498166166},{"name":"马铃薯早疫病一般","value":0.0002537160071369726},{"name":"马铃薯早疫病严重","value":0.02059666148852557},{"name":"草莓健康","value":0.00001909946973910337},{"name":"草莓叶枯病一般","value":0.030654057627543807},{"name":"草莓叶枯病严重","value":0.05388020072132349},{"name":"番茄健康","value":0.00011563525958990795},{"name":"未识别到植物","value":0.00024775774818408536},{"name":"番茄叶斑病一般","value":0.15289464499801397},{"name":"番茄叶斑病严重","value":99.68108534812927},{"name":"樱桃健康","value":0.00017970976387005066},{"name":"樱桃白粉病一般","value":0.000010436443176331522},{"name":"樱桃白粉病严重","value":0.00011816547385024023},{"name":"玉米健康","value":0.00006339510605357646}]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>file-1688112494195-566147186.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fri Jun 30 2023 08:08:15 GMT+0800 (台北标准时间)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[{"name":"苹果健康","value":0.000017525727002976055},{"name":"苹果黑星病一般","value":0.000008698128795003868},{"name":"玉米锈病一般","value":0.00006587835628124594},{"name":"玉米锈病严重","value":0.0020559800759656355},{"name":"葡萄健康","value":0.0015158399946813006},{"name":"葡萄黑腐病一般","value":0.00018303602473679348},{"name":"葡萄黑腐病严重","value":0.03482970641925931},{"name":"苹果黑星病严重","value":0.00015993357465049485},{"name":"桃健康","value":0.0000138893270218432},{"name":"桃疮痂病一般","value":0.0003746063384824083},{"name":"桃疮痂病严重","value":0.002332902658963576},{"name":"辣椒健康","value":0.00000924753180697735},{"name":"辣椒疮痂病一般","value":0.000014546148463523423},{"name":"辣椒疮痂病严重","value":0.0050175178330391645},{"name":"马铃薯健康","value":0.003315990397823043},{"name":"马铃薯早疫病一般","value":0.00018047925323116942},{"name":"马铃薯早疫病严重","value":0.016041733033489436},{"name":"草莓健康","value":0.000019410175866596546},{"name":"草莓叶枯病一般","value":0.01620414259377867},{"name":"草莓叶枯病严重","value":0.043326400918886065},{"name":"番茄健康","value":0.00013876915545552038},{"name":"未识别到植物","value":0.0002688565018615918},{"name":"番茄叶斑病一般","value":0.17827092669904232},{"name":"番茄叶斑病严重","value":99.69531893730164},{"name":"樱桃健康","value":0.00016541565628358512},{"name":"樱桃白粉病一般","value":0.000008553168129310507},{"name":"樱桃白粉病严重","value":0.00008359585876860365},{"name":"玉米健康","value":0.000056586151231385884}]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>file-1688112497098-252206235.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fri Jun 30 2023 08:08:19 GMT+0800 (台北标准时间)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[{"name":"苹果健康","value":0.000018807318724611832},{"name":"苹果黑星病一般","value":0.000016992154883155308},{"name":"玉米锈病一般","value":0.00011210711363673909},{"name":"玉米锈病严重","value":0.0027179599783266895},{"name":"葡萄健康","value":0.001606404475751333},{"name":"葡萄黑腐病一般","value":0.0002389655264778412},{"name":"葡萄黑腐病严重","value":0.07754601538181305},{"name":"苹果黑星病严重","value":0.0002780472186714178},{"name":"桃健康","value":0.00001597843919398656},{"name":"桃疮痂病一般","value":0.0005696812877431512},{"name":"桃疮痂病严重","value":0.003168788316543214},{"name":"辣椒健康","value":0.000010302405684115001},{"name":"辣椒疮痂病一般","value":0.000026599954594530573},{"name":"辣椒疮痂病严重","value":0.01265109603991732},{"name":"马铃薯健康","value":0.004357348007033579},{"name":"马铃薯早疫病一般","value":0.00033765859370760154},{"name":"马铃薯早疫病严重","value":0.02578302228357643},{"name":"草莓健康","value":0.00002479376632891217},{"name":"草莓叶枯病一般","value":0.031853196560405195},{"name":"草莓叶枯病严重","value":0.056087441043928266},{"name":"番茄健康","value":0.00013178279232306522},{"name":"未识别到植物","value":0.00033042595077859005},{"name":"番茄叶斑病一般","value":0.20762602798640728},{"name":"番茄叶斑病严重","value":99.57407116889954},{"name":"樱桃健康","value":0.00021407681742857676},{"name":"樱桃白粉病一般","value":0.000010486793655672955},{"name":"樱桃白粉病严重","value":0.00009923287507263012},{"name":"玉米健康","value":0.00009590287390892627}]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>file-1688112497328-161142704.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fri Jun 30 2023 08:08:20 GMT+0800 (台北标准时间)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>未识别到植物</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[{"name":"苹果健康","value":0.001093513401428936},{"name":"苹果黑星病一般","value":0.0000488548721477855},{"name":"玉米锈病一般","value":0.0010603046575852204},{"name":"玉米锈病严重","value":0.0012501370292739011},{"name":"葡萄健康","value":0.00014249050082071335},{"name":"葡萄黑腐病一般","value":0.00028784777441615006},{"name":"葡萄黑腐病严重","value":0.000028627212600440544},{"name":"苹果黑星病严重","value":0.000025160952077385446},{"name":"桃健康","value":0.0005475917987496359},{"name":"桃疮痂病一般","value":0.0007582616035506362},{"name":"桃疮痂病严重","value":0.0006806343208154431},{"name":"辣椒健康","value":0.0007486061349482043},{"name":"辣椒疮痂病一般","value":0.00007861822837185173},{"name":"辣椒疮痂病严重","value":0.000031438443670595007},{"name":"马铃薯健康","value":0.00007834995585653814},{"name":"马铃薯早疫病一般","value":0.00010548330919846194},{"name":"马铃薯早疫病严重","value":0.00002157657235102306},{"name":"草莓健康","value":0.00007425098829116905},{"name":"草莓叶枯病一般","value":0.00005810302923237032},{"name":"草莓叶枯病严重","value":0.000036983320228500816},{"name":"番茄健康","value":0.000023283972439003264},{"name":"未识别到植物","value":99.989253282547},{"name":"番茄叶斑病一般","value":0.00006710799311804294},{"name":"番茄叶斑病严重","value":0.000013477014704221801},{"name":"樱桃健康","value":0.0008540624548913911},{"name":"樱桃白粉病一般","value":0.00013522177368940902},{"name":"樱桃白粉病严重","value":0.0000745361433018843},{"name":"玉米健康","value":0.002419654447294306}]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>file-1688112500181-950667692.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fri Jun 30 2023 08:08:22 GMT+0800 (台北标准时间)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[{"name":"苹果健康","value":0.00008789818934928917},{"name":"苹果黑星病一般","value":0.00012080447504558833},{"name":"玉米锈病一般","value":0.0003222658506274456},{"name":"玉米锈病严重","value":0.006320582906482741},{"name":"葡萄健康","value":0.00457898604508955},{"name":"葡萄黑腐病一般","value":0.006095998833188787},{"name":"葡萄黑腐病严重","value":0.1510963891632855},{"name":"苹果黑星病严重","value":0.0013406459402176552},{"name":"桃健康","value":0.00006399402536771959},{"name":"桃疮痂病一般","value":0.009814633085625246},{"name":"桃疮痂病严重","value":0.023539410904049873},{"name":"辣椒健康","value":0.00007116115057215211},{"name":"辣椒疮痂病一般","value":0.00012200580385979265},{"name":"辣椒疮痂病严重","value":0.012938289728481323},{"name":"马铃薯健康","value":0.00311206495098304},{"name":"马铃薯早疫病一般","value":0.0022033253117115237},{"name":"马铃薯早疫病严重","value":0.03899344301316887},{"name":"草莓健康","value":0.00008864572578204388},{"name":"草莓叶枯病一般","value":0.1360792201012373},{"name":"草莓叶枯病严重","value":0.49036266282200813},{"name":"番茄健康","value":0.000538941276317928},{"name":"未识别到植物","value":0.005433923433884047},{"name":"番茄叶斑病一般","value":0.5778184626251459},{"name":"番茄叶斑病严重","value":98.5273540019989},{"name":"樱桃健康","value":0.000428657631346141},{"name":"樱桃白粉病一般","value":0.00023378167952614604},{"name":"樱桃白粉病严重","value":0.000431810985901393},{"name":"玉米健康","value":0.0004101631020603236}]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>file-1688112526627-789813168.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fri Jun 30 2023 08:08:47 GMT+0800 (台北标准时间)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[{"name":"苹果健康","value":0.0023392491129925475},{"name":"苹果黑星病一般","value":0.000060240392940613674},{"name":"玉米锈病一般","value":0.0005422707090474432},{"name":"玉米锈病严重","value":0.0003957175522373291},{"name":"葡萄健康","value":0.0013680521078640595},{"name":"葡萄黑腐病一般","value":0.0009102931471716147},{"name":"葡萄黑腐病严重","value":0.000043160787299711956},{"name":"苹果黑星病严重","value":0.00005932395765739784},{"name":"桃健康","value":0.001002534554572776},{"name":"桃疮痂病一般","value":0.0010964116881950758},{"name":"桃疮痂病严重","value":0.0003341823912705877},{"name":"辣椒健康","value":0.0028603408281924203},{"name":"辣椒疮痂病一般","value":0.0001445031898583693},{"name":"辣椒疮痂病严重","value":0.000014301949136097392},{"name":"马铃薯健康","value":0.0001394801415699476},{"name":"马铃薯早疫病一般","value":0.00007437542990373913},{"name":"马铃薯早疫病严重","value":0.000009222032559819127},{"name":"草莓健康","value":0.00263318361248821},{"name":"草莓叶枯病一般","value":0.0002334569899176131},{"name":"草莓叶枯病严重","value":0.00009126048325924785},{"name":"番茄健康","value":0.00020736242731800303},{"name":"未识别到植物","value":99.82629418373108},{"name":"番茄叶斑病一般","value":0.0005643914846586995},{"name":"番茄叶斑病严重","value":0.00005591920171355014},{"name":"樱桃健康","value":0.0004675539457821287},{"name":"樱桃白粉病一般","value":0.0032103438570629805},{"name":"樱桃白粉病严重","value":0.0013785824194201268},{"name":"玉米健康","value":0.15347020234912634}]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>file-1688116735741-75693388.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fri Jun 30 2023 09:18:59 GMT+0800 (台北标准时间)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[{"name":"苹果健康","value":0.13452122220769525},{"name":"苹果黑星病一般","value":0.17916553188115358},{"name":"玉米锈病一般","value":0.22629958111792803},{"name":"玉米锈病严重","value":0.17743648495525122},{"name":"葡萄健康","value":0.6606115493923426},{"name":"葡萄黑腐病一般","value":0.04192164051346481},{"name":"葡萄黑腐病严重","value":0.4990701097995043},{"name":"苹果黑星病严重","value":0.25951035786420107},{"name":"桃健康","value":0.0354030926246196},{"name":"桃疮痂病一般","value":4.137500002980232},{"name":"桃疮痂病严重","value":0.8859243243932724},{"name":"辣椒健康","value":0.019553914899006486},{"name":"辣椒疮痂病一般","value":0.021434115478768945},{"name":"辣椒疮痂病严重","value":0.20326506346464157},{"name":"马铃薯健康","value":0.29223544988781214},{"name":"马铃薯早疫病一般","value":0.11496940860524774},{"name":"马铃薯早疫病严重","value":0.13139118673279881},{"name":"草莓健康","value":0.035311191459186375},{"name":"草莓叶枯病一般","value":2.7907533571124077},{"name":"草莓叶枯病严重","value":0.8050783537328243},{"name":"番茄健康","value":0.010398870654171333},{"name":"未识别到植物","value":0.24363831616938114},{"name":"番茄叶斑病一般","value":16.387520730495453},{"name":"番茄叶斑病严重","value":54.51103448867798},{"name":"樱桃健康","value":0.045903195859864354},{"name":"樱桃白粉病一般","value":0.08770551066845655},{"name":"樱桃白粉病严重","value":0.24774763733148575},{"name":"玉米健康","value":16.814695298671722}]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>file-1688116741795-956820032.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fri Jun 30 2023 09:19:03 GMT+0800 (台北标准时间)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[{"name":"苹果健康","value":0.004053659358760342},{"name":"苹果黑星病一般","value":0.0035900811781175435},{"name":"玉米锈病一般","value":0.007916326285339892},{"name":"玉米锈病严重","value":0.061350298346951604},{"name":"葡萄健康","value":0.015281254309229553},{"name":"葡萄黑腐病一般","value":0.022216983779799193},{"name":"葡萄黑腐病严重","value":0.07014239090494812},{"name":"苹果黑星病严重","value":0.008369133138330653},{"name":"桃健康","value":0.0007707147233304568},{"name":"桃疮痂病一般","value":0.1948295859619975},{"name":"桃疮痂病严重","value":0.4848117008805275},{"name":"辣椒健康","value":0.000586502164878766},{"name":"辣椒疮痂病一般","value":0.0021282752641127445},{"name":"辣椒疮痂病严重","value":0.03797268436755985},{"name":"马铃薯健康","value":0.10649993782863021},{"name":"马铃薯早疫病一般","value":0.0201100658159703},{"name":"马铃薯早疫病严重","value":0.0375872477889061},{"name":"草莓健康","value":0.0024436800231342204},{"name":"草莓叶枯病一般","value":2.6601988822221756},{"name":"草莓叶枯病严重","value":1.4637643471360207},{"name":"番茄健康","value":0.00043834415919263847},{"name":"未识别到植物","value":0.462607154622674},{"name":"番茄叶斑病一般","value":1.9215207546949387},{"name":"番茄叶斑病严重","value":92.35312938690186},{"name":"樱桃健康","value":0.009366309677716345},{"name":"樱桃白粉病一般","value":0.005891481850994751},{"name":"樱桃白粉病严重","value":0.03258700016885996},{"name":"玉米健康","value":0.00983612917480059}]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>file-1688116744918-372580138.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fri Jun 30 2023 09:19:05 GMT+0800 (台北标准时间)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[{"name":"苹果健康","value":0.23720194585621357},{"name":"苹果黑星病一般","value":0.08751788991503417},{"name":"玉米锈病一般","value":0.22296719253063202},{"name":"玉米锈病严重","value":0.48214769922196865},{"name":"葡萄健康","value":0.598572101444006},{"name":"葡萄黑腐病一般","value":0.2864500507712364},{"name":"葡萄黑腐病严重","value":1.9593589007854462},{"name":"苹果黑星病严重","value":0.3231535665690899},{"name":"桃健康","value":0.027987835346721113},{"name":"桃疮痂病一般","value":2.193717658519745},{"name":"桃疮痂病严重","value":1.7324838787317276},{"name":"辣椒健康","value":0.04459257470443845},{"name":"辣椒疮痂病一般","value":0.020617332484107465},{"name":"辣椒疮痂病严重","value":0.4397742450237274},{"name":"马铃薯健康","value":0.4780881106853485},{"name":"马铃薯早疫病一般","value":0.29146531596779823},{"name":"马铃薯早疫病严重","value":0.502558471634984},{"name":"草莓健康","value":0.11033016489818692},{"name":"草莓叶枯病一般","value":28.504642844200134},{"name":"草莓叶枯病严重","value":10.105156898498535},{"name":"番茄健康","value":0.011627688218140975},{"name":"未识别到植物","value":3.918878734111786},{"name":"番茄叶斑病一般","value":4.553648084402084},{"name":"番茄叶斑病严重","value":31.084996461868286},{"name":"樱桃健康","value":0.09126655641011894},{"name":"樱桃白粉病一般","value":0.14928225427865982},{"name":"樱桃白粉病严重","value":0.7619085721671581},{"name":"玉米健康","value":10.77960878610611}]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>file-1688116747903-860572871.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fri Jun 30 2023 09:19:09 GMT+0800 (台北标准时间)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[{"name":"苹果健康","value":0.003050313171115704},{"name":"苹果黑星病一般","value":0.00007214824222501193},{"name":"玉米锈病一般","value":0.0006783382559660822},{"name":"玉米锈病严重","value":0.0005071911346021807},{"name":"葡萄健康","value":0.0019102324586128816},{"name":"葡萄黑腐病一般","value":0.0012100897947675548},{"name":"葡萄黑腐病严重","value":0.00004627469820661645},{"name":"苹果黑星病严重","value":0.00005239573965809541},{"name":"桃健康","value":0.0011273338714090642},{"name":"桃疮痂病一般","value":0.001497026823926717},{"name":"桃疮痂病严重","value":0.000602304817221011},{"name":"辣椒健康","value":0.002936901910288725},{"name":"辣椒疮痂病一般","value":0.00016655197896398022},{"name":"辣椒疮痂病严重","value":0.00001578248571831864},{"name":"马铃薯健康","value":0.0001483224082221568},{"name":"马铃薯早疫病一般","value":0.0001171025132862269},{"name":"马铃薯早疫病严重","value":0.000018932418299755227},{"name":"草莓健康","value":0.0029916534913354553},{"name":"草莓叶枯病一般","value":0.0003422253257667762},{"name":"草莓叶枯病严重","value":0.00014269332950789249},{"name":"番茄健康","value":0.00033711094147292897},{"name":"未识别到植物","value":99.88890290260315},{"name":"番茄叶斑病一般","value":0.0010436772754474077},{"name":"番茄叶斑病严重","value":0.00011790497183028492},{"name":"樱桃健康","value":0.0006661713996436447},{"name":"樱桃白粉病一般","value":0.0032811200071591884},{"name":"樱桃白粉病严重","value":0.0014572132386092562},{"name":"玉米健康","value":0.08656004210934043}]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>file-1688116750637-35964315.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fri Jun 30 2023 09:19:11 GMT+0800 (台北标准时间)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[{"name":"苹果健康","value":0.07673498475924134},{"name":"苹果黑星病一般","value":0.0007564579391328152},{"name":"玉米锈病一般","value":0.0010732093869592063},{"name":"玉米锈病严重","value":0.0018000624550040811},{"name":"葡萄健康","value":0.03307407896500081},{"name":"葡萄黑腐病一般","value":0.004381423786981031},{"name":"葡萄黑腐病严重","value":0.0010905779163294937},{"name":"苹果黑星病严重","value":0.0011754827937693335},{"name":"桃健康","value":0.003984212162322365},{"name":"桃疮痂病一般","value":0.004353107578936033},{"name":"桃疮痂病严重","value":0.0008549111953470856},{"name":"辣椒健康","value":0.006675838812952861},{"name":"辣椒疮痂病一般","value":0.0002441777041894966},{"name":"辣椒疮痂病严重","value":0.00003599650142405153},{"name":"马铃薯健康","value":0.0032026731787482277},{"name":"马铃薯早疫病一般","value":0.0011761539099097718},{"name":"马铃薯早疫病严重","value":0.00025670080958661856},{"name":"草莓健康","value":0.016603640688117594},{"name":"草莓叶枯病一般","value":0.0040581770008429885},{"name":"草莓叶枯病严重","value":0.0011579889360291418},{"name":"番茄健康","value":0.0008376915502594784},{"name":"未识别到植物","value":98.57001900672913},{"name":"番茄叶斑病一般","value":0.005890283500775695},{"name":"番茄叶斑病严重","value":0.0006952009698579786},{"name":"樱桃健康","value":0.002093822695314884},{"name":"樱桃白粉病一般","value":0.03566680243238807},{"name":"樱桃白粉病严重","value":0.018884365272242576},{"name":"玉米健康","value":1.20322210714221}]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>file-1688116859600-153520220.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fri Jun 30 2023 09:21:00 GMT+0800 (台北标准时间)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[{"name":"苹果健康","value":0.00004341993076195649},{"name":"苹果黑星病一般","value":0.000624183849140536},{"name":"玉米锈病一般","value":0.0005004447302781045},{"name":"玉米锈病严重","value":0.00021159489733690862},{"name":"葡萄健康","value":0.000712020073478925},{"name":"葡萄黑腐病一般","value":94.36480402946472},{"name":"葡萄黑腐病严重","value":5.606383830308914},{"name":"苹果黑星病严重","value":0.0013130678780726157},{"name":"桃健康","value":0.00004838561267206387},{"name":"桃疮痂病一般","value":0.004887769682682119},{"name":"桃疮痂病严重","value":0.00003158642698508629},{"name":"辣椒健康","value":0.0015473140592803247},{"name":"辣椒疮痂病一般","value":0.006366796151269227},{"name":"辣椒疮痂病严重","value":0.001091247031581588},{"name":"马铃薯健康","value":0.00004317867308145651},{"name":"马铃薯早疫病一般","value":0.0014387862393050455},{"name":"马铃薯早疫病严重","value":0.000028277057140257966},{"name":"草莓健康","value":0.00034289637369511183},{"name":"草莓叶枯病一般","value":0.0006126104835857404},{"name":"草莓叶枯病严重","value":0.00003291357586476806},{"name":"番茄健康","value":0.0010312616723240353},{"name":"未识别到植物","value":0.00027033217975258594},{"name":"番茄叶斑病一般","value":0.007101093069650233},{"name":"番茄叶斑病严重","value":0.0002776348310362664},{"name":"樱桃健康","value":0.000039251784755833796},{"name":"樱桃白粉病一般","value":0.00016425343574155704},{"name":"樱桃白粉病严重","value":0.000014551631011272548},{"name":"玉米健康","value":0.00003937151120680937}]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>file-1688117258313-223639618.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fri Jun 30 2023 09:27:39 GMT+0800 (台北标准时间)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>file-1688119161928-654961911.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fri Jun 30 2023 09:59:23 GMT+0800 (台北标准时间)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>file-1688119414181-765718622.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fri Jun 30 2023 10:03:35 GMT+0800 (台北标准时间)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>file-1688122172119-939013550.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fri Jun 30 2023 10:49:33 GMT+0800 (台北标准时间)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>file-1688122330496-664916351.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fri Jun 30 2023 10:52:11 GMT+0800 (台北标准时间)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>file-1688122418628-183988268.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fri Jun 30 2023 10:53:39 GMT+0800 (台北标准时间)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>file-1688122468565-498471019.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fri Jun 30 2023 10:54:29 GMT+0800 (台北标准时间)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>file-1688122667275-786159825.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fri Jun 30 2023 10:57:51 GMT+0800 (台北标准时间)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>file-1688122760470-490178203.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fri Jun 30 2023 10:59:21 GMT+0800 (台北标准时间)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>file-1688122928740-436238630.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fri Jun 30 2023 11:02:09 GMT+0800 (台北标准时间)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>file-1688123202751-56631817.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fri Jun 30 2023 11:06:43 GMT+0800 (台北标准时间)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>file-1688123238291-690922238.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fri Jun 30 2023 11:07:19 GMT+0800 (台北标准时间)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>file-1688123302287-475790832.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fri Jun 30 2023 11:08:23 GMT+0800 (台北标准时间)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>file-1688123334510-98016597.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fri Jun 30 2023 11:08:54 GMT+0800 (台北标准时间)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>file-1688123446813-123323977.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fri Jun 30 2023 11:10:50 GMT+0800 (台北标准时间)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>file-1688123518756-126908201.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fri Jun 30 2023 11:11:59 GMT+0800 (台北标准时间)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>file-1688123566052-592019756.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fri Jun 30 2023 11:12:46 GMT+0800 (台北标准时间)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>file-1688123582451-381831627.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fri Jun 30 2023 11:13:03 GMT+0800 (台北标准时间)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>file-1688123623840-349678360.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fri Jun 30 2023 11:13:44 GMT+0800 (台北标准时间)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>file-1688123662375-961966253.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fri Jun 30 2023 11:14:22 GMT+0800 (台北标准时间)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>file-1688123724658-756050400.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fri Jun 30 2023 11:15:25 GMT+0800 (台北标准时间)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>file-1688123878040-612556060.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fri Jun 30 2023 11:18:02 GMT+0800 (台北标准时间)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>file-1688123917746-215246965.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fri Jun 30 2023 11:18:38 GMT+0800 (台北标准时间)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>file-1688123973720-71977940.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fri Jun 30 2023 11:19:34 GMT+0800 (台北标准时间)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>file-1688124053931-529890255.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fri Jun 30 2023 11:20:54 GMT+0800 (台北标准时间)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>file-1688124075975-135161485.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fri Jun 30 2023 11:21:17 GMT+0800 (台北标准时间)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>file-1688124189848-552621145.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fri Jun 30 2023 11:23:10 GMT+0800 (台北标准时间)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>file-1688124237149-601252700.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fri Jun 30 2023 11:23:57 GMT+0800 (台北标准时间)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>file-1688124272149-264150302.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fri Jun 30 2023 11:24:32 GMT+0800 (台北标准时间)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>file-1688124345818-685842688.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fri Jun 30 2023 11:25:46 GMT+0800 (台北标准时间)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[{"name":"苹果健康","value":0.0000028366649473809957},{"name":"苹果黑星病一般","value":0.00019261269699200056},{"name":"玉米锈病一般","value":0.01308675273321569},{"name":"玉米锈病严重","value":0.002187421705457382},{"name":"葡萄健康","value":0.00025972144612751435},{"name":"葡萄黑腐病一般","value":0.000010114348469869583},{"name":"葡萄黑腐病严重","value":0.00000332618945719787},{"name":"苹果黑星病严重","value":0.000038978802763267595},{"name":"桃健康","value":0.0037597394111799076},{"name":"桃疮痂病一般","value":0.00004800108968083805},{"name":"桃疮痂病严重","value":0.000027150713322043885},{"name":"辣椒健康","value":0.00007128651873244962},{"name":"辣椒疮痂病一般","value":0.0018329003069084138},{"name":"辣椒疮痂病严重","value":0.00005794665867142612},{"name":"马铃薯健康","value":0.00021589535208477173},{"name":"马铃薯早疫病一般","value":0.003729963646037504},{"name":"马铃薯早疫病严重","value":3.68428132446752e-7},{"name":"草莓健康","value":0.0009739113011164591},{"name":"草莓叶枯病一般","value":0.00004697219253557705},{"name":"草莓叶枯病严重","value":0.000002064485293828966},{"name":"番茄健康","value":0.0000049889010256265465},{"name":"未识别到植物","value":99.97063279151917},{"name":"番茄叶斑病一般","value":0.000999635631160345},{"name":"番茄叶斑病严重","value":0.0000028763830428601977},{"name":"樱桃健康","value":0.00000911687081384116},{"name":"樱桃白粉病一般","value":0.00040611898839415517},{"name":"樱桃白粉病严重","value":0.000015200126313175133},{"name":"玉米健康","value":0.0013789874174108263}]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>file-1688124843724-43577779.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fri Jun 30 2023 11:34:05 GMT+0800 (台北标准时间)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[{"name":"苹果健康","value":1.296854068577602e-7},{"name":"苹果黑星病一般","value":9.826610636309852e-8},{"name":"玉米锈病一般","value":1.2031767804288052e-7},{"name":"玉米锈病严重","value":1.735175669814737e-7},{"name":"葡萄健康","value":99.9998152256012},{"name":"葡萄黑腐病一般","value":0.000001499847357422368},{"name":"葡萄黑腐病严重","value":0.0000016974096794797333},{"name":"苹果黑星病严重","value":1.2275335192768466e-7},{"name":"桃健康","value":8.926286376720327e-7},{"name":"桃疮痂病一般","value":3.3892575412863835e-7},{"name":"桃疮痂病严重","value":1.5832702926488196e-7},{"name":"辣椒健康","value":1.8453664152318083e-7},{"name":"辣椒疮痂病一般","value":3.947012161553687e-8},{"name":"辣椒疮痂病严重","value":8.35330277171309e-9},{"name":"马铃薯健康","value":0.00001933859294922513},{"name":"马铃薯早疫病一般","value":5.665405922172795e-8},{"name":"马铃薯早疫病严重","value":1.2313540465047623e-8},{"name":"草莓健康","value":0.00008129425168590387},{"name":"草莓叶枯病一般","value":0.000004541774956123845},{"name":"草莓叶枯病严重","value":0.0000031855840632033505},{"name":"番茄健康","value":6.755031645155896e-7},{"name":"未识别到植物","value":4.278767562482244e-7},{"name":"番茄叶斑病一般","value":0.00006486985739684314},{"name":"番茄叶斑病严重","value":4.1755345847604985e-7},{"name":"樱桃健康","value":7.332999985010247e-7},{"name":"樱桃白粉病一般","value":4.345622084400702e-7},{"name":"樱桃白粉病严重","value":1.2302061591640268e-7},{"name":"玉米健康","value":6.442233413395115e-7}]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>file-1688124867945-452724199.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fri Jun 30 2023 11:34:28 GMT+0800 (台北标准时间)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[{"name":"苹果健康","value":86.00248098373413},{"name":"苹果黑星病一般","value":13.544657826423645},{"name":"玉米锈病一般","value":0.014916926738806069},{"name":"玉米锈病严重","value":0.00024239839149231557},{"name":"葡萄健康","value":0.026960141258314252},{"name":"葡萄黑腐病一般","value":0.0003604111270760768},{"name":"葡萄黑腐病严重","value":0.000042668790456446004},{"name":"苹果黑星病严重","value":0.030249723931774497},{"name":"桃健康","value":0.001849872751336079},{"name":"桃疮痂病一般","value":0.05488508031703532},{"name":"桃疮痂病严重","value":0.0011485891263873782},{"name":"辣椒健康","value":0.05051001789979637},{"name":"辣椒疮痂病一般","value":0.021841676789335907},{"name":"辣椒疮痂病严重","value":0.00012422087820596062},{"name":"马铃薯健康","value":0.006466226477641612},{"name":"马铃薯早疫病一般","value":0.0005338112714525778},{"name":"马铃薯早疫病严重","value":0.00003255674982938217},{"name":"草莓健康","value":0.15780001413077116},{"name":"草莓叶枯病一般","value":0.00011032502698071767},{"name":"草莓叶枯病严重","value":0.000025136705517070368},{"name":"番茄健康","value":0.005073861393611878},{"name":"未识别到植物","value":0.0032498650398338214},{"name":"番茄叶斑病一般","value":0.043521373299881816},{"name":"番茄叶斑病严重","value":0.0003670342948680627},{"name":"樱桃健康","value":0.009111189137911424},{"name":"樱桃白粉病一般","value":0.003474348341114819},{"name":"樱桃白粉病严重","value":0.0011690792234730907},{"name":"玉米健康","value":0.01879534247564152}]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>file-1688124875370-816995342.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fri Jun 30 2023 11:34:35 GMT+0800 (台北标准时间)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>file-1688125131661-7704116.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fri Jun 30 2023 11:38:55 GMT+0800 (台北标准时间)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>file-1688125131663-285122793.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fri Jun 30 2023 11:38:55 GMT+0800 (台北标准时间)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>file-1688125131665-849325367.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fri Jun 30 2023 11:38:55 GMT+0800 (台北标准时间)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[{"name":"苹果健康","value":0.004781407551490702},{"name":"苹果黑星病一般","value":0.2028782619163394},{"name":"玉米锈病一般","value":14.583326876163483},{"name":"玉米锈病严重","value":1.8580183386802673},{"name":"葡萄健康","value":0.03517042496241629},{"name":"葡萄黑腐病一般","value":5.358046293258667},{"name":"葡萄黑腐病严重","value":71.24701738357544},{"name":"苹果黑星病严重","value":0.12079104781150818},{"name":"桃健康","value":0.018074682157021016},{"name":"桃疮痂病一般","value":0.7773562334477901},{"name":"桃疮痂病严重","value":0.009494768892182037},{"name":"辣椒健康","value":0.049730780301615596},{"name":"辣椒疮痂病一般","value":1.5074717812240124},{"name":"辣椒疮痂病严重","value":0.6571300327777863},{"name":"马铃薯健康","value":0.01725176116451621},{"name":"马铃薯早疫病一般","value":2.801162004470825},{"name":"马铃薯早疫病严重","value":0.011820297368103638},{"name":"草莓健康","value":0.012155395961599424},{"name":"草莓叶枯病一般","value":0.1647504512220621},{"name":"草莓叶枯病严重","value":0.0038935308111831546},{"name":"番茄健康","value":0.0311703683109954},{"name":"未识别到植物","value":0.043649994768202305},{"name":"番茄叶斑病一般","value":0.3869666950777173},{"name":"番茄叶斑病严重","value":0.005483908171299845},{"name":"樱桃健康","value":0.0027279971618554555},{"name":"樱桃白粉病一般","value":0.04867117968387902},{"name":"樱桃白粉病严重","value":0.002622805186547339},{"name":"玉米健康","value":0.038383432547561824}]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>file-1688125131658-118406264.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fri Jun 30 2023 11:38:55 GMT+0800 (台北标准时间)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>file-1688125381332-622932560.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fri Jun 30 2023 11:43:05 GMT+0800 (台北标准时间)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>file-1688125396367-759227013.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fri Jun 30 2023 11:43:16 GMT+0800 (台北标准时间)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>file-1688125396369-677446314.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fri Jun 30 2023 11:43:16 GMT+0800 (台北标准时间)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>file-1688125396372-45605760.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fri Jun 30 2023 11:43:17 GMT+0800 (台北标准时间)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>file-1688125396364-938174836.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fri Jun 30 2023 11:43:17 GMT+0800 (台北标准时间)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[{"name":"苹果健康","value":0.40574907325208187},{"name":"苹果黑星病一般","value":0.060816307086497545},{"name":"玉米锈病一般","value":0.05512063507921994},{"name":"玉米锈病严重","value":0.1514253788627684},{"name":"葡萄健康","value":0.9492812678217888},{"name":"葡萄黑腐病一般","value":0.014044251292943954},{"name":"葡萄黑腐病严重","value":0.07030169363133609},{"name":"苹果黑星病严重","value":0.4407379310578108},{"name":"桃健康","value":1.5055355615913868},{"name":"桃疮痂病一般","value":0.027429329929873347},{"name":"桃疮痂病严重","value":0.024022172146942466},{"name":"辣椒健康","value":0.06352282944135368},{"name":"辣椒疮痂病一般","value":0.0821063993498683},{"name":"辣椒疮痂病严重","value":0.03475219709798694},{"name":"马铃薯健康","value":0.6539017427712679},{"name":"马铃薯早疫病一般","value":0.10668368777260184},{"name":"马铃薯早疫病严重","value":0.025740882847458124},{"name":"草莓健康","value":1.7972812056541443},{"name":"草莓叶枯病一般","value":0.06272764876484871},{"name":"草莓叶枯病严重","value":0.007101830851752311},{"name":"番茄健康","value":0.10988040594384074},{"name":"未识别到植物","value":33.395934104919434},{"name":"番茄叶斑病一般","value":2.638358250260353},{"name":"番茄叶斑病严重","value":0.7199421059340239},{"name":"樱桃健康","value":0.04122333193663508},{"name":"樱桃白粉病一般","value":16.336683928966522},{"name":"樱桃白粉病严重","value":27.295833826065063},{"name":"玉米健康","value":12.923863530158997}]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>file-1688125396362-621118408.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fri Jun 30 2023 11:43:17 GMT+0800 (台北标准时间)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>file-1688125396365-992219158.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fri Jun 30 2023 11:43:17 GMT+0800 (台北标准时间)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>file-1688125638201-689069560.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fri Jun 30 2023 11:47:20 GMT+0800 (台北标准时间)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>file-1688126189329-68410595.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fri Jun 30 2023 11:56:30 GMT+0800 (台北标准时间)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>file-1688126315513-838420685.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fri Jun 30 2023 11:58:38 GMT+0800 (台北标准时间)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>file-1688127271664-843081721.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fri Jun 30 2023 12:14:32 GMT+0800 (台北标准时间)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>玉米锈病一般</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[{"name":"苹果健康","value":0.0009840476195677184},{"name":"苹果黑星病一般","value":0.001715451799100265},{"name":"玉米锈病一般","value":78.82091403007507},{"name":"玉米锈病严重","value":0.4240122623741627},{"name":"葡萄健康","value":0.004940415237797424},{"name":"葡萄黑腐病一般","value":0.003977903907070868},{"name":"葡萄黑腐病严重","value":0.00978489188128151},{"name":"苹果黑星病严重","value":0.0009484997463005129},{"name":"桃健康","value":0.03231949813198298},{"name":"桃疮痂病一般","value":0.09789620526134968},{"name":"桃疮痂病严重","value":0.004479315975913778},{"name":"辣椒健康","value":0.0015891246221144684},{"name":"辣椒疮痂病一般","value":0.11314199073240161},{"name":"辣椒疮痂病严重","value":0.006774944631615654},{"name":"马铃薯健康","value":0.0020828454580623657},{"name":"马铃薯早疫病一般","value":0.00031733243304188363},{"name":"马铃薯早疫病严重","value":0.00002757964239208377},{"name":"草莓健康","value":0.027130069793201983},{"name":"草莓叶枯病一般","value":0.004308082498027943},{"name":"草莓叶枯病严重","value":0.00008575365768592746},{"name":"番茄健康","value":0.0017585392924956977},{"name":"未识别到植物","value":20.363445580005646},{"name":"番茄叶斑病一般","value":0.011161799193359911},{"name":"番茄叶斑病严重","value":0.0003293519739600015},{"name":"樱桃健康","value":0.0018615673980093561},{"name":"樱桃白粉病一般","value":0.011661732423817739},{"name":"樱桃白粉病严重","value":0.0020952951672370546},{"name":"玉米健康","value":0.050253234803676605}]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>file-1688133317053-581345164.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fri Jun 30 2023 13:55:19 GMT+0800 (台北标准时间)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[{"name":"苹果健康","value":0.0002436361000945908},{"name":"苹果黑星病一般","value":0.0005435859748104122},{"name":"玉米锈病一般","value":0.3365261945873499},{"name":"玉米锈病严重","value":0.02354400639887899},{"name":"葡萄健康","value":0.0022206220819498412},{"name":"葡萄黑腐病一般","value":1.6414226964116096},{"name":"葡萄黑腐病严重","value":97.88627624511719},{"name":"苹果黑星病严重","value":0.0013032614333496895},{"name":"桃健康","value":0.00019392193735257024},{"name":"桃疮痂病一般","value":0.008054177305893973},{"name":"桃疮痂病严重","value":0.000588924467592733},{"name":"辣椒健康","value":0.00016615210824966198},{"name":"辣椒疮痂病一般","value":0.024794184719212353},{"name":"辣椒疮痂病严重","value":0.008364343375433236},{"name":"马铃薯健康","value":0.00033423152672185097},{"name":"马铃薯早疫病一般","value":0.02405198902124539},{"name":"马铃薯早疫病严重","value":0.0012791471817763522},{"name":"草莓健康","value":0.00047972848733479623},{"name":"草莓叶枯病一般","value":0.025106556131504476},{"name":"草莓叶枯病严重","value":0.0002505604925318039},{"name":"番茄健康","value":0.002002068140427582},{"name":"未识别到植物","value":0.003927950456272811},{"name":"番茄叶斑病一般","value":0.005997381231281906},{"name":"番茄叶斑病严重","value":0.0005210418748902157},{"name":"樱桃健康","value":0.000059626211168506416},{"name":"樱桃白粉病一般","value":0.0010896095773205161},{"name":"樱桃白粉病严重","value":0.00047578869271092117},{"name":"玉米健康","value":0.00018372157910562237}]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>file-1688133345034-280957206.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fri Jun 30 2023 13:55:45 GMT+0800 (台北标准时间)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[{"name":"苹果健康","value":0.06162265781313181},{"name":"苹果黑星病一般","value":0.1243565115146339},{"name":"玉米锈病一般","value":62.54684925079346},{"name":"玉米锈病严重","value":20.344969630241394},{"name":"葡萄健康","value":0.20630082581192255},{"name":"葡萄黑腐病一般","value":0.13648925814777613},{"name":"葡萄黑腐病严重","value":0.5254984833300114},{"name":"苹果黑星病严重","value":0.29319131281226873},{"name":"桃健康","value":0.16209555324167013},{"name":"桃疮痂病一般","value":0.16198008088395},{"name":"桃疮痂病严重","value":0.08495784131810069},{"name":"辣椒健康","value":0.13587564462795854},{"name":"辣椒疮痂病一般","value":0.47734491527080536},{"name":"辣椒疮痂病严重","value":0.15498879365622997},{"name":"马铃薯健康","value":0.08318027830682695},{"name":"马铃薯早疫病一般","value":0.1302055548876524},{"name":"马铃薯早疫病严重","value":0.01815708674257621},{"name":"草莓健康","value":0.27458362746983767},{"name":"草莓叶枯病一般","value":0.1581478980369866},{"name":"草莓叶枯病严重","value":0.03560865297913551},{"name":"番茄健康","value":0.8682388812303543},{"name":"未识别到植物","value":7.3718152940273285},{"name":"番茄叶斑病一般","value":0.8665066212415695},{"name":"番茄叶斑病严重","value":0.05677571753039956},{"name":"樱桃健康","value":0.09301163954660296},{"name":"樱桃白粉病一般","value":0.5849887151271105},{"name":"樱桃白粉病严重","value":1.6135018318891525},{"name":"玉米健康","value":2.428758703172207}]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>file-1688133369032-226926555.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fri Jun 30 2023 13:56:09 GMT+0800 (台北标准时间)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>file-1688133403359-16188917.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fri Jun 30 2023 13:56:43 GMT+0800 (台北标准时间)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>file-1688133517731-210777884.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fri Jun 30 2023 13:58:38 GMT+0800 (台北标准时间)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>file-1688133620257-559874743.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fri Jun 30 2023 14:00:22 GMT+0800 (台北标准时间)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>file-1688133626753-376979095.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fri Jun 30 2023 14:00:26 GMT+0800 (台北标准时间)</x:t>
+    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>云南省宁德市门头沟王街W座</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>黑龙江省柳州县崇文广州路i座</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>内蒙古自治区佛山县怀柔郑街m座</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>澳门特别行政区慧县海港李路h座</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>香港特别行政区雷市东城齐齐哈尔路a座</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>台湾省宜都县淄川阜新街t座</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>内蒙古自治区辛集市滨城太原街T座</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>广东省东县牧野金路i座</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>澳门特别行政区宁德县闵行福州街V座</x:t>
+  </x:si>
+  <x:si>
+    <x:t>桃疮痂病严重</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>青海省北镇县龙潭潜江街T座</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>内蒙古自治区辛集县兴山哈尔滨街r座</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>山西省长沙市上街辛集街G座</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>湖南省呼和浩特市海港姚街l座</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>山东省潮州市龙潭阜新路O座</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>上海市秀荣县南长长沙路Z座</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>广西壮族自治区郑州县友好陈街M座</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>甘肃省秀英县崇文袁路F座</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>内蒙古自治区合山县大东天津街I座</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>台湾省凯县西夏陈路F座</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>上海市凤英县怀柔济南路G座</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>河北省长春县城北海门路j座</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>四川省刚县新城贵阳路v座</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>四川省桂珍县清河王路H座</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>辽宁省柳县双滦潜江街l座</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>上海市博县房山合山街e座</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>天津市荣县浔阳何街n座</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>甘肃省阳县涪城胡街l座</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>四川省淮安县花溪海门路L座</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>香港特别行政区杰市大兴福州路x座</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>宁夏回族自治区秀英县江北邱路h座</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>吉林省杭州县长寿宁德路v座</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>河南省香港县金平孙路q座</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>陕西省鹏市白云张家港路F座</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>安徽省香港县海港台北街J座</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>甘肃省欢县东城孙路j座</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>重庆市兰州市锡山梁路s座</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>山东省玲县浔阳董路X座</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>安徽省勇县锡山南宁路N座</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>宁夏回族自治区芳县吉区郑路B座</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>安徽省玉梅市怀柔梁路G座</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>云南省颖县华龙拉萨路I座</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>海南省佛山县梁平李街A座</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>四川省太原县长寿吕路M座</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>贵州省关岭县吉区六盘水街D座</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>广西壮族自治区杨县梁平苏路A座</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>黑龙江省石家庄县友好张路d座</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>云南省梧州县双滦唐街n座</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>澳门特别行政区超市涪城北镇路R座</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>辽宁省长沙县花溪哈尔滨路U座</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>香港特别行政区丽华市高坪王路L座</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>宁夏回族自治区淑英县锡山姚路J座</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>海南省磊县淄川六盘水街p座</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>山东省金凤市海港张路P座</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>广西壮族自治区西宁市六枝特北镇街n座</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jun 29 2023 07:13:41 GMT+0800 (台北标准时间)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>广东省江门市新会区会城街道542县道</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[{"name":"苹果健康","value":0.0013470401427184697},{"name":"苹果黑星病一般","value":99.89250898361206},{"name":"玉米锈病一般","value":0.0017265629139728844},{"name":"玉米锈病严重","value":0.00004356087686119281},{"name":"葡萄健康","value":0.0007902573088358622},{"name":"葡萄黑腐病一般","value":0.00006245272743399255},{"name":"葡萄黑腐病严重","value":0.00001521891306310863},{"name":"苹果黑星病严重","value":0.09312103502452374},{"name":"桃健康","value":0.00002862258270397433},{"name":"桃疮痂病一般","value":0.0007750664735794999},{"name":"桃疮痂病严重","value":0.000024194255843212886},{"name":"辣椒健康","value":0.00005404418175203318},{"name":"辣椒疮痂病一般","value":0.0084279767179396},{"name":"辣椒疮痂病严重","value":0.00004928830890094105},{"name":"马铃薯健康","value":0.0000023361048206993473},{"name":"马铃薯早疫病一般","value":0.00003457821264873928},{"name":"马铃薯早疫病严重","value":0.000005387002133261376},{"name":"草莓健康","value":0.000006822855169730246},{"name":"草莓叶枯病一般","value":0.0000048572594835150085},{"name":"草莓叶枯病严重","value":5.853488360685333e-7},{"name":"番茄健康","value":0.000006476787461906497},{"name":"未识别到植物","value":0.000029966045644869155},{"name":"番茄叶斑病一般","value":0.0004162219738645945},{"name":"番茄叶斑病严重","value":0.00000827929724778187},{"name":"樱桃健康","value":0.0003490676817818894},{"name":"樱桃白粉病一般","value":0.0001028767883326509},{"name":"樱桃白粉病严重","value":0.000029273752488734317},{"name":"玉米健康","value":0.000031611764939043496}]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>file-1688199900273-106191895.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sat Jul 01 2023 08:25:48 GMT+0800 (台北标准时间)</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1271,7 +1436,7 @@
     </x:row>
     <x:row r="2" spans="1:9">
       <x:c r="A2" s="0" t="n">
-        <x:v>41</x:v>
+        <x:v>1214</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
         <x:v>9</x:v>
@@ -1280,10 +1445,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="D2" s="0" t="n">
-        <x:v>112.982</x:v>
+        <x:v>120.144</x:v>
       </x:c>
       <x:c r="E2" s="0" t="n">
-        <x:v>22.9193</x:v>
+        <x:v>30.3232</x:v>
       </x:c>
       <x:c r="F2" s="0" t="s">
         <x:v>11</x:v>
@@ -1292,7 +1457,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="H2" s="0" t="n">
-        <x:v>829</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="I2" s="0" t="s">
         <x:v>13</x:v>
@@ -1300,2960 +1465,4352 @@
     </x:row>
     <x:row r="3" spans="1:9">
       <x:c r="A3" s="0" t="n">
-        <x:v>42</x:v>
+        <x:v>1215</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D3" s="0" t="n">
-        <x:v>112.982</x:v>
+        <x:v>119.696</x:v>
       </x:c>
       <x:c r="E3" s="0" t="n">
-        <x:v>22.9193</x:v>
+        <x:v>30.2248</x:v>
       </x:c>
       <x:c r="F3" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="G3" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="H3" s="0" t="n">
+        <x:v>190</x:v>
+      </x:c>
+      <x:c r="I3" s="0" t="s">
         <x:v>15</x:v>
-      </x:c>
-      <x:c r="G3" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="H3" s="0" t="n">
-        <x:v>723</x:v>
-      </x:c>
-      <x:c r="I3" s="0" t="s">
-        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:9">
       <x:c r="A4" s="0" t="n">
-        <x:v>43</x:v>
+        <x:v>1216</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="n">
+        <x:v>120.184</x:v>
+      </x:c>
+      <x:c r="E4" s="0" t="n">
+        <x:v>30.3416</x:v>
+      </x:c>
+      <x:c r="F4" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="G4" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="H4" s="0" t="n">
+        <x:v>189</x:v>
+      </x:c>
+      <x:c r="I4" s="0" t="s">
         <x:v>18</x:v>
-      </x:c>
-      <x:c r="D4" s="0" t="n">
-        <x:v>112.982</x:v>
-      </x:c>
-      <x:c r="E4" s="0" t="n">
-        <x:v>22.9193</x:v>
-      </x:c>
-      <x:c r="F4" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="G4" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="H4" s="0" t="n">
-        <x:v>770</x:v>
-      </x:c>
-      <x:c r="I4" s="0" t="s">
-        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
       <x:c r="A5" s="0" t="n">
-        <x:v>44</x:v>
+        <x:v>1217</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D5" s="0" t="n">
-        <x:v>112.982</x:v>
+        <x:v>120.285</x:v>
       </x:c>
       <x:c r="E5" s="0" t="n">
-        <x:v>22.9193</x:v>
+        <x:v>30.4296</x:v>
       </x:c>
       <x:c r="F5" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G5" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H5" s="0" t="n">
-        <x:v>319</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="I5" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:9">
       <x:c r="A6" s="0" t="n">
-        <x:v>45</x:v>
+        <x:v>1218</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D6" s="0" t="n">
-        <x:v>112.982</x:v>
+        <x:v>119.941</x:v>
       </x:c>
       <x:c r="E6" s="0" t="n">
-        <x:v>22.9193</x:v>
+        <x:v>30.0755</x:v>
       </x:c>
       <x:c r="F6" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G6" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H6" s="0" t="n">
-        <x:v>271</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="I6" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:9">
       <x:c r="A7" s="0" t="n">
-        <x:v>46</x:v>
+        <x:v>1219</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="D7" s="0" t="n">
-        <x:v>112.982</x:v>
+        <x:v>120.291</x:v>
       </x:c>
       <x:c r="E7" s="0" t="n">
-        <x:v>22.9193</x:v>
+        <x:v>30.1561</x:v>
       </x:c>
       <x:c r="F7" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G7" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H7" s="0" t="n">
-        <x:v>73</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="I7" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:9">
       <x:c r="A8" s="0" t="n">
-        <x:v>47</x:v>
+        <x:v>1220</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="D8" s="0" t="n">
-        <x:v>112.982</x:v>
+        <x:v>120.493</x:v>
       </x:c>
       <x:c r="E8" s="0" t="n">
-        <x:v>22.9193</x:v>
+        <x:v>30.2728</x:v>
       </x:c>
       <x:c r="F8" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G8" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H8" s="0" t="n">
-        <x:v>118</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="I8" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
       <x:c r="A9" s="0" t="n">
-        <x:v>48</x:v>
+        <x:v>1221</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="D9" s="0" t="n">
-        <x:v>112.982</x:v>
+        <x:v>120.091</x:v>
       </x:c>
       <x:c r="E9" s="0" t="n">
-        <x:v>22.9193</x:v>
+        <x:v>30.3266</x:v>
       </x:c>
       <x:c r="F9" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G9" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H9" s="0" t="n">
-        <x:v>96</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="I9" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
       <x:c r="A10" s="0" t="n">
-        <x:v>49</x:v>
+        <x:v>1222</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="D10" s="0" t="n">
-        <x:v>112.982</x:v>
+        <x:v>120.176</x:v>
       </x:c>
       <x:c r="E10" s="0" t="n">
-        <x:v>22.9193</x:v>
+        <x:v>30.2633</x:v>
       </x:c>
       <x:c r="F10" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G10" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H10" s="0" t="n">
-        <x:v>73</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="I10" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
       <x:c r="A11" s="0" t="n">
-        <x:v>50</x:v>
+        <x:v>1223</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="C11" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D11" s="0" t="n">
-        <x:v>112.982</x:v>
+        <x:v>120.167</x:v>
       </x:c>
       <x:c r="E11" s="0" t="n">
-        <x:v>22.9193</x:v>
+        <x:v>30.2759</x:v>
       </x:c>
       <x:c r="F11" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G11" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H11" s="0" t="n">
-        <x:v>88</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="I11" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
       <x:c r="A12" s="0" t="n">
-        <x:v>51</x:v>
+        <x:v>1224</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="C12" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="D12" s="0" t="n">
-        <x:v>112.982</x:v>
+        <x:v>120.27</x:v>
       </x:c>
       <x:c r="E12" s="0" t="n">
-        <x:v>22.9193</x:v>
+        <x:v>30.318</x:v>
       </x:c>
       <x:c r="F12" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G12" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H12" s="0" t="n">
-        <x:v>135</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="I12" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:9">
       <x:c r="A13" s="0" t="n">
-        <x:v>52</x:v>
+        <x:v>1225</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="C13" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D13" s="0" t="n">
-        <x:v>112.982</x:v>
+        <x:v>120.167</x:v>
       </x:c>
       <x:c r="E13" s="0" t="n">
-        <x:v>22.9193</x:v>
+        <x:v>30.1919</x:v>
       </x:c>
       <x:c r="F13" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G13" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H13" s="0" t="n">
-        <x:v>99</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="I13" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
       <x:c r="A14" s="0" t="n">
-        <x:v>53</x:v>
+        <x:v>1226</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C14" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="D14" s="0" t="n">
-        <x:v>112.982</x:v>
+        <x:v>120.068</x:v>
       </x:c>
       <x:c r="E14" s="0" t="n">
-        <x:v>22.9193</x:v>
+        <x:v>30.1728</x:v>
       </x:c>
       <x:c r="F14" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G14" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H14" s="0" t="n">
-        <x:v>156</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="I14" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:9">
       <x:c r="A15" s="0" t="n">
-        <x:v>54</x:v>
+        <x:v>1227</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="C15" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D15" s="0" t="n">
-        <x:v>112.982</x:v>
+        <x:v>120.203</x:v>
       </x:c>
       <x:c r="E15" s="0" t="n">
-        <x:v>22.9193</x:v>
+        <x:v>30.2445</x:v>
       </x:c>
       <x:c r="F15" s="0" t="s">
-        <x:v>61</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G15" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H15" s="0" t="n">
-        <x:v>68</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="I15" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>49</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">
       <x:c r="A16" s="0" t="n">
-        <x:v>55</x:v>
+        <x:v>1228</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C16" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D16" s="0" t="n">
-        <x:v>112.982</x:v>
+        <x:v>120.253</x:v>
       </x:c>
       <x:c r="E16" s="0" t="n">
-        <x:v>22.9193</x:v>
+        <x:v>30.0444</x:v>
       </x:c>
       <x:c r="F16" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G16" s="0" t="s">
-        <x:v>66</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H16" s="0" t="n">
-        <x:v>85</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="I16" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9">
       <x:c r="A17" s="0" t="n">
-        <x:v>56</x:v>
+        <x:v>1229</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C17" s="0" t="s">
-        <x:v>68</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="D17" s="0" t="n">
-        <x:v>112.982</x:v>
+        <x:v>120.178</x:v>
       </x:c>
       <x:c r="E17" s="0" t="n">
-        <x:v>22.9193</x:v>
+        <x:v>30.3143</x:v>
       </x:c>
       <x:c r="F17" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G17" s="0" t="s">
-        <x:v>70</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H17" s="0" t="n">
-        <x:v>59</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="I17" s="0" t="s">
-        <x:v>71</x:v>
+        <x:v>54</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:9">
       <x:c r="A18" s="0" t="n">
+        <x:v>1230</x:v>
+      </x:c>
+      <x:c r="B18" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="C18" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="D18" s="0" t="n">
+        <x:v>120.174</x:v>
+      </x:c>
+      <x:c r="E18" s="0" t="n">
+        <x:v>30.3444</x:v>
+      </x:c>
+      <x:c r="F18" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="G18" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="H18" s="0" t="n">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="I18" s="0" t="s">
         <x:v>57</x:v>
-      </x:c>
-      <x:c r="B18" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="C18" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="D18" s="0" t="n">
-        <x:v>112.982</x:v>
-      </x:c>
-      <x:c r="E18" s="0" t="n">
-        <x:v>22.9193</x:v>
-      </x:c>
-      <x:c r="F18" s="0" t="s">
-        <x:v>72</x:v>
-      </x:c>
-      <x:c r="G18" s="0" t="s">
-        <x:v>73</x:v>
-      </x:c>
-      <x:c r="H18" s="0" t="n">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="I18" s="0" t="s">
-        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:9">
       <x:c r="A19" s="0" t="n">
+        <x:v>1231</x:v>
+      </x:c>
+      <x:c r="B19" s="0" t="s">
         <x:v>58</x:v>
       </x:c>
-      <x:c r="B19" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
       <x:c r="C19" s="0" t="s">
-        <x:v>75</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="D19" s="0" t="n">
-        <x:v>112.982</x:v>
+        <x:v>119.951</x:v>
       </x:c>
       <x:c r="E19" s="0" t="n">
-        <x:v>22.9193</x:v>
+        <x:v>30.2741</x:v>
       </x:c>
       <x:c r="F19" s="0" t="s">
-        <x:v>76</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G19" s="0" t="s">
-        <x:v>77</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H19" s="0" t="n">
-        <x:v>82</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="I19" s="0" t="s">
-        <x:v>78</x:v>
+        <x:v>60</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
       <x:c r="A20" s="0" t="n">
-        <x:v>59</x:v>
+        <x:v>1232</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="C20" s="0" t="s">
-        <x:v>79</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D20" s="0" t="n">
-        <x:v>112.982</x:v>
+        <x:v>120.222</x:v>
       </x:c>
       <x:c r="E20" s="0" t="n">
-        <x:v>22.9193</x:v>
+        <x:v>30.2996</x:v>
       </x:c>
       <x:c r="F20" s="0" t="s">
-        <x:v>80</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G20" s="0" t="s">
-        <x:v>81</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H20" s="0" t="n">
-        <x:v>138</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="I20" s="0" t="s">
-        <x:v>82</x:v>
+        <x:v>62</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
       <x:c r="A21" s="0" t="n">
-        <x:v>60</x:v>
+        <x:v>1233</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="C21" s="0" t="s">
-        <x:v>83</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="D21" s="0" t="n">
-        <x:v>112.982</x:v>
+        <x:v>120.072</x:v>
       </x:c>
       <x:c r="E21" s="0" t="n">
-        <x:v>22.9193</x:v>
+        <x:v>30.3341</x:v>
       </x:c>
       <x:c r="F21" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G21" s="0" t="s">
-        <x:v>85</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H21" s="0" t="n">
-        <x:v>504</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="I21" s="0" t="s">
-        <x:v>86</x:v>
+        <x:v>64</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">
       <x:c r="A22" s="0" t="n">
-        <x:v>61</x:v>
+        <x:v>1234</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="C22" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="D22" s="0" t="n">
-        <x:v>112.982</x:v>
+        <x:v>120.393</x:v>
       </x:c>
       <x:c r="E22" s="0" t="n">
-        <x:v>22.9193</x:v>
+        <x:v>30.33</x:v>
       </x:c>
       <x:c r="F22" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="G22" s="0" t="s">
-        <x:v>87</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H22" s="0" t="n">
-        <x:v>94</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="I22" s="0" t="s">
-        <x:v>88</x:v>
+        <x:v>66</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
       <x:c r="A23" s="0" t="n">
-        <x:v>62</x:v>
+        <x:v>1235</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="C23" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D23" s="0" t="n">
-        <x:v>112.982</x:v>
+        <x:v>120.147</x:v>
       </x:c>
       <x:c r="E23" s="0" t="n">
-        <x:v>22.9193</x:v>
+        <x:v>30.2795</x:v>
       </x:c>
       <x:c r="F23" s="0" t="s">
-        <x:v>89</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G23" s="0" t="s">
-        <x:v>90</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H23" s="0" t="n">
-        <x:v>85</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="I23" s="0" t="s">
-        <x:v>91</x:v>
+        <x:v>68</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:9">
       <x:c r="A24" s="0" t="n">
-        <x:v>63</x:v>
+        <x:v>1236</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="C24" s="0" t="s">
-        <x:v>79</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D24" s="0" t="n">
-        <x:v>112.982</x:v>
+        <x:v>120.254</x:v>
       </x:c>
       <x:c r="E24" s="0" t="n">
-        <x:v>22.9193</x:v>
+        <x:v>30.3897</x:v>
       </x:c>
       <x:c r="F24" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G24" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H24" s="0" t="n">
-        <x:v>44</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="I24" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>70</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">
       <x:c r="A25" s="0" t="n">
-        <x:v>64</x:v>
+        <x:v>1237</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="C25" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D25" s="0" t="n">
-        <x:v>112.982</x:v>
+        <x:v>120.289</x:v>
       </x:c>
       <x:c r="E25" s="0" t="n">
-        <x:v>22.9193</x:v>
+        <x:v>30.1633</x:v>
       </x:c>
       <x:c r="F25" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G25" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H25" s="0" t="n">
-        <x:v>51</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="I25" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:9">
       <x:c r="A26" s="0" t="n">
-        <x:v>65</x:v>
+        <x:v>1238</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="C26" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="D26" s="0" t="n">
-        <x:v>112.982</x:v>
+        <x:v>120.259</x:v>
       </x:c>
       <x:c r="E26" s="0" t="n">
-        <x:v>22.9193</x:v>
+        <x:v>30.1558</x:v>
       </x:c>
       <x:c r="F26" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G26" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H26" s="0" t="n">
-        <x:v>53</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="I26" s="0" t="s">
-        <x:v>100</x:v>
+        <x:v>75</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:9">
       <x:c r="A27" s="0" t="n">
-        <x:v>66</x:v>
+        <x:v>1239</x:v>
       </x:c>
       <x:c r="B27" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="C27" s="0" t="s">
-        <x:v>75</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="D27" s="0" t="n">
-        <x:v>112.982</x:v>
+        <x:v>120.285</x:v>
       </x:c>
       <x:c r="E27" s="0" t="n">
-        <x:v>22.9193</x:v>
+        <x:v>30.2982</x:v>
       </x:c>
       <x:c r="F27" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G27" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="H27" s="0" t="n">
         <x:v>102</x:v>
       </x:c>
-      <x:c r="H27" s="0" t="n">
-        <x:v>923</x:v>
-      </x:c>
       <x:c r="I27" s="0" t="s">
-        <x:v>103</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:9">
       <x:c r="A28" s="0" t="n">
-        <x:v>67</x:v>
+        <x:v>1240</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="C28" s="0" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="D28" s="0" t="n">
+        <x:v>120.214</x:v>
+      </x:c>
+      <x:c r="E28" s="0" t="n">
+        <x:v>30.2684</x:v>
+      </x:c>
+      <x:c r="F28" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="G28" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="H28" s="0" t="n">
         <x:v>56</x:v>
       </x:c>
-      <x:c r="D28" s="0" t="n">
-        <x:v>112.982</x:v>
-      </x:c>
-      <x:c r="E28" s="0" t="n">
-        <x:v>22.9193</x:v>
-      </x:c>
-      <x:c r="F28" s="0" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="G28" s="0" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="H28" s="0" t="n">
-        <x:v>1061</x:v>
-      </x:c>
       <x:c r="I28" s="0" t="s">
-        <x:v>106</x:v>
+        <x:v>81</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:9">
       <x:c r="A29" s="0" t="n">
-        <x:v>68</x:v>
+        <x:v>1241</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="C29" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="D29" s="0" t="n">
-        <x:v>112.982</x:v>
+        <x:v>120.272</x:v>
       </x:c>
       <x:c r="E29" s="0" t="n">
-        <x:v>22.9193</x:v>
+        <x:v>30.1834</x:v>
       </x:c>
       <x:c r="F29" s="0" t="s">
-        <x:v>107</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G29" s="0" t="s">
-        <x:v>108</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H29" s="0" t="n">
-        <x:v>798</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="I29" s="0" t="s">
-        <x:v>109</x:v>
+        <x:v>83</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:9">
       <x:c r="A30" s="0" t="n">
-        <x:v>69</x:v>
+        <x:v>1242</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="C30" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="D30" s="0" t="n">
-        <x:v>112.982</x:v>
+        <x:v>119.049</x:v>
       </x:c>
       <x:c r="E30" s="0" t="n">
-        <x:v>22.9193</x:v>
+        <x:v>29.5947</x:v>
       </x:c>
       <x:c r="F30" s="0" t="s">
-        <x:v>110</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G30" s="0" t="s">
-        <x:v>111</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H30" s="0" t="n">
-        <x:v>180</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="I30" s="0" t="s">
-        <x:v>112</x:v>
+        <x:v>85</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:9">
       <x:c r="A31" s="0" t="n">
-        <x:v>70</x:v>
+        <x:v>1243</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="C31" s="0" t="s">
-        <x:v>75</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="D31" s="0" t="n">
-        <x:v>112.982</x:v>
+        <x:v>120.457</x:v>
       </x:c>
       <x:c r="E31" s="0" t="n">
-        <x:v>22.9193</x:v>
+        <x:v>30.2996</x:v>
       </x:c>
       <x:c r="F31" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G31" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H31" s="0" t="n">
-        <x:v>11864</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="I31" s="0" t="s">
-        <x:v>114</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:9">
       <x:c r="A32" s="0" t="n">
-        <x:v>71</x:v>
+        <x:v>1244</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="C32" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D32" s="0" t="n">
-        <x:v>112.982</x:v>
+        <x:v>120.021</x:v>
       </x:c>
       <x:c r="E32" s="0" t="n">
-        <x:v>22.9193</x:v>
+        <x:v>30.242</x:v>
       </x:c>
       <x:c r="F32" s="0" t="s">
-        <x:v>107</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G32" s="0" t="s">
-        <x:v>115</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H32" s="0" t="n">
-        <x:v>12264</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="I32" s="0" t="s">
-        <x:v>116</x:v>
+        <x:v>90</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:9">
       <x:c r="A33" s="0" t="n">
-        <x:v>72</x:v>
+        <x:v>1245</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="C33" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="D33" s="0" t="n">
-        <x:v>112.982</x:v>
+        <x:v>120.206</x:v>
       </x:c>
       <x:c r="E33" s="0" t="n">
-        <x:v>22.9193</x:v>
+        <x:v>30.2911</x:v>
       </x:c>
       <x:c r="F33" s="0" t="s">
-        <x:v>104</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G33" s="0" t="s">
-        <x:v>117</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H33" s="0" t="n">
-        <x:v>12753</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="I33" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>92</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:9">
       <x:c r="A34" s="0" t="n">
-        <x:v>73</x:v>
+        <x:v>1246</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="C34" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="D34" s="0" t="n">
-        <x:v>112.982</x:v>
+        <x:v>120.261</x:v>
       </x:c>
       <x:c r="E34" s="0" t="n">
-        <x:v>22.9193</x:v>
+        <x:v>30.3175</x:v>
       </x:c>
       <x:c r="F34" s="0" t="s">
-        <x:v>119</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G34" s="0" t="s">
-        <x:v>120</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H34" s="0" t="n">
-        <x:v>240</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="I34" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>95</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:9">
       <x:c r="A35" s="0" t="n">
-        <x:v>74</x:v>
+        <x:v>1247</x:v>
       </x:c>
       <x:c r="B35" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="C35" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="D35" s="0" t="n">
-        <x:v>112.982</x:v>
+        <x:v>120.053</x:v>
       </x:c>
       <x:c r="E35" s="0" t="n">
-        <x:v>22.9193</x:v>
+        <x:v>30.3661</x:v>
       </x:c>
       <x:c r="F35" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G35" s="0" t="s">
-        <x:v>123</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H35" s="0" t="n">
-        <x:v>219</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="I35" s="0" t="s">
-        <x:v>124</x:v>
+        <x:v>98</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:9">
       <x:c r="A36" s="0" t="n">
-        <x:v>75</x:v>
+        <x:v>1248</x:v>
       </x:c>
       <x:c r="B36" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="C36" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="D36" s="0" t="n">
-        <x:v>112.982</x:v>
+        <x:v>120.206</x:v>
       </x:c>
       <x:c r="E36" s="0" t="n">
-        <x:v>22.9193</x:v>
+        <x:v>30.3388</x:v>
       </x:c>
       <x:c r="F36" s="0" t="s">
-        <x:v>125</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G36" s="0" t="s">
-        <x:v>126</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H36" s="0" t="n">
-        <x:v>167</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="I36" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>101</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:9">
       <x:c r="A37" s="0" t="n">
-        <x:v>76</x:v>
+        <x:v>1249</x:v>
       </x:c>
       <x:c r="B37" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="C37" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="D37" s="0" t="n">
-        <x:v>112.982</x:v>
+        <x:v>120.21</x:v>
       </x:c>
       <x:c r="E37" s="0" t="n">
-        <x:v>22.9193</x:v>
+        <x:v>30.2153</x:v>
       </x:c>
       <x:c r="F37" s="0" t="s">
-        <x:v>128</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G37" s="0" t="s">
-        <x:v>129</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H37" s="0" t="n">
-        <x:v>163</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="I37" s="0" t="s">
-        <x:v>130</x:v>
+        <x:v>104</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:9">
       <x:c r="A38" s="0" t="n">
+        <x:v>1250</x:v>
+      </x:c>
+      <x:c r="B38" s="0" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="C38" s="0" t="s">
         <x:v>77</x:v>
       </x:c>
-      <x:c r="B38" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="C38" s="0" t="s">
-        <x:v>41</x:v>
-      </x:c>
       <x:c r="D38" s="0" t="n">
-        <x:v>112.982</x:v>
+        <x:v>120.172</x:v>
       </x:c>
       <x:c r="E38" s="0" t="n">
-        <x:v>22.9193</x:v>
+        <x:v>30.3454</x:v>
       </x:c>
       <x:c r="F38" s="0" t="s">
-        <x:v>131</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G38" s="0" t="s">
-        <x:v>132</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H38" s="0" t="n">
-        <x:v>163</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="I38" s="0" t="s">
-        <x:v>133</x:v>
+        <x:v>106</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:9">
       <x:c r="A39" s="0" t="n">
-        <x:v>78</x:v>
+        <x:v>1251</x:v>
       </x:c>
       <x:c r="B39" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="C39" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="D39" s="0" t="n">
-        <x:v>112.982</x:v>
+        <x:v>120.199</x:v>
       </x:c>
       <x:c r="E39" s="0" t="n">
-        <x:v>22.9193</x:v>
+        <x:v>30.3413</x:v>
       </x:c>
       <x:c r="F39" s="0" t="s">
-        <x:v>134</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G39" s="0" t="s">
-        <x:v>135</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H39" s="0" t="n">
-        <x:v>165</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="I39" s="0" t="s">
-        <x:v>136</x:v>
+        <x:v>108</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:9">
       <x:c r="A40" s="0" t="n">
-        <x:v>79</x:v>
+        <x:v>1252</x:v>
       </x:c>
       <x:c r="B40" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="C40" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="D40" s="0" t="n">
-        <x:v>112.982</x:v>
+        <x:v>120.344</x:v>
       </x:c>
       <x:c r="E40" s="0" t="n">
-        <x:v>22.9193</x:v>
+        <x:v>30.3088</x:v>
       </x:c>
       <x:c r="F40" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G40" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H40" s="0" t="n">
-        <x:v>331</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="I40" s="0" t="s">
-        <x:v>139</x:v>
+        <x:v>110</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:9">
       <x:c r="A41" s="0" t="n">
-        <x:v>80</x:v>
+        <x:v>1253</x:v>
       </x:c>
       <x:c r="B41" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="C41" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="D41" s="0" t="n">
-        <x:v>112.982</x:v>
+        <x:v>120.265</x:v>
       </x:c>
       <x:c r="E41" s="0" t="n">
-        <x:v>22.9193</x:v>
+        <x:v>30.3081</x:v>
       </x:c>
       <x:c r="F41" s="0" t="s">
-        <x:v>140</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G41" s="0" t="s">
-        <x:v>141</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H41" s="0" t="n">
-        <x:v>226</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="I41" s="0" t="s">
-        <x:v>142</x:v>
+        <x:v>112</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:9">
       <x:c r="A42" s="0" t="n">
-        <x:v>81</x:v>
+        <x:v>1254</x:v>
       </x:c>
       <x:c r="B42" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="C42" s="0" t="s">
-        <x:v>143</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="D42" s="0" t="n">
-        <x:v>112.982</x:v>
+        <x:v>120.101</x:v>
       </x:c>
       <x:c r="E42" s="0" t="n">
-        <x:v>22.9193</x:v>
+        <x:v>30.3073</x:v>
       </x:c>
       <x:c r="F42" s="0" t="s">
-        <x:v>144</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G42" s="0" t="s">
-        <x:v>145</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H42" s="0" t="n">
-        <x:v>164</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="I42" s="0" t="s">
-        <x:v>146</x:v>
+        <x:v>114</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:9">
       <x:c r="A43" s="0" t="n">
-        <x:v>82</x:v>
+        <x:v>1255</x:v>
       </x:c>
       <x:c r="B43" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="C43" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="D43" s="0" t="n">
-        <x:v>112.982</x:v>
+        <x:v>120.204</x:v>
       </x:c>
       <x:c r="E43" s="0" t="n">
-        <x:v>22.9193</x:v>
+        <x:v>30.1943</x:v>
       </x:c>
       <x:c r="F43" s="0" t="s">
-        <x:v>147</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G43" s="0" t="s">
-        <x:v>148</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H43" s="0" t="n">
-        <x:v>144</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="I43" s="0" t="s">
-        <x:v>149</x:v>
+        <x:v>116</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:9">
       <x:c r="A44" s="0" t="n">
-        <x:v>83</x:v>
+        <x:v>1256</x:v>
       </x:c>
       <x:c r="B44" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="C44" s="0" t="s">
-        <x:v>143</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="D44" s="0" t="n">
-        <x:v>112.982</x:v>
+        <x:v>120.118</x:v>
       </x:c>
       <x:c r="E44" s="0" t="n">
-        <x:v>22.9193</x:v>
+        <x:v>30.285</x:v>
       </x:c>
       <x:c r="F44" s="0" t="s">
-        <x:v>150</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G44" s="0" t="s">
-        <x:v>151</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H44" s="0" t="n">
-        <x:v>244</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="I44" s="0" t="s">
-        <x:v>152</x:v>
+        <x:v>118</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:9">
       <x:c r="A45" s="0" t="n">
-        <x:v>84</x:v>
+        <x:v>1257</x:v>
       </x:c>
       <x:c r="B45" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="C45" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D45" s="0" t="n">
-        <x:v>112.982</x:v>
+        <x:v>120.149</x:v>
       </x:c>
       <x:c r="E45" s="0" t="n">
-        <x:v>22.9193</x:v>
+        <x:v>30.2735</x:v>
       </x:c>
       <x:c r="F45" s="0" t="s">
-        <x:v>153</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G45" s="0" t="s">
-        <x:v>154</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H45" s="0" t="n">
-        <x:v>445</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="I45" s="0" t="s">
-        <x:v>155</x:v>
+        <x:v>121</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:9">
       <x:c r="A46" s="0" t="n">
-        <x:v>85</x:v>
+        <x:v>1258</x:v>
       </x:c>
       <x:c r="B46" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="C46" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D46" s="0" t="n">
-        <x:v>112.982</x:v>
+        <x:v>120.171</x:v>
       </x:c>
       <x:c r="E46" s="0" t="n">
-        <x:v>22.9193</x:v>
+        <x:v>30.3017</x:v>
       </x:c>
       <x:c r="F46" s="0" t="s">
-        <x:v>156</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G46" s="0" t="s">
-        <x:v>157</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H46" s="0" t="n">
-        <x:v>387</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="I46" s="0" t="s">
-        <x:v>158</x:v>
+        <x:v>123</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:9">
       <x:c r="A47" s="0" t="n">
-        <x:v>86</x:v>
+        <x:v>1259</x:v>
       </x:c>
       <x:c r="B47" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="C47" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="D47" s="0" t="n">
-        <x:v>112.982</x:v>
+        <x:v>120.115</x:v>
       </x:c>
       <x:c r="E47" s="0" t="n">
-        <x:v>22.9193</x:v>
+        <x:v>30.353</x:v>
       </x:c>
       <x:c r="F47" s="0" t="s">
-        <x:v>159</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G47" s="0" t="s">
-        <x:v>160</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H47" s="0" t="n">
-        <x:v>541</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="I47" s="0" t="s">
-        <x:v>161</x:v>
+        <x:v>125</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:9">
       <x:c r="A48" s="0" t="n">
-        <x:v>87</x:v>
+        <x:v>1260</x:v>
       </x:c>
       <x:c r="B48" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="C48" s="0" t="s">
-        <x:v>143</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="D48" s="0" t="n">
-        <x:v>112.982</x:v>
+        <x:v>120.199</x:v>
       </x:c>
       <x:c r="E48" s="0" t="n">
-        <x:v>22.9193</x:v>
+        <x:v>30.3413</x:v>
       </x:c>
       <x:c r="F48" s="0" t="s">
-        <x:v>162</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G48" s="0" t="s">
-        <x:v>163</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H48" s="0" t="n">
-        <x:v>358</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="I48" s="0" t="s">
-        <x:v>164</x:v>
+        <x:v>127</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:9">
       <x:c r="A49" s="0" t="n">
-        <x:v>88</x:v>
+        <x:v>1261</x:v>
       </x:c>
       <x:c r="B49" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="C49" s="0" t="s">
-        <x:v>143</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D49" s="0" t="n">
-        <x:v>112.982</x:v>
+        <x:v>119.934</x:v>
       </x:c>
       <x:c r="E49" s="0" t="n">
-        <x:v>22.9193</x:v>
+        <x:v>30.0964</x:v>
       </x:c>
       <x:c r="F49" s="0" t="s">
-        <x:v>165</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G49" s="0" t="s">
-        <x:v>166</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H49" s="0" t="n">
-        <x:v>308</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="I49" s="0" t="s">
-        <x:v>167</x:v>
+        <x:v>129</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:9">
       <x:c r="A50" s="0" t="n">
-        <x:v>89</x:v>
+        <x:v>1262</x:v>
       </x:c>
       <x:c r="B50" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="C50" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D50" s="0" t="n">
-        <x:v>112.982</x:v>
+        <x:v>120.176</x:v>
       </x:c>
       <x:c r="E50" s="0" t="n">
-        <x:v>22.9193</x:v>
+        <x:v>30.2486</x:v>
       </x:c>
       <x:c r="F50" s="0" t="s">
-        <x:v>168</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G50" s="0" t="s">
-        <x:v>169</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H50" s="0" t="n">
-        <x:v>667</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="I50" s="0" t="s">
-        <x:v>170</x:v>
+        <x:v>131</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:9">
       <x:c r="A51" s="0" t="n">
-        <x:v>90</x:v>
+        <x:v>1263</x:v>
       </x:c>
       <x:c r="B51" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="C51" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D51" s="0" t="n">
-        <x:v>112.982</x:v>
+        <x:v>120.218</x:v>
       </x:c>
       <x:c r="E51" s="0" t="n">
-        <x:v>22.9193</x:v>
+        <x:v>30.3393</x:v>
       </x:c>
       <x:c r="F51" s="0" t="s">
-        <x:v>168</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G51" s="0" t="s">
-        <x:v>171</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H51" s="0" t="n">
-        <x:v>1758</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="I51" s="0" t="s">
-        <x:v>172</x:v>
+        <x:v>133</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:9">
       <x:c r="A52" s="0" t="n">
-        <x:v>91</x:v>
+        <x:v>1264</x:v>
       </x:c>
       <x:c r="B52" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="C52" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D52" s="0" t="n">
-        <x:v>112.982</x:v>
+        <x:v>120.289</x:v>
       </x:c>
       <x:c r="E52" s="0" t="n">
-        <x:v>22.9193</x:v>
+        <x:v>30.0115</x:v>
       </x:c>
       <x:c r="F52" s="0" t="s">
-        <x:v>168</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G52" s="0" t="s">
-        <x:v>173</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H52" s="0" t="n">
-        <x:v>340</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="I52" s="0" t="s">
-        <x:v>174</x:v>
+        <x:v>135</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:9">
       <x:c r="A53" s="0" t="n">
-        <x:v>92</x:v>
+        <x:v>1265</x:v>
       </x:c>
       <x:c r="B53" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="C53" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D53" s="0" t="n">
-        <x:v>112.982</x:v>
+        <x:v>120.199</x:v>
       </x:c>
       <x:c r="E53" s="0" t="n">
-        <x:v>22.9193</x:v>
+        <x:v>30.2565</x:v>
       </x:c>
       <x:c r="F53" s="0" t="s">
-        <x:v>168</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G53" s="0" t="s">
-        <x:v>175</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H53" s="0" t="n">
-        <x:v>1666</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="I53" s="0" t="s">
-        <x:v>176</x:v>
+        <x:v>137</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:9">
       <x:c r="A54" s="0" t="n">
-        <x:v>93</x:v>
+        <x:v>1266</x:v>
       </x:c>
       <x:c r="B54" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="C54" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D54" s="0" t="n">
-        <x:v>112.982</x:v>
+        <x:v>120.197</x:v>
       </x:c>
       <x:c r="E54" s="0" t="n">
-        <x:v>22.9193</x:v>
+        <x:v>30.3287</x:v>
       </x:c>
       <x:c r="F54" s="0" t="s">
-        <x:v>168</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G54" s="0" t="s">
-        <x:v>177</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H54" s="0" t="n">
-        <x:v>1028</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="I54" s="0" t="s">
-        <x:v>178</x:v>
+        <x:v>139</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:9">
       <x:c r="A55" s="0" t="n">
-        <x:v>94</x:v>
+        <x:v>1267</x:v>
       </x:c>
       <x:c r="B55" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="C55" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="D55" s="0" t="n">
-        <x:v>112.982</x:v>
+        <x:v>120.25</x:v>
       </x:c>
       <x:c r="E55" s="0" t="n">
-        <x:v>22.9193</x:v>
+        <x:v>30.1311</x:v>
       </x:c>
       <x:c r="F55" s="0" t="s">
-        <x:v>168</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G55" s="0" t="s">
-        <x:v>179</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H55" s="0" t="n">
-        <x:v>922</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="I55" s="0" t="s">
-        <x:v>180</x:v>
+        <x:v>142</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:9">
       <x:c r="A56" s="0" t="n">
-        <x:v>95</x:v>
+        <x:v>1268</x:v>
       </x:c>
       <x:c r="B56" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="C56" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="D56" s="0" t="n">
-        <x:v>112.982</x:v>
+        <x:v>120.188</x:v>
       </x:c>
       <x:c r="E56" s="0" t="n">
-        <x:v>22.9193</x:v>
+        <x:v>30.2025</x:v>
       </x:c>
       <x:c r="F56" s="0" t="s">
-        <x:v>168</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G56" s="0" t="s">
-        <x:v>181</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H56" s="0" t="n">
-        <x:v>1139</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="I56" s="0" t="s">
-        <x:v>182</x:v>
+        <x:v>145</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:9">
       <x:c r="A57" s="0" t="n">
-        <x:v>96</x:v>
+        <x:v>1269</x:v>
       </x:c>
       <x:c r="B57" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="C57" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="D57" s="0" t="n">
-        <x:v>112.982</x:v>
+        <x:v>120.279</x:v>
       </x:c>
       <x:c r="E57" s="0" t="n">
-        <x:v>22.9193</x:v>
+        <x:v>30.4271</x:v>
       </x:c>
       <x:c r="F57" s="0" t="s">
-        <x:v>168</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G57" s="0" t="s">
-        <x:v>183</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H57" s="0" t="n">
-        <x:v>989</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="I57" s="0" t="s">
-        <x:v>184</x:v>
+        <x:v>147</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:9">
       <x:c r="A58" s="0" t="n">
-        <x:v>97</x:v>
+        <x:v>1270</x:v>
       </x:c>
       <x:c r="B58" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="C58" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="D58" s="0" t="n">
-        <x:v>112.982</x:v>
+        <x:v>120.125</x:v>
       </x:c>
       <x:c r="E58" s="0" t="n">
-        <x:v>22.9193</x:v>
+        <x:v>30.2848</x:v>
       </x:c>
       <x:c r="F58" s="0" t="s">
-        <x:v>168</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G58" s="0" t="s">
-        <x:v>185</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H58" s="0" t="n">
-        <x:v>915</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="I58" s="0" t="s">
-        <x:v>186</x:v>
+        <x:v>149</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:9">
       <x:c r="A59" s="0" t="n">
-        <x:v>98</x:v>
+        <x:v>1271</x:v>
       </x:c>
       <x:c r="B59" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="C59" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="D59" s="0" t="n">
-        <x:v>112.982</x:v>
+        <x:v>120.211</x:v>
       </x:c>
       <x:c r="E59" s="0" t="n">
-        <x:v>22.9193</x:v>
+        <x:v>30.2717</x:v>
       </x:c>
       <x:c r="F59" s="0" t="s">
-        <x:v>168</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G59" s="0" t="s">
-        <x:v>187</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H59" s="0" t="n">
-        <x:v>335</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="I59" s="0" t="s">
-        <x:v>188</x:v>
+        <x:v>151</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:9">
       <x:c r="A60" s="0" t="n">
-        <x:v>99</x:v>
+        <x:v>1272</x:v>
       </x:c>
       <x:c r="B60" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="C60" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="D60" s="0" t="n">
-        <x:v>112.982</x:v>
+        <x:v>120.104</x:v>
       </x:c>
       <x:c r="E60" s="0" t="n">
-        <x:v>22.9193</x:v>
+        <x:v>30.2802</x:v>
       </x:c>
       <x:c r="F60" s="0" t="s">
-        <x:v>168</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G60" s="0" t="s">
-        <x:v>189</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H60" s="0" t="n">
-        <x:v>231</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="I60" s="0" t="s">
-        <x:v>190</x:v>
+        <x:v>153</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:9">
       <x:c r="A61" s="0" t="n">
-        <x:v>100</x:v>
+        <x:v>1273</x:v>
       </x:c>
       <x:c r="B61" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="C61" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="D61" s="0" t="n">
-        <x:v>112.982</x:v>
+        <x:v>119.011</x:v>
       </x:c>
       <x:c r="E61" s="0" t="n">
-        <x:v>22.9193</x:v>
+        <x:v>29.5913</x:v>
       </x:c>
       <x:c r="F61" s="0" t="s">
-        <x:v>168</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G61" s="0" t="s">
-        <x:v>191</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H61" s="0" t="n">
-        <x:v>920</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="I61" s="0" t="s">
-        <x:v>192</x:v>
+        <x:v>155</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:9">
       <x:c r="A62" s="0" t="n">
-        <x:v>101</x:v>
+        <x:v>1274</x:v>
       </x:c>
       <x:c r="B62" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="C62" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="D62" s="0" t="n">
-        <x:v>112.982</x:v>
+        <x:v>119.83</x:v>
       </x:c>
       <x:c r="E62" s="0" t="n">
-        <x:v>22.9193</x:v>
+        <x:v>30.2532</x:v>
       </x:c>
       <x:c r="F62" s="0" t="s">
-        <x:v>168</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G62" s="0" t="s">
-        <x:v>193</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H62" s="0" t="n">
-        <x:v>586</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="I62" s="0" t="s">
-        <x:v>194</x:v>
+        <x:v>157</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:9">
       <x:c r="A63" s="0" t="n">
-        <x:v>102</x:v>
+        <x:v>1275</x:v>
       </x:c>
       <x:c r="B63" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="C63" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="D63" s="0" t="n">
-        <x:v>112.982</x:v>
+        <x:v>119.981</x:v>
       </x:c>
       <x:c r="E63" s="0" t="n">
-        <x:v>22.9193</x:v>
+        <x:v>30.234</x:v>
       </x:c>
       <x:c r="F63" s="0" t="s">
-        <x:v>168</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G63" s="0" t="s">
-        <x:v>195</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H63" s="0" t="n">
-        <x:v>144</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="I63" s="0" t="s">
-        <x:v>196</x:v>
+        <x:v>159</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:9">
       <x:c r="A64" s="0" t="n">
-        <x:v>103</x:v>
+        <x:v>1276</x:v>
       </x:c>
       <x:c r="B64" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="C64" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D64" s="0" t="n">
-        <x:v>112.982</x:v>
+        <x:v>119.975</x:v>
       </x:c>
       <x:c r="E64" s="0" t="n">
-        <x:v>22.9193</x:v>
+        <x:v>30.3899</x:v>
       </x:c>
       <x:c r="F64" s="0" t="s">
-        <x:v>168</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G64" s="0" t="s">
-        <x:v>197</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H64" s="0" t="n">
-        <x:v>187</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="I64" s="0" t="s">
-        <x:v>198</x:v>
+        <x:v>161</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:9">
       <x:c r="A65" s="0" t="n">
-        <x:v>104</x:v>
+        <x:v>1277</x:v>
       </x:c>
       <x:c r="B65" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="C65" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D65" s="0" t="n">
-        <x:v>112.982</x:v>
+        <x:v>119.983</x:v>
       </x:c>
       <x:c r="E65" s="0" t="n">
-        <x:v>22.9193</x:v>
+        <x:v>30.1993</x:v>
       </x:c>
       <x:c r="F65" s="0" t="s">
-        <x:v>168</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G65" s="0" t="s">
-        <x:v>199</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H65" s="0" t="n">
-        <x:v>126</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="I65" s="0" t="s">
-        <x:v>200</x:v>
+        <x:v>163</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:9">
       <x:c r="A66" s="0" t="n">
-        <x:v>105</x:v>
+        <x:v>1278</x:v>
       </x:c>
       <x:c r="B66" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="C66" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="D66" s="0" t="n">
-        <x:v>112.982</x:v>
+        <x:v>120.283</x:v>
       </x:c>
       <x:c r="E66" s="0" t="n">
-        <x:v>22.9193</x:v>
+        <x:v>30.1347</x:v>
       </x:c>
       <x:c r="F66" s="0" t="s">
-        <x:v>168</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G66" s="0" t="s">
-        <x:v>201</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H66" s="0" t="n">
-        <x:v>152</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="I66" s="0" t="s">
-        <x:v>202</x:v>
+        <x:v>165</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:9">
       <x:c r="A67" s="0" t="n">
-        <x:v>106</x:v>
+        <x:v>1279</x:v>
       </x:c>
       <x:c r="B67" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="C67" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="D67" s="0" t="n">
-        <x:v>112.982</x:v>
+        <x:v>120.163</x:v>
       </x:c>
       <x:c r="E67" s="0" t="n">
-        <x:v>22.9193</x:v>
+        <x:v>30.2482</x:v>
       </x:c>
       <x:c r="F67" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="G67" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="H67" s="0" t="n">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="I67" s="0" t="s">
         <x:v>168</x:v>
-      </x:c>
-      <x:c r="G67" s="0" t="s">
-        <x:v>203</x:v>
-      </x:c>
-      <x:c r="H67" s="0" t="n">
-        <x:v>226</x:v>
-      </x:c>
-      <x:c r="I67" s="0" t="s">
-        <x:v>204</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:9">
       <x:c r="A68" s="0" t="n">
-        <x:v>107</x:v>
+        <x:v>1280</x:v>
       </x:c>
       <x:c r="B68" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="C68" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="D68" s="0" t="n">
-        <x:v>112.982</x:v>
+        <x:v>120.177</x:v>
       </x:c>
       <x:c r="E68" s="0" t="n">
-        <x:v>22.9193</x:v>
+        <x:v>30.2541</x:v>
       </x:c>
       <x:c r="F68" s="0" t="s">
-        <x:v>168</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G68" s="0" t="s">
-        <x:v>205</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H68" s="0" t="n">
-        <x:v>161</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="I68" s="0" t="s">
-        <x:v>206</x:v>
+        <x:v>170</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:9">
       <x:c r="A69" s="0" t="n">
-        <x:v>108</x:v>
+        <x:v>1281</x:v>
       </x:c>
       <x:c r="B69" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="C69" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D69" s="0" t="n">
-        <x:v>112.982</x:v>
+        <x:v>119.717</x:v>
       </x:c>
       <x:c r="E69" s="0" t="n">
-        <x:v>22.9193</x:v>
+        <x:v>30.246</x:v>
       </x:c>
       <x:c r="F69" s="0" t="s">
-        <x:v>168</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G69" s="0" t="s">
-        <x:v>207</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H69" s="0" t="n">
-        <x:v>168</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="I69" s="0" t="s">
-        <x:v>208</x:v>
+        <x:v>172</x:v>
       </x:c>
     </x:row>
     <x:row r="70" spans="1:9">
       <x:c r="A70" s="0" t="n">
-        <x:v>109</x:v>
+        <x:v>1282</x:v>
       </x:c>
       <x:c r="B70" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="C70" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="D70" s="0" t="n">
-        <x:v>112.982</x:v>
+        <x:v>119.717</x:v>
       </x:c>
       <x:c r="E70" s="0" t="n">
-        <x:v>22.9193</x:v>
+        <x:v>30.2258</x:v>
       </x:c>
       <x:c r="F70" s="0" t="s">
-        <x:v>168</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G70" s="0" t="s">
-        <x:v>209</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H70" s="0" t="n">
-        <x:v>321</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="I70" s="0" t="s">
-        <x:v>210</x:v>
+        <x:v>174</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:9">
       <x:c r="A71" s="0" t="n">
-        <x:v>110</x:v>
+        <x:v>1283</x:v>
       </x:c>
       <x:c r="B71" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="C71" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D71" s="0" t="n">
-        <x:v>112.982</x:v>
+        <x:v>120.3</x:v>
       </x:c>
       <x:c r="E71" s="0" t="n">
-        <x:v>22.9193</x:v>
+        <x:v>30.3903</x:v>
       </x:c>
       <x:c r="F71" s="0" t="s">
-        <x:v>168</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G71" s="0" t="s">
-        <x:v>211</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H71" s="0" t="n">
-        <x:v>915</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="I71" s="0" t="s">
-        <x:v>212</x:v>
+        <x:v>176</x:v>
       </x:c>
     </x:row>
     <x:row r="72" spans="1:9">
       <x:c r="A72" s="0" t="n">
-        <x:v>111</x:v>
+        <x:v>1284</x:v>
       </x:c>
       <x:c r="B72" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="C72" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="D72" s="0" t="n">
-        <x:v>112.982</x:v>
+        <x:v>120.138</x:v>
       </x:c>
       <x:c r="E72" s="0" t="n">
-        <x:v>22.9193</x:v>
+        <x:v>30.2903</x:v>
       </x:c>
       <x:c r="F72" s="0" t="s">
-        <x:v>168</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G72" s="0" t="s">
-        <x:v>213</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H72" s="0" t="n">
-        <x:v>1036</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="I72" s="0" t="s">
-        <x:v>214</x:v>
+        <x:v>178</x:v>
       </x:c>
     </x:row>
     <x:row r="73" spans="1:9">
       <x:c r="A73" s="0" t="n">
-        <x:v>112</x:v>
+        <x:v>1285</x:v>
       </x:c>
       <x:c r="B73" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="C73" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="D73" s="0" t="n">
-        <x:v>112.982</x:v>
+        <x:v>120.344</x:v>
       </x:c>
       <x:c r="E73" s="0" t="n">
-        <x:v>22.9193</x:v>
+        <x:v>30.3068</x:v>
       </x:c>
       <x:c r="F73" s="0" t="s">
-        <x:v>168</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G73" s="0" t="s">
-        <x:v>215</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H73" s="0" t="n">
-        <x:v>153</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="I73" s="0" t="s">
-        <x:v>216</x:v>
+        <x:v>180</x:v>
       </x:c>
     </x:row>
     <x:row r="74" spans="1:9">
       <x:c r="A74" s="0" t="n">
-        <x:v>113</x:v>
+        <x:v>1286</x:v>
       </x:c>
       <x:c r="B74" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="C74" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="D74" s="0" t="n">
-        <x:v>112.982</x:v>
+        <x:v>120.17</x:v>
       </x:c>
       <x:c r="E74" s="0" t="n">
-        <x:v>22.9193</x:v>
+        <x:v>30.2794</x:v>
       </x:c>
       <x:c r="F74" s="0" t="s">
-        <x:v>168</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G74" s="0" t="s">
-        <x:v>217</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H74" s="0" t="n">
-        <x:v>271</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="I74" s="0" t="s">
-        <x:v>218</x:v>
+        <x:v>182</x:v>
       </x:c>
     </x:row>
     <x:row r="75" spans="1:9">
       <x:c r="A75" s="0" t="n">
-        <x:v>114</x:v>
+        <x:v>1287</x:v>
       </x:c>
       <x:c r="B75" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="C75" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D75" s="0" t="n">
-        <x:v>112.982</x:v>
+        <x:v>120.201</x:v>
       </x:c>
       <x:c r="E75" s="0" t="n">
-        <x:v>22.9193</x:v>
+        <x:v>30.1704</x:v>
       </x:c>
       <x:c r="F75" s="0" t="s">
-        <x:v>168</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G75" s="0" t="s">
-        <x:v>219</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H75" s="0" t="n">
-        <x:v>1008</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="I75" s="0" t="s">
-        <x:v>220</x:v>
+        <x:v>184</x:v>
       </x:c>
     </x:row>
     <x:row r="76" spans="1:9">
       <x:c r="A76" s="0" t="n">
-        <x:v>115</x:v>
+        <x:v>1288</x:v>
       </x:c>
       <x:c r="B76" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="C76" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="D76" s="0" t="n">
-        <x:v>112.982</x:v>
+        <x:v>120.226</x:v>
       </x:c>
       <x:c r="E76" s="0" t="n">
-        <x:v>22.9193</x:v>
+        <x:v>30.2727</x:v>
       </x:c>
       <x:c r="F76" s="0" t="s">
-        <x:v>168</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G76" s="0" t="s">
-        <x:v>221</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H76" s="0" t="n">
-        <x:v>915</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="I76" s="0" t="s">
-        <x:v>222</x:v>
+        <x:v>186</x:v>
       </x:c>
     </x:row>
     <x:row r="77" spans="1:9">
       <x:c r="A77" s="0" t="n">
-        <x:v>116</x:v>
+        <x:v>1289</x:v>
       </x:c>
       <x:c r="B77" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="C77" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="D77" s="0" t="n">
-        <x:v>112.982</x:v>
+        <x:v>120.265</x:v>
       </x:c>
       <x:c r="E77" s="0" t="n">
-        <x:v>22.9193</x:v>
+        <x:v>30.3949</x:v>
       </x:c>
       <x:c r="F77" s="0" t="s">
-        <x:v>168</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G77" s="0" t="s">
-        <x:v>223</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H77" s="0" t="n">
-        <x:v>181</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="I77" s="0" t="s">
-        <x:v>224</x:v>
+        <x:v>188</x:v>
       </x:c>
     </x:row>
     <x:row r="78" spans="1:9">
       <x:c r="A78" s="0" t="n">
-        <x:v>117</x:v>
+        <x:v>1290</x:v>
       </x:c>
       <x:c r="B78" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="C78" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="D78" s="0" t="n">
-        <x:v>112.982</x:v>
+        <x:v>120.179</x:v>
       </x:c>
       <x:c r="E78" s="0" t="n">
-        <x:v>22.9193</x:v>
+        <x:v>30.2845</x:v>
       </x:c>
       <x:c r="F78" s="0" t="s">
-        <x:v>168</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G78" s="0" t="s">
-        <x:v>225</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H78" s="0" t="n">
-        <x:v>558</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="I78" s="0" t="s">
-        <x:v>226</x:v>
+        <x:v>190</x:v>
       </x:c>
     </x:row>
     <x:row r="79" spans="1:9">
       <x:c r="A79" s="0" t="n">
-        <x:v>118</x:v>
+        <x:v>1291</x:v>
       </x:c>
       <x:c r="B79" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="C79" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="D79" s="0" t="n">
-        <x:v>112.982</x:v>
+        <x:v>120.179</x:v>
       </x:c>
       <x:c r="E79" s="0" t="n">
-        <x:v>22.9193</x:v>
+        <x:v>30.3267</x:v>
       </x:c>
       <x:c r="F79" s="0" t="s">
-        <x:v>168</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G79" s="0" t="s">
-        <x:v>227</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H79" s="0" t="n">
-        <x:v>870</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="I79" s="0" t="s">
-        <x:v>228</x:v>
+        <x:v>192</x:v>
       </x:c>
     </x:row>
     <x:row r="80" spans="1:9">
       <x:c r="A80" s="0" t="n">
-        <x:v>119</x:v>
+        <x:v>1292</x:v>
       </x:c>
       <x:c r="B80" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="C80" s="0" t="s">
-        <x:v>143</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="D80" s="0" t="n">
-        <x:v>112.982</x:v>
+        <x:v>120.308</x:v>
       </x:c>
       <x:c r="E80" s="0" t="n">
-        <x:v>22.9193</x:v>
+        <x:v>30.4227</x:v>
       </x:c>
       <x:c r="F80" s="0" t="s">
-        <x:v>229</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G80" s="0" t="s">
-        <x:v>230</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H80" s="0" t="n">
-        <x:v>399</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="I80" s="0" t="s">
-        <x:v>231</x:v>
+        <x:v>194</x:v>
       </x:c>
     </x:row>
     <x:row r="81" spans="1:9">
       <x:c r="A81" s="0" t="n">
-        <x:v>120</x:v>
+        <x:v>1293</x:v>
       </x:c>
       <x:c r="B81" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="C81" s="0" t="s">
-        <x:v>75</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D81" s="0" t="n">
-        <x:v>112.982</x:v>
+        <x:v>120.146</x:v>
       </x:c>
       <x:c r="E81" s="0" t="n">
-        <x:v>22.9193</x:v>
+        <x:v>30.1859</x:v>
       </x:c>
       <x:c r="F81" s="0" t="s">
-        <x:v>232</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G81" s="0" t="s">
-        <x:v>233</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H81" s="0" t="n">
-        <x:v>151</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="I81" s="0" t="s">
-        <x:v>234</x:v>
+        <x:v>196</x:v>
       </x:c>
     </x:row>
     <x:row r="82" spans="1:9">
       <x:c r="A82" s="0" t="n">
-        <x:v>121</x:v>
+        <x:v>1294</x:v>
       </x:c>
       <x:c r="B82" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="C82" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="D82" s="0" t="n">
-        <x:v>112.982</x:v>
+        <x:v>120.253</x:v>
       </x:c>
       <x:c r="E82" s="0" t="n">
-        <x:v>22.9193</x:v>
+        <x:v>30.1982</x:v>
       </x:c>
       <x:c r="F82" s="0" t="s">
-        <x:v>235</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G82" s="0" t="s">
-        <x:v>236</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H82" s="0" t="n">
-        <x:v>151</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="I82" s="0" t="s">
-        <x:v>237</x:v>
+        <x:v>198</x:v>
       </x:c>
     </x:row>
     <x:row r="83" spans="1:9">
       <x:c r="A83" s="0" t="n">
-        <x:v>122</x:v>
+        <x:v>1295</x:v>
       </x:c>
       <x:c r="B83" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="C83" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="D83" s="0" t="n">
-        <x:v>112.982</x:v>
+        <x:v>120.229</x:v>
       </x:c>
       <x:c r="E83" s="0" t="n">
-        <x:v>22.9193</x:v>
+        <x:v>30.3513</x:v>
       </x:c>
       <x:c r="F83" s="0" t="s">
-        <x:v>168</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G83" s="0" t="s">
-        <x:v>238</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H83" s="0" t="n">
-        <x:v>258</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="I83" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>200</x:v>
       </x:c>
     </x:row>
     <x:row r="84" spans="1:9">
       <x:c r="A84" s="0" t="n">
-        <x:v>123</x:v>
+        <x:v>1296</x:v>
       </x:c>
       <x:c r="B84" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="C84" s="0" t="s">
-        <x:v>75</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="D84" s="0" t="n">
-        <x:v>112.982</x:v>
+        <x:v>120.031</x:v>
       </x:c>
       <x:c r="E84" s="0" t="n">
-        <x:v>22.9193</x:v>
+        <x:v>30.2722</x:v>
       </x:c>
       <x:c r="F84" s="0" t="s">
-        <x:v>232</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G84" s="0" t="s">
-        <x:v>240</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H84" s="0" t="n">
-        <x:v>153</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="I84" s="0" t="s">
-        <x:v>241</x:v>
+        <x:v>202</x:v>
       </x:c>
     </x:row>
     <x:row r="85" spans="1:9">
       <x:c r="A85" s="0" t="n">
-        <x:v>124</x:v>
+        <x:v>1297</x:v>
       </x:c>
       <x:c r="B85" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="C85" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D85" s="0" t="n">
-        <x:v>112.982</x:v>
+        <x:v>120.21</x:v>
       </x:c>
       <x:c r="E85" s="0" t="n">
-        <x:v>22.9193</x:v>
+        <x:v>30.2584</x:v>
       </x:c>
       <x:c r="F85" s="0" t="s">
-        <x:v>235</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G85" s="0" t="s">
-        <x:v>242</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H85" s="0" t="n">
-        <x:v>200</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="I85" s="0" t="s">
-        <x:v>243</x:v>
+        <x:v>204</x:v>
       </x:c>
     </x:row>
     <x:row r="86" spans="1:9">
       <x:c r="A86" s="0" t="n">
-        <x:v>125</x:v>
+        <x:v>1298</x:v>
       </x:c>
       <x:c r="B86" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="C86" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="D86" s="0" t="n">
-        <x:v>112.982</x:v>
+        <x:v>119.948</x:v>
       </x:c>
       <x:c r="E86" s="0" t="n">
-        <x:v>22.9193</x:v>
+        <x:v>30.2558</x:v>
       </x:c>
       <x:c r="F86" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G86" s="0" t="s">
-        <x:v>245</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H86" s="0" t="n">
-        <x:v>411</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="I86" s="0" t="s">
-        <x:v>246</x:v>
+        <x:v>206</x:v>
       </x:c>
     </x:row>
     <x:row r="87" spans="1:9">
       <x:c r="A87" s="0" t="n">
-        <x:v>126</x:v>
+        <x:v>1299</x:v>
       </x:c>
       <x:c r="B87" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="C87" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="D87" s="0" t="n">
-        <x:v>112.982</x:v>
+        <x:v>120.245</x:v>
       </x:c>
       <x:c r="E87" s="0" t="n">
-        <x:v>22.9193</x:v>
+        <x:v>30.4597</x:v>
       </x:c>
       <x:c r="F87" s="0" t="s">
-        <x:v>168</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G87" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H87" s="0" t="n">
-        <x:v>121</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="I87" s="0" t="s">
-        <x:v>248</x:v>
+        <x:v>208</x:v>
       </x:c>
     </x:row>
     <x:row r="88" spans="1:9">
       <x:c r="A88" s="0" t="n">
-        <x:v>127</x:v>
+        <x:v>1300</x:v>
       </x:c>
       <x:c r="B88" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="C88" s="0" t="s">
-        <x:v>75</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D88" s="0" t="n">
-        <x:v>112.982</x:v>
+        <x:v>120.294</x:v>
       </x:c>
       <x:c r="E88" s="0" t="n">
-        <x:v>22.9193</x:v>
+        <x:v>30.3988</x:v>
       </x:c>
       <x:c r="F88" s="0" t="s">
-        <x:v>232</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G88" s="0" t="s">
-        <x:v>249</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H88" s="0" t="n">
-        <x:v>147</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="I88" s="0" t="s">
-        <x:v>250</x:v>
+        <x:v>210</x:v>
       </x:c>
     </x:row>
     <x:row r="89" spans="1:9">
       <x:c r="A89" s="0" t="n">
-        <x:v>128</x:v>
+        <x:v>1301</x:v>
       </x:c>
       <x:c r="B89" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="C89" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="D89" s="0" t="n">
-        <x:v>112.982</x:v>
+        <x:v>120.241</x:v>
       </x:c>
       <x:c r="E89" s="0" t="n">
-        <x:v>22.9193</x:v>
+        <x:v>30.2149</x:v>
       </x:c>
       <x:c r="F89" s="0" t="s">
-        <x:v>168</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G89" s="0" t="s">
-        <x:v>251</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H89" s="0" t="n">
-        <x:v>209</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="I89" s="0" t="s">
-        <x:v>252</x:v>
+        <x:v>212</x:v>
       </x:c>
     </x:row>
     <x:row r="90" spans="1:9">
       <x:c r="A90" s="0" t="n">
-        <x:v>129</x:v>
+        <x:v>1302</x:v>
       </x:c>
       <x:c r="B90" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="C90" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="D90" s="0" t="n">
-        <x:v>112.982</x:v>
+        <x:v>120.162</x:v>
       </x:c>
       <x:c r="E90" s="0" t="n">
-        <x:v>22.9193</x:v>
+        <x:v>30.2451</x:v>
       </x:c>
       <x:c r="F90" s="0" t="s">
-        <x:v>235</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G90" s="0" t="s">
-        <x:v>253</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H90" s="0" t="n">
-        <x:v>205</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="I90" s="0" t="s">
-        <x:v>254</x:v>
+        <x:v>214</x:v>
       </x:c>
     </x:row>
     <x:row r="91" spans="1:9">
       <x:c r="A91" s="0" t="n">
-        <x:v>130</x:v>
+        <x:v>1303</x:v>
       </x:c>
       <x:c r="B91" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="C91" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="D91" s="0" t="n">
-        <x:v>112.982</x:v>
+        <x:v>119.729</x:v>
       </x:c>
       <x:c r="E91" s="0" t="n">
-        <x:v>22.9193</x:v>
+        <x:v>30.2443</x:v>
       </x:c>
       <x:c r="F91" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G91" s="0" t="s">
-        <x:v>255</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H91" s="0" t="n">
-        <x:v>384</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="I91" s="0" t="s">
-        <x:v>256</x:v>
+        <x:v>216</x:v>
       </x:c>
     </x:row>
     <x:row r="92" spans="1:9">
       <x:c r="A92" s="0" t="n">
-        <x:v>131</x:v>
+        <x:v>1304</x:v>
       </x:c>
       <x:c r="B92" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="C92" s="0" t="s">
-        <x:v>143</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="D92" s="0" t="n">
-        <x:v>112.982</x:v>
+        <x:v>120.175</x:v>
       </x:c>
       <x:c r="E92" s="0" t="n">
-        <x:v>22.9193</x:v>
+        <x:v>30.2188</x:v>
       </x:c>
       <x:c r="F92" s="0" t="s">
-        <x:v>257</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G92" s="0" t="s">
-        <x:v>258</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H92" s="0" t="n">
-        <x:v>623</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="I92" s="0" t="s">
-        <x:v>259</x:v>
+        <x:v>218</x:v>
       </x:c>
     </x:row>
     <x:row r="93" spans="1:9">
       <x:c r="A93" s="0" t="n">
-        <x:v>132</x:v>
+        <x:v>1305</x:v>
       </x:c>
       <x:c r="B93" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="C93" s="0" t="s">
-        <x:v>143</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="D93" s="0" t="n">
-        <x:v>112.982</x:v>
+        <x:v>120.182</x:v>
       </x:c>
       <x:c r="E93" s="0" t="n">
-        <x:v>22.9193</x:v>
+        <x:v>30.225</x:v>
       </x:c>
       <x:c r="F93" s="0" t="s">
-        <x:v>229</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G93" s="0" t="s">
-        <x:v>260</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H93" s="0" t="n">
-        <x:v>873</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="I93" s="0" t="s">
-        <x:v>261</x:v>
+        <x:v>220</x:v>
       </x:c>
     </x:row>
     <x:row r="94" spans="1:9">
       <x:c r="A94" s="0" t="n">
-        <x:v>133</x:v>
+        <x:v>1306</x:v>
       </x:c>
       <x:c r="B94" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="C94" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="D94" s="0" t="n">
-        <x:v>112.982</x:v>
+        <x:v>120.22</x:v>
       </x:c>
       <x:c r="E94" s="0" t="n">
-        <x:v>22.9193</x:v>
+        <x:v>30.3436</x:v>
       </x:c>
       <x:c r="F94" s="0" t="s">
-        <x:v>168</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G94" s="0" t="s">
-        <x:v>262</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H94" s="0" t="n">
-        <x:v>1637</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="I94" s="0" t="s">
-        <x:v>263</x:v>
+        <x:v>222</x:v>
       </x:c>
     </x:row>
     <x:row r="95" spans="1:9">
       <x:c r="A95" s="0" t="n">
-        <x:v>134</x:v>
+        <x:v>1307</x:v>
       </x:c>
       <x:c r="B95" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="C95" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="D95" s="0" t="n">
-        <x:v>112.982</x:v>
+        <x:v>120.055</x:v>
       </x:c>
       <x:c r="E95" s="0" t="n">
-        <x:v>22.9193</x:v>
+        <x:v>30.2451</x:v>
       </x:c>
       <x:c r="F95" s="0" t="s">
-        <x:v>168</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G95" s="0" t="s">
-        <x:v>264</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H95" s="0" t="n">
-        <x:v>1007</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="I95" s="0" t="s">
-        <x:v>265</x:v>
+        <x:v>224</x:v>
       </x:c>
     </x:row>
     <x:row r="96" spans="1:9">
       <x:c r="A96" s="0" t="n">
-        <x:v>135</x:v>
+        <x:v>1308</x:v>
       </x:c>
       <x:c r="B96" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="C96" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D96" s="0" t="n">
-        <x:v>112.982</x:v>
+        <x:v>120.395</x:v>
       </x:c>
       <x:c r="E96" s="0" t="n">
-        <x:v>22.9193</x:v>
+        <x:v>30.3274</x:v>
       </x:c>
       <x:c r="F96" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G96" s="0" t="s">
-        <x:v>266</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H96" s="0" t="n">
-        <x:v>140</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="I96" s="0" t="s">
-        <x:v>267</x:v>
+        <x:v>226</x:v>
       </x:c>
     </x:row>
     <x:row r="97" spans="1:9">
       <x:c r="A97" s="0" t="n">
-        <x:v>136</x:v>
+        <x:v>1309</x:v>
       </x:c>
       <x:c r="B97" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="C97" s="0" t="s">
-        <x:v>143</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="D97" s="0" t="n">
-        <x:v>112.982</x:v>
+        <x:v>119.964</x:v>
       </x:c>
       <x:c r="E97" s="0" t="n">
-        <x:v>22.9193</x:v>
+        <x:v>30.2464</x:v>
       </x:c>
       <x:c r="F97" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="G97" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="H97" s="0" t="n">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="I97" s="0" t="s">
         <x:v>229</x:v>
-      </x:c>
-      <x:c r="G97" s="0" t="s">
-        <x:v>268</x:v>
-      </x:c>
-      <x:c r="H97" s="0" t="n">
-        <x:v>273</x:v>
-      </x:c>
-      <x:c r="I97" s="0" t="s">
-        <x:v>269</x:v>
       </x:c>
     </x:row>
     <x:row r="98" spans="1:9">
       <x:c r="A98" s="0" t="n">
-        <x:v>137</x:v>
+        <x:v>1310</x:v>
       </x:c>
       <x:c r="B98" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="C98" s="0" t="s">
-        <x:v>270</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="D98" s="0" t="n">
-        <x:v>112.982</x:v>
+        <x:v>119.302</x:v>
       </x:c>
       <x:c r="E98" s="0" t="n">
-        <x:v>22.9193</x:v>
+        <x:v>29.4771</x:v>
       </x:c>
       <x:c r="F98" s="0" t="s">
-        <x:v>271</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G98" s="0" t="s">
-        <x:v>272</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H98" s="0" t="n">
-        <x:v>1934</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="I98" s="0" t="s">
-        <x:v>273</x:v>
+        <x:v>231</x:v>
       </x:c>
     </x:row>
     <x:row r="99" spans="1:9">
       <x:c r="A99" s="0" t="n">
-        <x:v>138</x:v>
+        <x:v>1311</x:v>
       </x:c>
       <x:c r="B99" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="C99" s="0" t="s">
         <x:v>45</x:v>
       </x:c>
       <x:c r="D99" s="0" t="n">
-        <x:v>112.982</x:v>
+        <x:v>119.031</x:v>
       </x:c>
       <x:c r="E99" s="0" t="n">
-        <x:v>22.9193</x:v>
+        <x:v>29.5977</x:v>
       </x:c>
       <x:c r="F99" s="0" t="s">
-        <x:v>274</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G99" s="0" t="s">
-        <x:v>275</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H99" s="0" t="n">
-        <x:v>216</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="I99" s="0" t="s">
-        <x:v>276</x:v>
+        <x:v>233</x:v>
       </x:c>
     </x:row>
     <x:row r="100" spans="1:9">
       <x:c r="A100" s="0" t="n">
-        <x:v>139</x:v>
+        <x:v>1312</x:v>
       </x:c>
       <x:c r="B100" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="C100" s="0" t="s">
-        <x:v>270</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="D100" s="0" t="n">
-        <x:v>112.982</x:v>
+        <x:v>120.175</x:v>
       </x:c>
       <x:c r="E100" s="0" t="n">
-        <x:v>22.9193</x:v>
+        <x:v>30.2439</x:v>
       </x:c>
       <x:c r="F100" s="0" t="s">
-        <x:v>277</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G100" s="0" t="s">
-        <x:v>278</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H100" s="0" t="n">
-        <x:v>208</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="I100" s="0" t="s">
-        <x:v>279</x:v>
+        <x:v>235</x:v>
       </x:c>
     </x:row>
     <x:row r="101" spans="1:9">
       <x:c r="A101" s="0" t="n">
-        <x:v>140</x:v>
+        <x:v>1313</x:v>
       </x:c>
       <x:c r="B101" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="C101" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D101" s="0" t="n">
-        <x:v>112.982</x:v>
+        <x:v>120.122</x:v>
       </x:c>
       <x:c r="E101" s="0" t="n">
-        <x:v>22.9193</x:v>
+        <x:v>30.2955</x:v>
       </x:c>
       <x:c r="F101" s="0" t="s">
-        <x:v>274</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G101" s="0" t="s">
-        <x:v>280</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H101" s="0" t="n">
-        <x:v>171</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="I101" s="0" t="s">
-        <x:v>281</x:v>
+        <x:v>237</x:v>
       </x:c>
     </x:row>
     <x:row r="102" spans="1:9">
       <x:c r="A102" s="0" t="n">
-        <x:v>141</x:v>
+        <x:v>1314</x:v>
       </x:c>
       <x:c r="B102" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="C102" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="D102" s="0" t="n">
-        <x:v>112.982</x:v>
+        <x:v>120.278</x:v>
       </x:c>
       <x:c r="E102" s="0" t="n">
-        <x:v>22.9193</x:v>
+        <x:v>30.3045</x:v>
       </x:c>
       <x:c r="F102" s="0" t="s">
-        <x:v>107</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G102" s="0" t="s">
-        <x:v>282</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H102" s="0" t="n">
-        <x:v>776</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="I102" s="0" t="s">
-        <x:v>283</x:v>
+        <x:v>239</x:v>
       </x:c>
     </x:row>
     <x:row r="103" spans="1:9">
       <x:c r="A103" s="0" t="n">
-        <x:v>142</x:v>
+        <x:v>1315</x:v>
       </x:c>
       <x:c r="B103" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="C103" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="D103" s="0" t="n">
-        <x:v>112.982</x:v>
+        <x:v>120.234</x:v>
       </x:c>
       <x:c r="E103" s="0" t="n">
-        <x:v>22.9193</x:v>
+        <x:v>30.456</x:v>
       </x:c>
       <x:c r="F103" s="0" t="s">
-        <x:v>168</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G103" s="0" t="s">
-        <x:v>284</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H103" s="0" t="n">
-        <x:v>1720</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="I103" s="0" t="s">
-        <x:v>285</x:v>
+        <x:v>241</x:v>
       </x:c>
     </x:row>
     <x:row r="104" spans="1:9">
       <x:c r="A104" s="0" t="n">
-        <x:v>143</x:v>
+        <x:v>1316</x:v>
       </x:c>
       <x:c r="B104" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="C104" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D104" s="0" t="n">
+        <x:v>120.092</x:v>
+      </x:c>
+      <x:c r="E104" s="0" t="n">
+        <x:v>30.2787</x:v>
+      </x:c>
+      <x:c r="F104" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="G104" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="H104" s="0" t="n">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="I104" s="0" t="s">
+        <x:v>243</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="105" spans="1:9">
+      <x:c r="A105" s="0" t="n">
+        <x:v>1317</x:v>
+      </x:c>
+      <x:c r="B105" s="0" t="s">
+        <x:v>244</x:v>
+      </x:c>
+      <x:c r="C105" s="0" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="D105" s="0" t="n">
+        <x:v>119.95</x:v>
+      </x:c>
+      <x:c r="E105" s="0" t="n">
+        <x:v>30.2692</x:v>
+      </x:c>
+      <x:c r="F105" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="G105" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="H105" s="0" t="n">
+        <x:v>174</x:v>
+      </x:c>
+      <x:c r="I105" s="0" t="s">
+        <x:v>245</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="106" spans="1:9">
+      <x:c r="A106" s="0" t="n">
+        <x:v>1318</x:v>
+      </x:c>
+      <x:c r="B106" s="0" t="s">
+        <x:v>246</x:v>
+      </x:c>
+      <x:c r="C106" s="0" t="s">
+        <x:v>247</x:v>
+      </x:c>
+      <x:c r="D106" s="0" t="n">
+        <x:v>120.182</x:v>
+      </x:c>
+      <x:c r="E106" s="0" t="n">
+        <x:v>30.2258</x:v>
+      </x:c>
+      <x:c r="F106" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="G106" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="H106" s="0" t="n">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="I106" s="0" t="s">
+        <x:v>248</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="107" spans="1:9">
+      <x:c r="A107" s="0" t="n">
+        <x:v>1319</x:v>
+      </x:c>
+      <x:c r="B107" s="0" t="s">
+        <x:v>249</x:v>
+      </x:c>
+      <x:c r="C107" s="0" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="D107" s="0" t="n">
+        <x:v>120.288</x:v>
+      </x:c>
+      <x:c r="E107" s="0" t="n">
+        <x:v>30.1721</x:v>
+      </x:c>
+      <x:c r="F107" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="G107" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="H107" s="0" t="n">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="I107" s="0" t="s">
+        <x:v>250</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="108" spans="1:9">
+      <x:c r="A108" s="0" t="n">
+        <x:v>1320</x:v>
+      </x:c>
+      <x:c r="B108" s="0" t="s">
+        <x:v>251</x:v>
+      </x:c>
+      <x:c r="C108" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D108" s="0" t="n">
+        <x:v>120.07</x:v>
+      </x:c>
+      <x:c r="E108" s="0" t="n">
+        <x:v>30.3138</x:v>
+      </x:c>
+      <x:c r="F108" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="G108" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="H108" s="0" t="n">
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="I108" s="0" t="s">
+        <x:v>252</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="109" spans="1:9">
+      <x:c r="A109" s="0" t="n">
+        <x:v>1321</x:v>
+      </x:c>
+      <x:c r="B109" s="0" t="s">
+        <x:v>253</x:v>
+      </x:c>
+      <x:c r="C109" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D109" s="0" t="n">
+        <x:v>119.702</x:v>
+      </x:c>
+      <x:c r="E109" s="0" t="n">
+        <x:v>30.2249</x:v>
+      </x:c>
+      <x:c r="F109" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="G109" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="H109" s="0" t="n">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="I109" s="0" t="s">
+        <x:v>254</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="110" spans="1:9">
+      <x:c r="A110" s="0" t="n">
+        <x:v>1322</x:v>
+      </x:c>
+      <x:c r="B110" s="0" t="s">
+        <x:v>255</x:v>
+      </x:c>
+      <x:c r="C110" s="0" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="D110" s="0" t="n">
+        <x:v>120.138</x:v>
+      </x:c>
+      <x:c r="E110" s="0" t="n">
+        <x:v>30.2903</x:v>
+      </x:c>
+      <x:c r="F110" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="G110" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="H110" s="0" t="n">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="I110" s="0" t="s">
+        <x:v>256</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="111" spans="1:9">
+      <x:c r="A111" s="0" t="n">
+        <x:v>1323</x:v>
+      </x:c>
+      <x:c r="B111" s="0" t="s">
+        <x:v>257</x:v>
+      </x:c>
+      <x:c r="C111" s="0" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="D111" s="0" t="n">
+        <x:v>120.172</x:v>
+      </x:c>
+      <x:c r="E111" s="0" t="n">
+        <x:v>30.2422</x:v>
+      </x:c>
+      <x:c r="F111" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="G111" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="H111" s="0" t="n">
+        <x:v>188</x:v>
+      </x:c>
+      <x:c r="I111" s="0" t="s">
+        <x:v>258</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="112" spans="1:9">
+      <x:c r="A112" s="0" t="n">
+        <x:v>1324</x:v>
+      </x:c>
+      <x:c r="B112" s="0" t="s">
+        <x:v>259</x:v>
+      </x:c>
+      <x:c r="C112" s="0" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="D112" s="0" t="n">
+        <x:v>120.18</x:v>
+      </x:c>
+      <x:c r="E112" s="0" t="n">
+        <x:v>30.3493</x:v>
+      </x:c>
+      <x:c r="F112" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="G112" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="H112" s="0" t="n">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="I112" s="0" t="s">
+        <x:v>260</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="113" spans="1:9">
+      <x:c r="A113" s="0" t="n">
+        <x:v>1325</x:v>
+      </x:c>
+      <x:c r="B113" s="0" t="s">
+        <x:v>261</x:v>
+      </x:c>
+      <x:c r="C113" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="D113" s="0" t="n">
+        <x:v>120.191</x:v>
+      </x:c>
+      <x:c r="E113" s="0" t="n">
+        <x:v>30.4802</x:v>
+      </x:c>
+      <x:c r="F113" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="G113" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="H113" s="0" t="n">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="I113" s="0" t="s">
+        <x:v>262</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="114" spans="1:9">
+      <x:c r="A114" s="0" t="n">
+        <x:v>1326</x:v>
+      </x:c>
+      <x:c r="B114" s="0" t="s">
+        <x:v>263</x:v>
+      </x:c>
+      <x:c r="C114" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D114" s="0" t="n">
+        <x:v>120.188</x:v>
+      </x:c>
+      <x:c r="E114" s="0" t="n">
+        <x:v>30.3488</x:v>
+      </x:c>
+      <x:c r="F114" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="G114" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="H114" s="0" t="n">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="I114" s="0" t="s">
+        <x:v>264</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="115" spans="1:9">
+      <x:c r="A115" s="0" t="n">
+        <x:v>1327</x:v>
+      </x:c>
+      <x:c r="B115" s="0" t="s">
+        <x:v>265</x:v>
+      </x:c>
+      <x:c r="C115" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="D115" s="0" t="n">
+        <x:v>120.462</x:v>
+      </x:c>
+      <x:c r="E115" s="0" t="n">
+        <x:v>30.3</x:v>
+      </x:c>
+      <x:c r="F115" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="G115" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="H115" s="0" t="n">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="I115" s="0" t="s">
+        <x:v>266</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="116" spans="1:9">
+      <x:c r="A116" s="0" t="n">
+        <x:v>1328</x:v>
+      </x:c>
+      <x:c r="B116" s="0" t="s">
+        <x:v>267</x:v>
+      </x:c>
+      <x:c r="C116" s="0" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="D116" s="0" t="n">
+        <x:v>120.193</x:v>
+      </x:c>
+      <x:c r="E116" s="0" t="n">
+        <x:v>30.2835</x:v>
+      </x:c>
+      <x:c r="F116" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="G116" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="H116" s="0" t="n">
+        <x:v>165</x:v>
+      </x:c>
+      <x:c r="I116" s="0" t="s">
+        <x:v>268</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="117" spans="1:9">
+      <x:c r="A117" s="0" t="n">
+        <x:v>1329</x:v>
+      </x:c>
+      <x:c r="B117" s="0" t="s">
+        <x:v>269</x:v>
+      </x:c>
+      <x:c r="C117" s="0" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="D117" s="0" t="n">
+        <x:v>119.944</x:v>
+      </x:c>
+      <x:c r="E117" s="0" t="n">
+        <x:v>30.2607</x:v>
+      </x:c>
+      <x:c r="F117" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="G117" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="H117" s="0" t="n">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="I117" s="0" t="s">
+        <x:v>270</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="118" spans="1:9">
+      <x:c r="A118" s="0" t="n">
+        <x:v>1330</x:v>
+      </x:c>
+      <x:c r="B118" s="0" t="s">
+        <x:v>271</x:v>
+      </x:c>
+      <x:c r="C118" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D118" s="0" t="n">
+        <x:v>119.918</x:v>
+      </x:c>
+      <x:c r="E118" s="0" t="n">
+        <x:v>30.2368</x:v>
+      </x:c>
+      <x:c r="F118" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="G118" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="H118" s="0" t="n">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="I118" s="0" t="s">
+        <x:v>272</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="119" spans="1:9">
+      <x:c r="A119" s="0" t="n">
+        <x:v>1331</x:v>
+      </x:c>
+      <x:c r="B119" s="0" t="s">
+        <x:v>273</x:v>
+      </x:c>
+      <x:c r="C119" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D119" s="0" t="n">
+        <x:v>119.942</x:v>
+      </x:c>
+      <x:c r="E119" s="0" t="n">
+        <x:v>30.2704</x:v>
+      </x:c>
+      <x:c r="F119" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="G119" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="H119" s="0" t="n">
+        <x:v>164</x:v>
+      </x:c>
+      <x:c r="I119" s="0" t="s">
+        <x:v>274</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="120" spans="1:9">
+      <x:c r="A120" s="0" t="n">
+        <x:v>1332</x:v>
+      </x:c>
+      <x:c r="B120" s="0" t="s">
+        <x:v>275</x:v>
+      </x:c>
+      <x:c r="C120" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D120" s="0" t="n">
+        <x:v>120.388</x:v>
+      </x:c>
+      <x:c r="E120" s="0" t="n">
+        <x:v>30.294</x:v>
+      </x:c>
+      <x:c r="F120" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="G120" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="H120" s="0" t="n">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="I120" s="0" t="s">
+        <x:v>276</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="121" spans="1:9">
+      <x:c r="A121" s="0" t="n">
+        <x:v>1333</x:v>
+      </x:c>
+      <x:c r="B121" s="0" t="s">
+        <x:v>277</x:v>
+      </x:c>
+      <x:c r="C121" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="D121" s="0" t="n">
+        <x:v>120.286</x:v>
+      </x:c>
+      <x:c r="E121" s="0" t="n">
+        <x:v>30.443</x:v>
+      </x:c>
+      <x:c r="F121" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="G121" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="H121" s="0" t="n">
+        <x:v>179</x:v>
+      </x:c>
+      <x:c r="I121" s="0" t="s">
+        <x:v>278</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="122" spans="1:9">
+      <x:c r="A122" s="0" t="n">
+        <x:v>1334</x:v>
+      </x:c>
+      <x:c r="B122" s="0" t="s">
+        <x:v>279</x:v>
+      </x:c>
+      <x:c r="C122" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="D122" s="0" t="n">
+        <x:v>120.247</x:v>
+      </x:c>
+      <x:c r="E122" s="0" t="n">
+        <x:v>30.1806</x:v>
+      </x:c>
+      <x:c r="F122" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="G122" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="H122" s="0" t="n">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="I122" s="0" t="s">
+        <x:v>280</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="123" spans="1:9">
+      <x:c r="A123" s="0" t="n">
+        <x:v>1335</x:v>
+      </x:c>
+      <x:c r="B123" s="0" t="s">
+        <x:v>281</x:v>
+      </x:c>
+      <x:c r="C123" s="0" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="D123" s="0" t="n">
+        <x:v>120.153</x:v>
+      </x:c>
+      <x:c r="E123" s="0" t="n">
+        <x:v>30.2764</x:v>
+      </x:c>
+      <x:c r="F123" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="G123" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="H123" s="0" t="n">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="I123" s="0" t="s">
+        <x:v>282</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="124" spans="1:9">
+      <x:c r="A124" s="0" t="n">
+        <x:v>1336</x:v>
+      </x:c>
+      <x:c r="B124" s="0" t="s">
+        <x:v>283</x:v>
+      </x:c>
+      <x:c r="C124" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="D124" s="0" t="n">
+        <x:v>120.298</x:v>
+      </x:c>
+      <x:c r="E124" s="0" t="n">
+        <x:v>30.1458</x:v>
+      </x:c>
+      <x:c r="F124" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="G124" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="H124" s="0" t="n">
+        <x:v>191</x:v>
+      </x:c>
+      <x:c r="I124" s="0" t="s">
+        <x:v>284</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="125" spans="1:9">
+      <x:c r="A125" s="0" t="n">
+        <x:v>1337</x:v>
+      </x:c>
+      <x:c r="B125" s="0" t="s">
+        <x:v>285</x:v>
+      </x:c>
+      <x:c r="C125" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="D125" s="0" t="n">
+        <x:v>119.729</x:v>
+      </x:c>
+      <x:c r="E125" s="0" t="n">
+        <x:v>30.2398</x:v>
+      </x:c>
+      <x:c r="F125" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="G125" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="H125" s="0" t="n">
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="I125" s="0" t="s">
+        <x:v>286</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="126" spans="1:9">
+      <x:c r="A126" s="0" t="n">
+        <x:v>1338</x:v>
+      </x:c>
+      <x:c r="B126" s="0" t="s">
+        <x:v>287</x:v>
+      </x:c>
+      <x:c r="C126" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D126" s="0" t="n">
+        <x:v>120.395</x:v>
+      </x:c>
+      <x:c r="E126" s="0" t="n">
+        <x:v>30.3264</x:v>
+      </x:c>
+      <x:c r="F126" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="G126" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="H126" s="0" t="n">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="I126" s="0" t="s">
+        <x:v>288</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="127" spans="1:9">
+      <x:c r="A127" s="0" t="n">
+        <x:v>1339</x:v>
+      </x:c>
+      <x:c r="B127" s="0" t="s">
+        <x:v>289</x:v>
+      </x:c>
+      <x:c r="C127" s="0" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="D127" s="0" t="n">
+        <x:v>119.732</x:v>
+      </x:c>
+      <x:c r="E127" s="0" t="n">
+        <x:v>30.2336</x:v>
+      </x:c>
+      <x:c r="F127" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="G127" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="H127" s="0" t="n">
+        <x:v>195</x:v>
+      </x:c>
+      <x:c r="I127" s="0" t="s">
+        <x:v>290</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="128" spans="1:9">
+      <x:c r="A128" s="0" t="n">
+        <x:v>1340</x:v>
+      </x:c>
+      <x:c r="B128" s="0" t="s">
+        <x:v>291</x:v>
+      </x:c>
+      <x:c r="C128" s="0" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="D128" s="0" t="n">
+        <x:v>120.252</x:v>
+      </x:c>
+      <x:c r="E128" s="0" t="n">
+        <x:v>30.1837</x:v>
+      </x:c>
+      <x:c r="F128" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="G128" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="H128" s="0" t="n">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="I128" s="0" t="s">
+        <x:v>292</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="129" spans="1:9">
+      <x:c r="A129" s="0" t="n">
+        <x:v>1341</x:v>
+      </x:c>
+      <x:c r="B129" s="0" t="s">
+        <x:v>293</x:v>
+      </x:c>
+      <x:c r="C129" s="0" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="D129" s="0" t="n">
+        <x:v>120.21</x:v>
+      </x:c>
+      <x:c r="E129" s="0" t="n">
+        <x:v>30.2999</x:v>
+      </x:c>
+      <x:c r="F129" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="G129" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="H129" s="0" t="n">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="I129" s="0" t="s">
+        <x:v>294</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="130" spans="1:9">
+      <x:c r="A130" s="0" t="n">
+        <x:v>1342</x:v>
+      </x:c>
+      <x:c r="B130" s="0" t="s">
+        <x:v>295</x:v>
+      </x:c>
+      <x:c r="C130" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="D130" s="0" t="n">
+        <x:v>120.169</x:v>
+      </x:c>
+      <x:c r="E130" s="0" t="n">
+        <x:v>30.2556</x:v>
+      </x:c>
+      <x:c r="F130" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="G130" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="H130" s="0" t="n">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="I130" s="0" t="s">
+        <x:v>296</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="131" spans="1:9">
+      <x:c r="A131" s="0" t="n">
+        <x:v>1343</x:v>
+      </x:c>
+      <x:c r="B131" s="0" t="s">
+        <x:v>297</x:v>
+      </x:c>
+      <x:c r="C131" s="0" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="D131" s="0" t="n">
+        <x:v>120.191</x:v>
+      </x:c>
+      <x:c r="E131" s="0" t="n">
+        <x:v>30.2265</x:v>
+      </x:c>
+      <x:c r="F131" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="G131" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="H131" s="0" t="n">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="I131" s="0" t="s">
+        <x:v>298</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="132" spans="1:9">
+      <x:c r="A132" s="0" t="n">
+        <x:v>1344</x:v>
+      </x:c>
+      <x:c r="B132" s="0" t="s">
+        <x:v>299</x:v>
+      </x:c>
+      <x:c r="C132" s="0" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="D132" s="0" t="n">
+        <x:v>120.038</x:v>
+      </x:c>
+      <x:c r="E132" s="0" t="n">
+        <x:v>30.1399</x:v>
+      </x:c>
+      <x:c r="F132" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="G132" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="H132" s="0" t="n">
+        <x:v>181</x:v>
+      </x:c>
+      <x:c r="I132" s="0" t="s">
+        <x:v>300</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="133" spans="1:9">
+      <x:c r="A133" s="0" t="n">
+        <x:v>1345</x:v>
+      </x:c>
+      <x:c r="B133" s="0" t="s">
+        <x:v>301</x:v>
+      </x:c>
+      <x:c r="C133" s="0" t="s">
+        <x:v>167</x:v>
+      </x:c>
+      <x:c r="D133" s="0" t="n">
+        <x:v>120.267</x:v>
+      </x:c>
+      <x:c r="E133" s="0" t="n">
+        <x:v>30.2059</x:v>
+      </x:c>
+      <x:c r="F133" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="G133" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="H133" s="0" t="n">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="I133" s="0" t="s">
+        <x:v>302</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="134" spans="1:9">
+      <x:c r="A134" s="0" t="n">
+        <x:v>1346</x:v>
+      </x:c>
+      <x:c r="B134" s="0" t="s">
+        <x:v>303</x:v>
+      </x:c>
+      <x:c r="C134" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D134" s="0" t="n">
+        <x:v>120.295</x:v>
+      </x:c>
+      <x:c r="E134" s="0" t="n">
+        <x:v>30.4257</x:v>
+      </x:c>
+      <x:c r="F134" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="G134" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="H134" s="0" t="n">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="I134" s="0" t="s">
+        <x:v>304</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="135" spans="1:9">
+      <x:c r="A135" s="0" t="n">
+        <x:v>1347</x:v>
+      </x:c>
+      <x:c r="B135" s="0" t="s">
+        <x:v>305</x:v>
+      </x:c>
+      <x:c r="C135" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="D135" s="0" t="n">
+        <x:v>120.196</x:v>
+      </x:c>
+      <x:c r="E135" s="0" t="n">
+        <x:v>30.3272</x:v>
+      </x:c>
+      <x:c r="F135" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="G135" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="H135" s="0" t="n">
+        <x:v>179</x:v>
+      </x:c>
+      <x:c r="I135" s="0" t="s">
+        <x:v>306</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="136" spans="1:9">
+      <x:c r="A136" s="0" t="n">
+        <x:v>1348</x:v>
+      </x:c>
+      <x:c r="B136" s="0" t="s">
+        <x:v>307</x:v>
+      </x:c>
+      <x:c r="C136" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D136" s="0" t="n">
+        <x:v>120.147</x:v>
+      </x:c>
+      <x:c r="E136" s="0" t="n">
+        <x:v>30.2905</x:v>
+      </x:c>
+      <x:c r="F136" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="G136" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="H136" s="0" t="n">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="I136" s="0" t="s">
+        <x:v>308</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="137" spans="1:9">
+      <x:c r="A137" s="0" t="n">
+        <x:v>1349</x:v>
+      </x:c>
+      <x:c r="B137" s="0" t="s">
+        <x:v>309</x:v>
+      </x:c>
+      <x:c r="C137" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="D137" s="0" t="n">
+        <x:v>120.182</x:v>
+      </x:c>
+      <x:c r="E137" s="0" t="n">
+        <x:v>30.2555</x:v>
+      </x:c>
+      <x:c r="F137" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="G137" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="H137" s="0" t="n">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="I137" s="0" t="s">
+        <x:v>310</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="138" spans="1:9">
+      <x:c r="A138" s="0" t="n">
+        <x:v>1350</x:v>
+      </x:c>
+      <x:c r="B138" s="0" t="s">
+        <x:v>311</x:v>
+      </x:c>
+      <x:c r="C138" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="D138" s="0" t="n">
+        <x:v>120.493</x:v>
+      </x:c>
+      <x:c r="E138" s="0" t="n">
+        <x:v>30.2728</x:v>
+      </x:c>
+      <x:c r="F138" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="G138" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="H138" s="0" t="n">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="I138" s="0" t="s">
+        <x:v>312</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="139" spans="1:9">
+      <x:c r="A139" s="0" t="n">
+        <x:v>1351</x:v>
+      </x:c>
+      <x:c r="B139" s="0" t="s">
+        <x:v>313</x:v>
+      </x:c>
+      <x:c r="C139" s="0" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="D139" s="0" t="n">
+        <x:v>119.31</x:v>
+      </x:c>
+      <x:c r="E139" s="0" t="n">
+        <x:v>29.4937</x:v>
+      </x:c>
+      <x:c r="F139" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="G139" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="H139" s="0" t="n">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="I139" s="0" t="s">
+        <x:v>314</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="140" spans="1:9">
+      <x:c r="A140" s="0" t="n">
+        <x:v>1352</x:v>
+      </x:c>
+      <x:c r="B140" s="0" t="s">
+        <x:v>315</x:v>
+      </x:c>
+      <x:c r="C140" s="0" t="s">
+        <x:v>167</x:v>
+      </x:c>
+      <x:c r="D140" s="0" t="n">
+        <x:v>120.226</x:v>
+      </x:c>
+      <x:c r="E140" s="0" t="n">
+        <x:v>30.2923</x:v>
+      </x:c>
+      <x:c r="F140" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="G140" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="H140" s="0" t="n">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="I140" s="0" t="s">
+        <x:v>316</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="141" spans="1:9">
+      <x:c r="A141" s="0" t="n">
+        <x:v>1353</x:v>
+      </x:c>
+      <x:c r="B141" s="0" t="s">
+        <x:v>317</x:v>
+      </x:c>
+      <x:c r="C141" s="0" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="D141" s="0" t="n">
+        <x:v>120.082</x:v>
+      </x:c>
+      <x:c r="E141" s="0" t="n">
+        <x:v>30.3374</x:v>
+      </x:c>
+      <x:c r="F141" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="G141" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="H141" s="0" t="n">
+        <x:v>196</x:v>
+      </x:c>
+      <x:c r="I141" s="0" t="s">
+        <x:v>318</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="142" spans="1:9">
+      <x:c r="A142" s="0" t="n">
+        <x:v>1354</x:v>
+      </x:c>
+      <x:c r="B142" s="0" t="s">
+        <x:v>319</x:v>
+      </x:c>
+      <x:c r="C142" s="0" t="s">
+        <x:v>228</x:v>
+      </x:c>
+      <x:c r="D142" s="0" t="n">
+        <x:v>120.043</x:v>
+      </x:c>
+      <x:c r="E142" s="0" t="n">
+        <x:v>30.3704</x:v>
+      </x:c>
+      <x:c r="F142" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="G142" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="H142" s="0" t="n">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="I142" s="0" t="s">
+        <x:v>320</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="143" spans="1:9">
+      <x:c r="A143" s="0" t="n">
+        <x:v>1355</x:v>
+      </x:c>
+      <x:c r="B143" s="0" t="s">
+        <x:v>321</x:v>
+      </x:c>
+      <x:c r="C143" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="D143" s="0" t="n">
+        <x:v>120.265</x:v>
+      </x:c>
+      <x:c r="E143" s="0" t="n">
+        <x:v>30.146</x:v>
+      </x:c>
+      <x:c r="F143" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="G143" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="H143" s="0" t="n">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="I143" s="0" t="s">
+        <x:v>322</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="144" spans="1:9">
+      <x:c r="A144" s="0" t="n">
+        <x:v>1356</x:v>
+      </x:c>
+      <x:c r="B144" s="0" t="s">
+        <x:v>323</x:v>
+      </x:c>
+      <x:c r="C144" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="D144" s="0" t="n">
+        <x:v>120.166</x:v>
+      </x:c>
+      <x:c r="E144" s="0" t="n">
+        <x:v>30.2512</x:v>
+      </x:c>
+      <x:c r="F144" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="G144" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="H144" s="0" t="n">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="I144" s="0" t="s">
+        <x:v>324</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="145" spans="1:9">
+      <x:c r="A145" s="0" t="n">
+        <x:v>1357</x:v>
+      </x:c>
+      <x:c r="B145" s="0" t="s">
+        <x:v>325</x:v>
+      </x:c>
+      <x:c r="C145" s="0" t="s">
+        <x:v>228</x:v>
+      </x:c>
+      <x:c r="D145" s="0" t="n">
+        <x:v>120.293</x:v>
+      </x:c>
+      <x:c r="E145" s="0" t="n">
+        <x:v>30.431</x:v>
+      </x:c>
+      <x:c r="F145" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="G145" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="H145" s="0" t="n">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="I145" s="0" t="s">
+        <x:v>326</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="146" spans="1:9">
+      <x:c r="A146" s="0" t="n">
+        <x:v>1358</x:v>
+      </x:c>
+      <x:c r="B146" s="0" t="s">
+        <x:v>327</x:v>
+      </x:c>
+      <x:c r="C146" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="D146" s="0" t="n">
+        <x:v>120.259</x:v>
+      </x:c>
+      <x:c r="E146" s="0" t="n">
+        <x:v>30.1843</x:v>
+      </x:c>
+      <x:c r="F146" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="G146" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="H146" s="0" t="n">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="I146" s="0" t="s">
+        <x:v>328</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="147" spans="1:9">
+      <x:c r="A147" s="0" t="n">
+        <x:v>1359</x:v>
+      </x:c>
+      <x:c r="B147" s="0" t="s">
+        <x:v>329</x:v>
+      </x:c>
+      <x:c r="C147" s="0" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="D147" s="0" t="n">
+        <x:v>120.472</x:v>
+      </x:c>
+      <x:c r="E147" s="0" t="n">
+        <x:v>30.2257</x:v>
+      </x:c>
+      <x:c r="F147" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="G147" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="H147" s="0" t="n">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="I147" s="0" t="s">
+        <x:v>330</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="148" spans="1:9">
+      <x:c r="A148" s="0" t="n">
+        <x:v>1360</x:v>
+      </x:c>
+      <x:c r="B148" s="0" t="s">
+        <x:v>331</x:v>
+      </x:c>
+      <x:c r="C148" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="D148" s="0" t="n">
+        <x:v>120.199</x:v>
+      </x:c>
+      <x:c r="E148" s="0" t="n">
+        <x:v>30.2611</x:v>
+      </x:c>
+      <x:c r="F148" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="G148" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="H148" s="0" t="n">
+        <x:v>167</x:v>
+      </x:c>
+      <x:c r="I148" s="0" t="s">
+        <x:v>332</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="149" spans="1:9">
+      <x:c r="A149" s="0" t="n">
+        <x:v>1361</x:v>
+      </x:c>
+      <x:c r="B149" s="0" t="s">
+        <x:v>333</x:v>
+      </x:c>
+      <x:c r="C149" s="0" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="D149" s="0" t="n">
+        <x:v>120.118</x:v>
+      </x:c>
+      <x:c r="E149" s="0" t="n">
+        <x:v>30.2738</x:v>
+      </x:c>
+      <x:c r="F149" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="G149" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="H149" s="0" t="n">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="I149" s="0" t="s">
+        <x:v>334</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="150" spans="1:9">
+      <x:c r="A150" s="0" t="n">
+        <x:v>1362</x:v>
+      </x:c>
+      <x:c r="B150" s="0" t="s">
+        <x:v>335</x:v>
+      </x:c>
+      <x:c r="C150" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D150" s="0" t="n">
+        <x:v>120.017</x:v>
+      </x:c>
+      <x:c r="E150" s="0" t="n">
+        <x:v>30.2115</x:v>
+      </x:c>
+      <x:c r="F150" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="G150" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="H150" s="0" t="n">
+        <x:v>167</x:v>
+      </x:c>
+      <x:c r="I150" s="0" t="s">
+        <x:v>336</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="151" spans="1:9">
+      <x:c r="A151" s="0" t="n">
+        <x:v>1363</x:v>
+      </x:c>
+      <x:c r="B151" s="0" t="s">
+        <x:v>337</x:v>
+      </x:c>
+      <x:c r="C151" s="0" t="s">
         <x:v>45</x:v>
       </x:c>
-      <x:c r="D104" s="0" t="n">
-        <x:v>112.982</x:v>
-      </x:c>
-      <x:c r="E104" s="0" t="n">
-        <x:v>22.9193</x:v>
-      </x:c>
-      <x:c r="F104" s="0" t="s">
-        <x:v>244</x:v>
-      </x:c>
-      <x:c r="G104" s="0" t="s">
-        <x:v>286</x:v>
-      </x:c>
-      <x:c r="H104" s="0" t="n">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="I104" s="0" t="s">
-        <x:v>287</x:v>
+      <x:c r="D151" s="0" t="n">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="E151" s="0" t="n">
+        <x:v>29.5911</x:v>
+      </x:c>
+      <x:c r="F151" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="G151" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="H151" s="0" t="n">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="I151" s="0" t="s">
+        <x:v>338</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="152" spans="1:9">
+      <x:c r="A152" s="0" t="n">
+        <x:v>1364</x:v>
+      </x:c>
+      <x:c r="B152" s="0" t="s">
+        <x:v>339</x:v>
+      </x:c>
+      <x:c r="C152" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D152" s="0" t="n">
+        <x:v>112.994</x:v>
+      </x:c>
+      <x:c r="E152" s="0" t="n">
+        <x:v>22.4912</x:v>
+      </x:c>
+      <x:c r="F152" s="0" t="s">
+        <x:v>340</x:v>
+      </x:c>
+      <x:c r="G152" s="0" t="s">
+        <x:v>341</x:v>
+      </x:c>
+      <x:c r="H152" s="0" t="n">
+        <x:v>46902</x:v>
+      </x:c>
+      <x:c r="I152" s="0" t="s">
+        <x:v>342</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
